--- a/outputs/fft-o__Bacteroidales.xlsx
+++ b/outputs/fft-o__Bacteroidales.xlsx
@@ -11,6 +11,8 @@
     <sheet name="g__C941_wrapper-SH1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="g__C941_wrapper-SH2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="g__C941_wrapper-SH3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="g__C941_wrapper-SH4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="g__C941_wrapper-SH-c" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7920,4 +7922,4196 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>f__Dysgonomonadaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f__Marinilabiliaceae</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>f__PUMT01</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>f__Prolixibacteraceae</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>f__UBA7960</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>f__VadinHA17</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.696003120011667</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-32.58758322684021</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-16.39721164330707</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-16.70176404658858</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.351482998403526</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-5.110162289809754</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-5.078474776671463</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-3.745884615644956</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-11.00075678922726</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-9.660130894205716</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-34.54050660825411</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-7.391782096551781</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-15.20238891230406</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-7.466033937832421</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-3.836543960015171</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.2367252075815513</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-23.41991084878598</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-13.19387757134755</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-15.13006739065356</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-1.79241924278284</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-3.993383766618858</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-3.324717125968896</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-3.549540216123421</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-8.960562496466761</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-7.897953949152347</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-30.81140535635363</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-3.509434598369182</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-17.84681405968743</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-6.64930912893255</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-4.367884758765795</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.902577593908823</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-38.55901172169773</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-26.26817765503323</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-16.21559690046423</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9288028518305013</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-6.366111661808878</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-5.647498725738992</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-5.306148192777626</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-12.02018078626772</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-10.96574568069579</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-37.65157623471869</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-8.765803678246595</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-23.51501294690851</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-8.153914314808411</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-4.273921973811657</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4128304846604919</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-17.67437161054585</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-7.650105861224173</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-14.16788547941713</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.301755831187936</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-4.294802897006278</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-3.91485186954076</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-4.483946398058116</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-8.418843066080191</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-7.157144396825498</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-25.89843240077545</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-6.353456870548322</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-22.11584823633979</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-5.116167304513854</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-3.486831680814849</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.559207190199151</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-18.17304025623585</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-4.894089744494239</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-15.5074326408418</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.686729220716236</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-4.19285637442264</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-3.611631466426731</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-3.488781649406102</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-10.75980342599399</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-5.947812566538863</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-27.809640584922</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-9.330329261358262</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-11.54332763269578</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-3.290920575452918</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-3.94923859235273</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.381817757766129</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-30.88915042522947</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-22.12240543722747</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-17.73394440448267</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.575855752508307</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-4.008818982710832</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-4.741919847395966</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-4.085301676670793</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-12.92202265279402</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-9.329964077881323</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-40.711010134343</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-7.044185940894621</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-22.90636580931945</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-7.458523151143886</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-3.90619756561257</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1.601446906141261</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-31.15657871101457</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-18.50812305982697</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-14.61992779073516</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.516016108389462</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-5.516318254864663</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-5.206115096510302</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-4.963514842003821</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-11.01698483187379</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-8.830848433769946</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-39.69961180073024</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-8.053509539612429</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-21.18776224842711</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-9.296158090513305</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-3.509504026020883</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.7544364600410047</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-15.31669577899813</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-6.581592516265004</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-10.00823051842358</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-4.35794873517299</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-3.471583583331586</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-2.518120179689725</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-3.623987067117508</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-7.389620390948771</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-4.018094720162404</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-29.71286241709466</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-6.373054869290045</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-10.66995159658689</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-3.68031062599036</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-5.980759096803769</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.3029449987063195</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-26.46189787780971</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-23.01352758312004</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-16.29208053032792</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.6715689849582532</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-3.287477426761558</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-4.96338933397935</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-3.414048317121141</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-10.17552967635828</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-7.517784929089891</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-39.58673068612328</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-8.925394614896167</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-12.74770568035404</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-5.719235615244704</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-4.831670384218994</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.930686640360741</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-27.83613842606819</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-10.74413588512007</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-14.78717101070938</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.965735802049741</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-4.698160192691926</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-4.240333731883219</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-4.006567461908401</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-9.287477051041439</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-8.929786083399287</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-33.02011816560742</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-6.090673619769635</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-14.07962172450479</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-6.37251651957252</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-3.440967143680489</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-1.301878191164511</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-24.616765382371</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-16.93077070385955</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-11.60865619125015</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9.320330395045508</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-4.285091846046621</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-4.422672174049889</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-4.163939860127608</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-8.442470381351646</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-8.685318346255242</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-26.8948142152217</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-6.218380880729417</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-13.83859974361152</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-5.959237575375218</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-2.8299200600572</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-2.849029982731225</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-34.01507408258843</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-28.7401083544557</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-13.72706064962954</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.188146421563645</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-5.507505795715034</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-6.706878492887913</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-4.401628745565042</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-15.43255565923359</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-9.43744705349854</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-37.31938531201212</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-8.936984648831881</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-20.17320333112748</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-6.570631280179832</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-5.65739007688598</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-1.690210175890779</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-52.43629578289225</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-55.41151028761824</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-17.4781642083564</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10.94359664494904</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-3.91135915271128</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-4.972854537719536</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-6.639081563112536</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-13.88220937192034</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-16.16601396099381</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-50.97170499055655</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-7.270866943263855</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-35.2043017206838</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-11.07280890983023</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-6.994926829817371</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-1.196876561819791</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-29.78907665013831</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-21.14028875589453</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-14.02090185049555</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5.066443110927822</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-4.399548427266954</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-6.358626783348181</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-4.334478239834871</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-10.90421247844409</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-9.753890468363709</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-35.01675899068184</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-6.972500480615421</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-10.05045505649948</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-8.057146308781606</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-3.839422944283425</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-1.376611254452133</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-18.11406663678443</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-11.47842163633662</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-11.42398420670044</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.583260549457648</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-4.135023990906494</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-2.929433535119986</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-3.066651413248914</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-9.840309311041382</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-6.420704340250528</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-21.60089207812077</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-6.601023445455348</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-18.3966537926236</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-5.331758695186921</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-2.431332579362445</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.4230677947483333</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-28.09637133214186</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-21.551078467042</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-18.16150714050996</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5.574903326212532</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-2.846045076753256</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-4.389813217490266</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-4.642633750028327</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-10.61581169271166</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-9.945926910953151</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-55.65943282015148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-4.280352207624061</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-18.23203520007005</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-8.502869667612307</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-7.567881673138341</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-1.203376724538999</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-34.55186863976205</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-23.53829402477453</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-12.76649909004265</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7.747816252580238</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-4.892140895228259</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-4.549274363281069</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-4.03306067796229</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-8.973283496802429</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-9.10425549736537</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-34.16683161677236</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-6.841776745173918</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-6.714570647732037</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-7.961601005325517</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-3.98635993312825</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.7760729000496087</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-25.78661038583807</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-14.05229044863261</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-18.12269673679375</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6.389069794755059</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-3.982979718174664</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-5.215221867113327</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-3.100574044282417</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-9.497158292134619</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-9.321414366917196</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-37.81625200339786</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-8.596315157212477</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-17.90962809168651</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-4.732384678432173</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-4.655146104225382</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.814511611794152</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-21.35897782175114</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-17.51132681446255</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-14.35684934557839</v>
+      </c>
+      <c r="F20" t="n">
+        <v>13.08033411234962</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-4.054562677386958</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-3.933717672895539</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-4.997596935005841</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-7.62747281075759</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-8.355740575788298</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-26.26140682641341</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-8.56583907932013</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-19.34452572918413</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-6.543305752523183</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-2.892238136681909</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.5692427619754937</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-20.37865779122634</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-13.74143149768972</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-12.23084954089908</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1964848651914687</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-3.640797448698314</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-3.874051944001711</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-4.332931214035135</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-8.381015259806555</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-7.458746594141412</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-20.63203204001455</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-6.949760980751972</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-10.37952234073592</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-5.5061385466726</v>
+      </c>
+      <c r="P21" t="n">
+        <v>-3.802336121103977</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-2.162655728500912</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-31.81358899704272</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-24.30575003279112</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-13.35035607565851</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6.448426140749762</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-5.00727827538535</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-7.231284068217293</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-4.436977477141681</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-11.02552483243624</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-9.264267980938529</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-37.24000211698844</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-9.452930955689158</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-17.68298966793434</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-6.45760367831625</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-3.131293809518041</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-2.08178616731294</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-28.98648470628365</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-23.74634171062899</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-15.69227843366598</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.220757665381653</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-4.231142164531969</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-4.829954479877238</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-3.483379931353931</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-10.42413248879438</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-8.303831072011773</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-29.03582867949898</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-6.838379871905375</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-15.10528985907212</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-7.397301472068062</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-4.434381088314136</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.6689836082082348</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-24.2324501340975</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-15.80536349668638</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-15.97716741433053</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7.722941353511987</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-4.124108342443336</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-3.95325523396849</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-3.462073507616766</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-12.21037011762669</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-7.847370127638163</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-37.86214442703604</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-8.405671166323769</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-26.94990919787573</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-5.500816393181997</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-4.571099245036269</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.9298531153258941</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-20.36006829260327</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-13.86733052233974</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-11.87184849188585</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.156382006499579</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-3.20385288242403</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-4.140582913638337</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-3.797917696389585</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-9.416493887463881</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-7.969311246130524</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-24.02406175212217</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-7.368973026463924</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-16.476927185335</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-5.864637389376563</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-2.856608835084094</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.6594093748693783</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-26.09348389324398</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-23.30463600800322</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-17.87364784367647</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-3.651313924822243</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-3.758967120262362</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-3.379934063693587</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-3.263047731984733</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-9.403522961184091</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-8.709074840306966</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-39.73524924314214</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-5.804111234312562</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-23.92467005059709</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-7.948867476331534</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-7.100105115384644</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.333273962426778</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-21.34555018650989</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-8.000616649284137</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-12.43668582157041</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.251059173310644</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-4.638874575626033</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-4.029932540541067</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-3.76377664512576</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-8.404173921969107</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-8.057198257625535</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-20.94145823962448</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-6.424157117880055</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-18.22566090011908</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-5.244053533389435</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-3.609150520073896</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-1.370494152986423</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-20.30542993121605</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-13.41172858525332</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-13.64734976481733</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7.620970515336226</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-4.07904542852764</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-3.645718259844219</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-3.923816900754688</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-7.95111256452911</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-8.150761562480458</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-23.19598934890177</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-7.029811943831499</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-20.35743796968314</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-6.273609495021431</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-3.893356161385137</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-1.620238102463415</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-23.51846407304592</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-22.67045785273352</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-12.45169087363111</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9.636022821241159</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-3.725655880277835</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-3.806940788012922</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-3.459812634434919</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-8.61264637272304</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-7.768054896142253</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-28.96653436088278</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-7.646660541543748</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-12.09605626680203</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-6.208790365342232</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-3.266758190727299</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-1.21693947167268</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-27.23461150202306</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-27.18255525438914</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-12.92601059138127</v>
+      </c>
+      <c r="F30" t="n">
+        <v>14.72060975731846</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-4.03244620016193</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-6.004392788437972</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-4.180397643151888</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-9.450972097305026</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-9.860855917804987</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-49.73664802185189</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-5.503358048734372</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-16.06436642565653</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-7.609602698455263</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-7.203172904421081</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.807778780548377</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-22.2952164465659</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-15.51495648246247</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-12.59150432491117</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6.175809601143409</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-4.392310401166944</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-4.065752872494155</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-3.533350109411975</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-8.142344110914134</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-7.510450204273632</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-27.41304325767951</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-5.935859415775229</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-15.67530463979053</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-5.779708207414759</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-4.598247353404398</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-1.408780395932864</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-27.23874544728796</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-22.52625366940917</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-14.18877456614163</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-1.114279159636467</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-4.537147607250783</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-4.251217076223996</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-2.686807102791559</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-6.697865461945399</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-8.417926589698249</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-24.75167306855637</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-5.062392935819369</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-11.11885277478958</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-6.575266830938677</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-2.972284582660822</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-1.657541480577861</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-27.52270258596945</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-15.59257593354332</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-17.13297529664207</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9080240268939633</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-4.820082847132643</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-4.996650555482683</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-4.438847914199341</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-7.341808682162585</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-9.067069015885727</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-38.09401657898317</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-5.949690479433465</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-14.52892521768677</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-6.943926439390169</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-3.27899726159871</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-1.014438003693894</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-27.25416490052692</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-21.6266981479037</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-13.86143526127069</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9.072980016777983</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-4.127094034592918</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-4.950531668826757</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-3.189967892013325</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-12.22712958505207</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-10.199590279208</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-50.89671710542881</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-5.038882043136304</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-25.63338812449151</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-11.70162958667689</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-4.153027043512694</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.5789815251065559</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-18.70663090488262</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-13.08709749689066</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-13.72888875827485</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4.360189825805254</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-3.915037975865767</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-3.628005585986349</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-4.152692570533908</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-10.59593678809567</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-6.276726928376109</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-33.82230407361374</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-6.441659889097601</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-22.02638230223247</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-3.931214216089479</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-6.336431240997327</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.09342040015014455</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-25.17148830730714</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-18.57896992612822</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-15.95030623150396</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4.676789112978073</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-3.742588422566621</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-4.067443981251062</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-4.882805768831359</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-9.94301079571173</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-8.979857147386012</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-38.3720483645125</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-7.927085531965602</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-21.59344597060945</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-6.516792971004223</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-6.2337447608895</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>f__Dysgonomonadaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f__Marinilabiliaceae</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>f__PUMT01</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>f__Prolixibacteraceae</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>f__UBA7960</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>f__VadinHA17</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3816373962092243</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9644014259152507</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7064152423302459</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1227817699794976</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.3485275006468402</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8357844924791267</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2884661026258333</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1119635499751956</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2153786190122531</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.5982424325957343</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1655081958958826</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.03507344233705295</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1702953125653108</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9540120134469816</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.2105092374467221</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4532897999249277</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/outputs/fft-o__Bacteroidales.xlsx
+++ b/outputs/fft-o__Bacteroidales.xlsx
@@ -10,6 +10,7 @@
     <sheet name="g__C941_wrapper-SH-c" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="g__Ruminococcus_E_wrapper-SH" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="g__Ruminococcus_E_wrapper-SH-c" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="g__C941_wrapper-LDA-p" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -8148,49 +8149,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -8205,49 +8206,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -8262,49 +8263,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -8319,49 +8320,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -8376,49 +8377,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -8433,49 +8434,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -8490,49 +8491,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -8547,49 +8548,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -8604,49 +8605,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -8661,49 +8662,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -8718,49 +8719,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -8775,49 +8776,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0.04150048210755963</v>
       </c>
       <c r="L13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -8832,49 +8833,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -8889,49 +8890,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -8949,46 +8950,46 @@
         <v>0.1193981279133755</v>
       </c>
       <c r="C16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -9003,49 +9004,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -9060,49 +9061,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -9117,49 +9118,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -9174,49 +9175,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -9231,49 +9232,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -9291,46 +9292,46 @@
         <v>0.1369747720450674</v>
       </c>
       <c r="C22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -9345,49 +9346,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -9402,49 +9403,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -9462,46 +9463,46 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -9516,49 +9517,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -9573,49 +9574,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -9630,49 +9631,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -9687,49 +9688,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -9744,49 +9745,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -9801,49 +9802,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -9858,49 +9859,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -9915,49 +9916,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -9972,49 +9973,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -10029,49 +10030,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -10086,49 +10087,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -10143,49 +10144,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -10200,49 +10201,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -10257,49 +10258,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -10314,49 +10315,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -10371,49 +10372,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -10428,49 +10429,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -10485,49 +10486,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -10542,49 +10543,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -10599,49 +10600,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -10656,49 +10657,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -10713,49 +10714,49 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -10770,49 +10771,49 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -10827,49 +10828,49 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -10884,49 +10885,49 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -10941,49 +10942,49 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -10998,49 +10999,49 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -11055,49 +11056,49 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -11112,49 +11113,49 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -11169,49 +11170,49 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -11226,49 +11227,49 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -11283,49 +11284,49 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -11340,49 +11341,49 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -11397,53 +11398,2149 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
           <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>f__Dysgonomonadaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>f__Marinilabiliaceae</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>f__PUMT01</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>f__Prolixibacteraceae</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>f__UBA7960</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>f__VadinHA17</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.479059110177239e-07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.535062902707552e-12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.094348058806976e-12</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.938064811820554e-15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9999996513917194</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.573144076503861e-29</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.860582076278993e-10</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.729671979299361e-18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.403300496596253e-16</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.108005640498424e-21</v>
+      </c>
+      <c r="L2" t="n">
+        <v>9.277679373842447e-11</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.035909882524673e-24</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.017751794871093e-10</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.177729101938589e-22</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6.127826136749573e-12</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.03711904588767876</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.921735153600611e-08</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.256291172852989e-06</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.348462961379085e-09</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9628736392696362</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.361519437950842e-22</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.807848076920949e-07</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.381735599471877e-14</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.06565697503298e-12</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.156027320084454e-21</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.323419378330424e-06</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.126734025062383e-15</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.505880297788891e-09</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.979206498927388e-18</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.271480683662792e-09</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9.735192419783526e-06</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.035782557287594e-10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.45954914091918e-09</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.20222547193234e-12</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9999902409597281</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.974385420304217e-26</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.598275609049207e-09</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.311985946167127e-20</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.089233187592961e-12</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.160258120747104e-20</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.908881985518101e-10</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6.292690549426325e-20</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.088924584380038e-08</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.195521908998069e-19</v>
+      </c>
+      <c r="P4" t="n">
+        <v>9.970237249821934e-10</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2309479720764726</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.803630393978578e-07</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.552366929718379e-08</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.043204471937836e-12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7690499867297456</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.037202117096318e-22</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.854284259877007e-07</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.665166130509216e-17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9.221069880937659e-13</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.755018858153908e-22</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.588275600214269e-07</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.011485601318502e-19</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5.417976467229575e-09</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.407754979427915e-16</v>
+      </c>
+      <c r="P5" t="n">
+        <v>7.562614528511975e-08</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.351846078808606e-05</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.66076711714103e-09</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.618959558411417e-09</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.19901856397651e-13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9999664020405752</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.06176188662683e-21</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.974028975044422e-09</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.233098908464297e-15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.140345502349088e-14</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.037632401159684e-24</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.065753663528236e-08</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.222775489656595e-20</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.742634509644595e-08</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.05324231031888e-15</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.60861758004487e-10</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.337194200547275e-07</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.02447009869742e-12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.212156828376112e-12</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.187733923651011e-15</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9999995660505983</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9.333820000286837e-25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.010713707046128e-10</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.670831201338153e-18</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.641191550208899e-17</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8.122833815328747e-22</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.03277944479333e-10</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.226173477501102e-23</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7.993926402325316e-13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2.74451635391843e-21</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.059419810926819e-11</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.467373919584631e-07</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.756164821354878e-12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.047689520350956e-10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.152057247398287e-15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.999999652688212</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.049556136737537e-30</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.698009425131396e-10</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.985287243508498e-20</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.135729067028972e-16</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.201591130794983e-24</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.804410877709315e-13</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7.542801118280821e-26</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9.15664929944662e-12</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.075284362481611e-23</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.884273793717779e-10</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.06836365709586945</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.466982550000208e-06</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.185436341881851e-06</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.167131017967201e-08</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.931620971599475</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9.388658498414321e-17</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.846377103608463e-06</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8.319834983926598e-14</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.275862899855154e-09</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.792330961497286e-19</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.7329732488514e-06</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.202910069904563e-14</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.103080938415191e-06</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8.534631181701322e-13</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.506350933105946e-09</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.001477642228895256</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.628140097842285e-10</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.052406000116833e-11</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.209123553076737e-11</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9985222919894807</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.740983433635638e-25</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8.150380302497005e-10</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.760684016204166e-13</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.708398389593081e-15</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.911709946460607e-18</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5.992421334054064e-08</v>
+      </c>
+      <c r="M10" t="n">
+        <v>7.607547040778411e-24</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.950393004950451e-09</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.113353554981182e-20</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.859724951296265e-10</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.423592859988057e-07</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.277886257342478e-11</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.467246364880083e-09</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.258176111962132e-14</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9999997510776324</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.804010264713265e-27</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.5721529888639e-09</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.10377873127807e-18</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.635769669086632e-15</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.511099386466988e-22</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.369375063416065e-11</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.376473409150913e-21</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.372808071219598e-09</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.241075777473298e-20</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.243824017776589e-10</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.356971403398613e-07</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.89207544729695e-11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.200191986521904e-12</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.458546324653053e-16</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9999993625882839</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6.836302030534688e-25</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.612957538962368e-11</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.239574015353355e-20</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.004901366133631e-17</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.188999960274067e-24</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7.15336168306204e-11</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.801830388438463e-22</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.057018117856785e-09</v>
+      </c>
+      <c r="O12" t="n">
+        <v>6.257395547126221e-20</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.98772910262627e-10</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.601716930930053e-06</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.460561337406632e-09</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9.760416449366104e-11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.908294618602233e-12</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9999982980465262</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.852743918061469e-20</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5.23975076115615e-09</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8.781374493884746e-14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.083394935697463e-13</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.05626647030741e-17</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5.080934226331334e-09</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.898145308836861e-16</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8.332410499735228e-08</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.07956095135584e-14</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.037188522514371e-11</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6.25894884839255e-11</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7.065329855013941e-19</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5.57465753673207e-20</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6.912023536239613e-21</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.99999999993499</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.763263547809021e-26</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.419292438722175e-12</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7.264565995619001e-26</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.351788325106016e-21</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.807902300009583e-30</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7.433179899686767e-16</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.199828522383604e-24</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.091864645721969e-17</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.032246193159947e-25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5.462176397761691e-16</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4.367927741948043e-06</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9.001564890783231e-11</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.588166857274838e-11</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.333027076949241e-15</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9999955152144954</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.516717415683097e-25</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.852406443625374e-11</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9.404595682633675e-21</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.578673265139174e-16</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.984513935735968e-23</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.954258671137423e-10</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.359103081293547e-22</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.163352066969135e-07</v>
+      </c>
+      <c r="O15" t="n">
+        <v>8.290314029931701e-21</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.727010267024662e-10</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6.457675158331972e-05</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.34160546485895e-08</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5.201996918604294e-09</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.990885001396299e-13</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9999352724283321</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.56725305995138e-24</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7.608961961262258e-08</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.736262440502711e-16</v>
+      </c>
+      <c r="J16" t="n">
+        <v>9.062949178747307e-15</v>
+      </c>
+      <c r="K16" t="n">
+        <v>9.696450815048503e-23</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.261297900126176e-08</v>
+      </c>
+      <c r="M16" t="n">
+        <v>8.255222006100824e-22</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.964101375360952e-10</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.352496666650916e-18</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.30028159276863e-08</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7.536248951044973e-06</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.194122277615634e-11</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4.851913191203248e-11</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.151866860109586e-14</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9999924634807266</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.467882118054078e-22</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6.937953801819435e-12</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.684548639545791e-19</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.223298392438479e-16</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9.434844762683185e-23</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.973393759355867e-11</v>
+      </c>
+      <c r="M17" t="n">
+        <v>7.146266974888685e-20</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.831538424948402e-10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.107058077708109e-19</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.46745051415629e-14</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7.088970103376316e-06</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.319481246260033e-12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5.5085546883172e-12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.18377367742866e-14</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9999928850513418</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6.144338331508002e-28</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.192854130364694e-09</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9.738900609097177e-19</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.187111349504665e-16</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.756533395733344e-20</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.819939167185333e-10</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.098519698996134e-23</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.239510611434899e-08</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.023241245984244e-21</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.750641759939766e-12</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4.561602397846277e-07</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.16061833487684e-12</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.868300450863526e-13</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.697241169424133e-17</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9999995438120328</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8.920854738402851e-24</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.613337951818492e-14</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.27617454314491e-15</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.396605899769203e-18</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6.22910062716558e-28</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.382913113926723e-12</v>
+      </c>
+      <c r="M19" t="n">
+        <v>9.436676786273219e-24</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.08660955991897e-11</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.615971390732513e-19</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.489542848015762e-15</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2.966529505710532e-09</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8.186532329560754e-13</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.483881218718124e-14</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.741834202171892e-18</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9999999970254316</v>
+      </c>
+      <c r="G20" t="n">
+        <v>9.573829412836728e-28</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.076876794766795e-12</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.27902564813987e-23</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.374068520788631e-18</v>
+      </c>
+      <c r="K20" t="n">
+        <v>7.75052897401168e-25</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.294911671078122e-12</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5.710741408818849e-27</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.910000477196925e-12</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2.123375447281776e-22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>9.036823421984694e-13</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.04104249193790534</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9.587424218733806e-07</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7.314811003460716e-08</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.711943770057609e-11</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.958877799332199</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9.987592335279752e-23</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.902076629477994e-06</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.904021445850332e-16</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.901585551689992e-12</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7.689691832444098e-22</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.27699490810472e-06</v>
+      </c>
+      <c r="M21" t="n">
+        <v>7.527834977331416e-21</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7.444500241979568e-05</v>
+      </c>
+      <c r="O21" t="n">
+        <v>8.630944246913566e-17</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5.274638491763893e-08</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4.085964300894571e-07</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.571604918098693e-10</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9.854464230366682e-11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.095861931004661e-14</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9999995620112909</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6.197371820429063e-23</v>
+      </c>
+      <c r="H22" t="n">
+        <v>9.875087547777048e-11</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.326797989176747e-18</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6.241664897142484e-14</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.724729548366488e-21</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.12842614811149e-11</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.840747284746871e-21</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.517719664693075e-08</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3.604136872038356e-16</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.439258231830719e-09</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6.38786574223832e-06</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.259450627839404e-08</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.118094809178417e-11</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.197961101602592e-15</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9999934668415947</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.202361115364702e-20</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.485020944190563e-08</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.466130466435067e-15</v>
+      </c>
+      <c r="J23" t="n">
+        <v>7.638719448106816e-14</v>
+      </c>
+      <c r="K23" t="n">
+        <v>7.984000477323811e-19</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.253565319873776e-08</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2.153827248728114e-20</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.049771108664564e-07</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.103385561969073e-15</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.93918085524718e-10</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.000132128059616074</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.937827770820322e-10</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.81044727229532e-11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.170771521341688e-14</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9998678658337603</v>
+      </c>
+      <c r="G24" t="n">
+        <v>9.805810680671763e-25</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9.092315303240384e-11</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.84390869416213e-15</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.408237486711859e-16</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.217213512075088e-23</v>
+      </c>
+      <c r="L24" t="n">
+        <v>5.418569640206864e-09</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.910561895343181e-22</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.508578250404244e-11</v>
+      </c>
+      <c r="O24" t="n">
+        <v>4.481418133594581e-20</v>
+      </c>
+      <c r="P24" t="n">
+        <v>7.012002342674429e-11</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0005375707354769105</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.775829988278933e-07</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.529083952684955e-09</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.786546748571725e-13</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.999461737702766</v>
+      </c>
+      <c r="G25" t="n">
+        <v>9.569048657794257e-23</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.460907646476884e-07</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6.406174615226383e-17</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.353873696348672e-13</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.701925497693506e-23</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.09540923473753e-07</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.047779984964154e-21</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4.086999159096114e-08</v>
+      </c>
+      <c r="O25" t="n">
+        <v>6.11276765642185e-17</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.39474806768632e-08</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.002260145879096403</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.392897760702402e-08</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.352845005281013e-10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.326298801048797e-13</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9977397204126448</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4.767798635568778e-22</v>
+      </c>
+      <c r="H26" t="n">
+        <v>9.434231448000306e-09</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.339446751223821e-10</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.906354166947979e-13</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.562837891066756e-20</v>
+      </c>
+      <c r="L26" t="n">
+        <v>9.66307970697197e-08</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2.548422750822248e-20</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.360208343606206e-09</v>
+      </c>
+      <c r="O26" t="n">
+        <v>4.651513584460401e-19</v>
+      </c>
+      <c r="P26" t="n">
+        <v>8.409190003107934e-11</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.001453964632956064</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.033921922475933e-07</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.453120555498858e-05</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.880771870891388e-09</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9985102114880393</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.550374851289384e-23</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8.455315539586258e-07</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.159765361657501e-15</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.680930718416763e-11</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5.81971758830698e-22</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.89610427072557e-07</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3.537953898406601e-18</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.930478643146898e-08</v>
+      </c>
+      <c r="O27" t="n">
+        <v>6.996448994603618e-17</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.291690554925669e-08</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3.144614942926127e-06</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.554695213776081e-09</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7.451421501374286e-11</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.436889908148173e-15</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9999968524557273</v>
+      </c>
+      <c r="G28" t="n">
+        <v>7.042422620304628e-26</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5.984128545752527e-10</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.431213975006031e-19</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5.280025596802086e-15</v>
+      </c>
+      <c r="K28" t="n">
+        <v>9.773624065140637e-23</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.733953241297596e-10</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5.659185015112258e-23</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.930975002702713e-10</v>
+      </c>
+      <c r="O28" t="n">
+        <v>7.570274161797985e-21</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.52069675308897e-11</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>8.472268759196531e-08</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7.663960623434849e-12</v>
+      </c>
+      <c r="D29" t="n">
+        <v>8.65906845004922e-16</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.241320515660097e-17</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9999999130091171</v>
+      </c>
+      <c r="G29" t="n">
+        <v>8.150082834649614e-25</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6.794466251079926e-10</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.359561068818374e-19</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6.603684262561169e-18</v>
+      </c>
+      <c r="K29" t="n">
+        <v>6.003667831836712e-24</v>
+      </c>
+      <c r="L29" t="n">
+        <v>9.646263780254118e-12</v>
+      </c>
+      <c r="M29" t="n">
+        <v>7.721652394042522e-25</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.570727613233418e-09</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3.590512852853344e-20</v>
+      </c>
+      <c r="P29" t="n">
+        <v>7.099163544320631e-13</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.659833642336302e-08</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.062011342776566e-14</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.734431288963915e-16</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6.871908518741223e-18</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9999999833698798</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.547733229994857e-25</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.564436126990982e-15</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.077219017192957e-19</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.246870577527379e-19</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.10845619667603e-25</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.281817763178142e-14</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.41723482560187e-23</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.167743200650822e-11</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2.878002678717732e-21</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.020974012063143e-17</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3.01120611341282e-05</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.924281252488739e-08</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.957894269757316e-09</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.157941255742622e-12</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9999696877747705</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.251486591611487e-24</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.532406269822528e-08</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.312008121548825e-15</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.083912322624707e-11</v>
+      </c>
+      <c r="K31" t="n">
+        <v>8.911484525401076e-20</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.88148585437243e-08</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4.654405308641952e-19</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.023135904921632e-07</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.00152725597695e-18</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4.968773071631022e-10</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.001884606418069886</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7.295741757502715e-07</v>
+      </c>
+      <c r="D32" t="n">
+        <v>7.141842304573276e-08</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.139682347210721e-10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9978673038952289</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.414508350808179e-22</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.157326779951415e-05</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.492792883233401e-11</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.359215819201019e-09</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.412348622005746e-19</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.235027768090441e-06</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.099077383185684e-18</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.0002344519641356643</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3.285996094516814e-16</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.663628692880651e-08</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>5.849841671276855e-06</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3.471695066065529e-09</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6.423369439501021e-08</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.253553427295887e-12</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.99999397458295</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.785918041934258e-24</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.647883348990957e-08</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.816546523191912e-20</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5.103007582387737e-11</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.084185940474782e-20</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.085997724482232e-10</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.134648444184991e-18</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6.989870536701338e-09</v>
+      </c>
+      <c r="O33" t="n">
+        <v>9.466664247349977e-18</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5.42404020336519e-08</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6.318624711696584e-08</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.924666330812967e-13</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5.682278394496537e-13</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.795035155052569e-16</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9999999367986139</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6.169037063338032e-30</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.342505916286866e-11</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.546200219804841e-20</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.752940654282116e-17</v>
+      </c>
+      <c r="K34" t="n">
+        <v>7.842326449844496e-28</v>
+      </c>
+      <c r="L34" t="n">
+        <v>8.712333368737759e-15</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.559172925611815e-23</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.180907294195798e-13</v>
+      </c>
+      <c r="O34" t="n">
+        <v>7.965463241734253e-27</v>
+      </c>
+      <c r="P34" t="n">
+        <v>6.264115964933657e-13</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>4.747898179522388e-05</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6.841252475824413e-10</v>
+      </c>
+      <c r="D35" t="n">
+        <v>9.491590444211374e-12</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.87528708002519e-15</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9999525191442474</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.144474225039529e-21</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7.734268663148143e-10</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.264211611297561e-16</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.712722912157302e-16</v>
+      </c>
+      <c r="K35" t="n">
+        <v>8.761736259934667e-24</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4.024450379340227e-10</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2.404785668377322e-20</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.979058167433272e-12</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2.872828788874199e-16</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4.848795495664729e-13</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.0003773737620864374</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.236398729541744e-10</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4.166352310617465e-12</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.768206866049234e-15</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9996226005264728</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4.124567759219281e-24</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.44106220718126e-10</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5.747646455850827e-18</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.16741621025812e-16</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.300861045250969e-23</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2.518789312189257e-08</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4.088414653275288e-24</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5.125439728167949e-11</v>
+      </c>
+      <c r="O36" t="n">
+        <v>8.861236503170801e-20</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3.777573099453488e-13</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
         </is>
       </c>
     </row>

--- a/outputs/fft-o__Bacteroidales.xlsx
+++ b/outputs/fft-o__Bacteroidales.xlsx
@@ -11,6 +11,7 @@
     <sheet name="g__Ruminococcus_E_wrapper-SH" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="g__Ruminococcus_E_wrapper-SH-c" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="g__C941_wrapper-LDA-p" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="g__Ruminococcus_E_wrapper-LDA-p" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -13547,4 +13548,3411 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>f__Dysgonomonadaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>f__Marinilabiliaceae</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>f__PUMT01</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>f__Prolixibacteraceae</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>f__UBA7960</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>f__VadinHA17</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>RUG464</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3060651070205849</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.535417327746278e-05</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.252839649001039e-08</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.94124307662115e-08</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.621599343877553</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.497886040423066e-22</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.004966230487345266</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.617616970825445e-06</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.617211873416907e-10</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.342962843642657e-06</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0002960349286587532</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.146346106190388e-18</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.06705137444439209</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.696918622046996e-15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.621858228476821e-07</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>RUG682</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4884914636984268</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0003468550631521127</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.25256304598847e-07</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.073483800451598e-08</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3033744231506489</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.252901696836253e-16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.004587850797919778</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.132768621494519e-09</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6.997928730540854e-12</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.378788179786461e-06</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.005316100923728487</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.030211514094107e-13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.1978774220813684</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.464626743928496e-10</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.367919100284376e-06</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>RUG299</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0003051555687186039</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.024511894995073e-06</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.014613802858008e-07</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.447933622850412e-10</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9663860984337015</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.960366393754956e-20</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.001169611983791961</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.526742470769613e-14</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.746578767677329e-11</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.417810434821483e-05</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.100910036455565e-05</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.486506315387866e-15</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.03203670960234523</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7.552190976687599e-16</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5.711041163873422e-06</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>RUG846</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3274950288072629</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.002764229199758029</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.992086112926971e-06</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.786863231526617e-07</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.05165426029043805</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.027156030437854e-16</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.01640600159005974</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.79032847238642e-07</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.33637514724082e-09</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2061633014552782</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.3723612661242649</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.89195385215668e-12</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.02307757025416074</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.349858048224788e-10</v>
+      </c>
+      <c r="P5" t="n">
+        <v>6.97888972408918e-05</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>RUG271</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0003030993631843136</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.15288753238178e-07</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.392470986010421e-10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.353622930384329e-12</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.001786778810393227</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.292600874130222e-14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.004237481347445605</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.134797270254366e-12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.716781216720036e-14</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.638647191880043e-05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.020323106463072e-06</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.437477024966997e-13</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.9933936351119147</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.600595783322767e-09</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.000189781440668461</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>RUG196</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9808411868606465</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0003103705834000336</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.550657157825967e-08</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.610661428282129e-08</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0111828168606223</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.317750711590106e-13</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.006691248459786547</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.645832468383229e-11</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.123656102953408e-08</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.225731776638852e-13</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0006207388493022633</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05007121913217e-12</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0003533961684405265</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8.880282014127129e-09</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.004698103186129e-07</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>RUG138</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8060924356128779</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0002678926739611533</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.789150571715171e-06</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.639461409128945e-09</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.05818065908387112</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.879155334415723e-13</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.01350342324026956</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.331638133289945e-09</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.168161098226081e-11</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.006965619136661994</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.001151313259076044</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7.310009268524036e-15</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1133158585577742</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.72264782805707e-08</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.0005199750553817014</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>RUG366</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.282589222426454</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0001368526081794491</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.479048913418253e-05</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.7035437965148e-08</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7001427549375545</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.130916573900197e-17</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01596902374757333</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.069892611496534e-15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7.698614096420872e-09</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.908570593312597e-15</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0001155203110142077</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.74852797234469e-14</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0009982310279029166</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.665917747344382e-13</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.356971784160606e-05</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>RUG008</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1958145801522921</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.525038038036332e-05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.04167022388761919</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.603289681890524e-05</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01256935610451517</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.579326575567133e-07</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.00569988986268261</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.553295507297813e-10</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.003274373908709436</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.181596018129541e-16</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.01524431797092877</v>
+      </c>
+      <c r="M10" t="n">
+        <v>7.063177989089275e-08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.609704607352521</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.1157554923262858</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0001455460374795231</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>RUG543</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2012858668450737</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0001407183155203232</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.178258295517405e-06</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.973980343856442e-11</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.03928679813128375</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.539464899452058e-16</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.05916998168302988</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.710468972049473e-14</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.294759695872176e-11</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.176638826274619e-09</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.01471187928173144</v>
+      </c>
+      <c r="M11" t="n">
+        <v>8.995694438017066e-12</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.6583906504817471</v>
+      </c>
+      <c r="O11" t="n">
+        <v>5.823673100460929e-11</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.02701192364674226</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>RUG566</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1102849425302819</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.009059187120719276</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.241173785517549e-08</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.664654855668422e-08</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.291207457398397</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4.863244287640754e-17</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1215011760404211</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8.465879221371253e-06</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5.868779371704979e-08</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.617802835566258e-05</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0162524609004246</v>
+      </c>
+      <c r="M12" t="n">
+        <v>7.837154819329186e-15</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.451662673782805</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3.028467121887729e-11</v>
+      </c>
+      <c r="P12" t="n">
+        <v>7.310543001177317e-06</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>RUG090</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.07528961895857898</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.007234176925393596</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5.016895821576322e-09</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9.242108724499753e-10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.407419371811755e-06</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.241023137803578e-14</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.01236450963408485</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.731613546988217e-10</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7.770156866449011e-10</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.3710814004455448</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.5315000918774545</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.418724647890979e-12</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.002506449930795155</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.645657212668408e-09</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.03352704044512e-05</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>RUG665</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.03324999487772639</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0003228016695056482</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.49949205436141e-07</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.751649154172996e-10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.06489084543908973</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9.528067443994729e-16</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1006659527556909</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.084572476094028e-13</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.744623817642944e-12</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.011779566327041e-06</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0002464342793173269</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.772905538188722e-12</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.7943356123701001</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4.147241600488586e-11</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.006287096255533893</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>RUG189</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1003933858484633</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.000744314466058105</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.047888511588703e-05</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9.294964871244084e-07</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0003295679129968395</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.483629838445096e-12</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.009112395172160594</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9.263611131557499e-08</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.970057148269911e-08</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.866613721932041e-08</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.1675820963346134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.780499366697667e-11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.7218127096156518</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3.567929708160886e-09</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.397766841465251e-05</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>RUG081</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9870111706296333</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0001054964990477755</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4.545605972805223e-07</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.673929012173883e-08</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.005825343505523296</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.7151160862491e-14</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.005498728619216204</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.848300388800694e-16</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.981909543069798e-10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5.113449470773487e-13</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.000528257060567314</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.286980784668287e-11</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.001024603196196904</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.783450624032647e-11</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5.898830483954552e-06</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>RUG845</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.08418627229701638</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.001706510628505891</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9.407267836646588e-05</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.501328592818988e-07</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.354717288139393</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.152854826376387e-13</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.03940588456447752</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7.172379207641584e-10</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.601077932958498e-06</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.008724605060904847</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.05779179402004625</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5.987008270371778e-11</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.4533185685125749</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2.92982405637326e-08</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5.122281245860885e-05</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>RUG341</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.009259100337938588</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8.964231953494899e-05</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4.890747454120111e-07</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.327274052423735e-08</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9777144033068302</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4.864594937737121e-18</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.00112830502041225</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.620446114535579e-13</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9.504075775300523e-10</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.727367651836553e-05</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.038911896270681e-05</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3.70136948510309e-12</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.003618149744830853</v>
+      </c>
+      <c r="O18" t="n">
+        <v>5.683950649230675e-12</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.008112203167431326</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>RUG365</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0002016297889347345</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9.385534629945397e-07</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.154752530578818e-10</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6.260655659032066e-12</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.957535635240041</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8.064403497293086e-22</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0002591488958928382</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.249546370728126e-15</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.858690534685204e-13</v>
+      </c>
+      <c r="K19" t="n">
+        <v>9.200825098144375e-09</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.686944248726297e-06</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5.750473574696532e-19</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.04198659240960358</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.85956150517909e-17</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.435864486561345e-05</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>RUG605</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.00547369630637702</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.235999701342152e-06</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7.735787020037395e-07</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5.469608230583099e-09</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.074308174184628e-06</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.435573251110691e-16</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0003463843010232619</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.183693413411853e-10</v>
+      </c>
+      <c r="J20" t="n">
+        <v>9.136116188749981e-12</v>
+      </c>
+      <c r="K20" t="n">
+        <v>7.2044511191496e-05</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.805754600330661e-06</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.214068014856104e-15</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.9940268716155546</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2.513174110243666e-11</v>
+      </c>
+      <c r="P20" t="n">
+        <v>7.210780242897032e-05</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>RUG794</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.04792128796340859</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.305233915095358e-05</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9.236389078462671e-09</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5.985465060100478e-08</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3475560231482517</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.162818407012599e-18</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.01761039142724042</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.955913092295928e-09</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.519580422570494e-09</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.314836167477841e-06</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0001062013292149365</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4.305290024513063e-17</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.5867562145747107</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3.123394987070482e-12</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.439812198533623e-06</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>RUG230</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.997567577690728</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.077823698102838e-05</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.004040201816274e-05</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9.787434484276537e-08</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.335543578737993e-06</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4.520931033307541e-13</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0002462494901214606</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.819368923475864e-11</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.29626140750706e-09</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.517472464767955e-06</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.094316488230975e-05</v>
+      </c>
+      <c r="M22" t="n">
+        <v>6.174949553706688e-10</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.00057637463108134</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.822403036255676e-09</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.001563080738994159</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>RUG041</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5740703839972571</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.01786142599982898</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.14816165353914e-05</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.586827708343388e-08</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5.536568046278734e-05</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.39684664790648e-14</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.07081905632204616</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.802195183719609e-12</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.504698134345761e-08</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.321094023134534e-05</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.3301641320955168</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.10378143591564e-13</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.006928000525015821</v>
+      </c>
+      <c r="O23" t="n">
+        <v>7.336919358194262e-09</v>
+      </c>
+      <c r="P23" t="n">
+        <v>6.688456597119585e-05</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>RUG272</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1113190507726809</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.664256772555989e-05</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.077328335293127e-08</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.484608067540542e-06</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.00658145381162032</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.048838553489019e-16</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0099857805457109</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0002179348643984014</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6.396645347999674e-10</v>
+      </c>
+      <c r="K24" t="n">
+        <v>8.118314141019492e-15</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.00100175637706813</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.618390376790167e-12</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.8708657911815455</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3.365193297776353e-13</v>
+      </c>
+      <c r="P24" t="n">
+        <v>6.385527187976646e-08</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>RUG026</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9999834579024967</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7.579104001932525e-07</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.936018181775571e-07</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.198422376090715e-08</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4.680730444336527e-14</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.452383519823396e-19</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9.486861900327323e-08</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.513090759091324e-16</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.776995544889056e-14</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.035228710750916e-16</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.521221477604433e-05</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5.603496080254061e-16</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.081761561619381e-08</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.244738052682431e-08</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.825258458830435e-08</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>RUG333</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.01134177927928273</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.829850543847269e-05</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.304423097839953e-06</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.558986018778333e-08</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.01087992310758733</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.555681594959488e-15</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.436702523122958e-05</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.242095509402175e-12</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.836533535107371e-10</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.464616728699126e-11</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.018807980117733e-05</v>
+      </c>
+      <c r="M26" t="n">
+        <v>7.348901845433593e-12</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.9777086007888746</v>
+      </c>
+      <c r="O26" t="n">
+        <v>6.796813895694331e-11</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5.492913966389596e-06</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>RUG641</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6324760812668063</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.004775878778311062</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.213647128165989e-05</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6.046798298902386e-08</v>
+      </c>
+      <c r="F27" t="n">
+        <v>9.640797035980397e-05</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.2393777900806e-11</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.09802086948623337</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6.692876938582886e-10</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.213655627125401e-09</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.000609883951596e-05</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.2048000494193712</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.824632407276825e-09</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.05969928400433291</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.008520714377315e-06</v>
+      </c>
+      <c r="P27" t="n">
+        <v>8.8211755797173e-05</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>RUG449</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6984156356293185</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.440262166585787e-05</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.161941217360356e-09</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8.165943760916427e-11</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.005057470442369535</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9.775677332875719e-19</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.03443250943761387</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.266935216118838e-07</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.204180427079724e-13</v>
+      </c>
+      <c r="K28" t="n">
+        <v>7.152731019018875e-07</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0001649633094259292</v>
+      </c>
+      <c r="M28" t="n">
+        <v>6.56276296511051e-19</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.2618082794580621</v>
+      </c>
+      <c r="O28" t="n">
+        <v>8.607369374594048e-14</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.0001057958910136457</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>RUG637</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.3121753856778782</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0004719315106846699</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.532748607371254e-05</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.991502662033822e-09</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.01403850670192953</v>
+      </c>
+      <c r="G29" t="n">
+        <v>8.585375430491688e-14</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.003253880324765792</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.26881658460953e-10</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.973956564978394e-10</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3459555110017336</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.008227777681371569</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.497301447683288e-10</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.3111390537901992</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.462729084205369e-08</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.004722607232476856</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>RUG217</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1354633910629143</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0004758166323108364</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.039473670438096e-07</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5.80998451072203e-10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.001095013354601344</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.85450780621899e-19</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.8179594459880253</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.925756041476478e-12</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.714977473417945e-09</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.565435941985591e-07</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.04333680092872278</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3.824568219418034e-15</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.151386590444888e-05</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3.075774703124414e-14</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.001607154375623274</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>RUG290</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.05863803912532475</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.001704504774010328</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5.083007248772755e-06</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.256115135057396e-09</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.1781718250683612</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.516997668736965e-12</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.007237163343820025</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.326496198739416e-08</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.761690067202989e-07</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0257261930598886</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.291734996595474e-05</v>
+      </c>
+      <c r="M31" t="n">
+        <v>8.37326890728999e-14</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.7279749538101103</v>
+      </c>
+      <c r="O31" t="n">
+        <v>6.442737612785144e-07</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.000498483495824165</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>RUG368</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.005410951138904431</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0002295895325507462</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.241222608489769e-05</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.491811774436809e-07</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.01695641765996842</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.781386088452811e-15</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.00458579191497019</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.991527776481494e-08</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.679969446459827e-06</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.620938399904609e-10</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.005870633252304764</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.47678104171983e-10</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.9669208336274899</v>
+      </c>
+      <c r="O32" t="n">
+        <v>4.492807691869818e-11</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.212271213774029e-07</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>RUG835</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.01605883425722797</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.002041549801627073</v>
+      </c>
+      <c r="D33" t="n">
+        <v>8.577347314878865e-08</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.73855553324353e-10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.2491195531535434</v>
+      </c>
+      <c r="G33" t="n">
+        <v>9.172112416378974e-17</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.07834024959943031</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4.083685638223796e-11</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4.424284812793836e-11</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.619141782566123e-07</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.06147513351843521</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4.448385440668411e-13</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.5765452016322352</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4.701498608313851e-13</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.01641922988999904</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>RUG202</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.01894630282016585</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.718563602604935e-05</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.962912354340511e-10</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.418029355427527e-09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.2898427366572484</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.013288947599796e-19</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.000262136804338433</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.507977444015942e-09</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.586279431379206e-12</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.529993842115034e-08</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0001199012701195792</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3.220251341150694e-18</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.6908013171074358</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2.166371482754804e-13</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.951786265470661e-07</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>RUG074</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.7156847237905825</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.618577684102382e-05</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.35469602141198e-06</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5.258077639353525e-08</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.1878053334670326</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6.494495055350484e-11</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.004404705974222051</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.2585694970344e-09</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.475616554581702e-08</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.087982808220662e-15</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0007399367345700697</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.683110950584601e-10</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.0913459513398254</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.509944667282102e-07</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.558397669540015e-06</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>RUG105</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.001014960474128853</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6.859815537898713e-07</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.547572325589996e-08</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7.73674066501903e-11</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.953172522353959</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.658308932665096e-23</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.02308721542576705</v>
+      </c>
+      <c r="I36" t="n">
+        <v>7.982326210449441e-14</v>
+      </c>
+      <c r="J36" t="n">
+        <v>6.321871076740581e-11</v>
+      </c>
+      <c r="K36" t="n">
+        <v>6.021703580186337e-12</v>
+      </c>
+      <c r="L36" t="n">
+        <v>5.491820970038764e-07</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.820319512791496e-19</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.02250316454189806</v>
+      </c>
+      <c r="O36" t="n">
+        <v>5.16315541623249e-17</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.0002208864181850934</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>RUG726</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.6079148343472925</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.009853939163709901</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.001753464242787339</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.57511131118584e-06</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.001510521415204538</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3.090248746007785e-14</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.2796084140825948</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.014181018227518e-10</v>
+      </c>
+      <c r="J37" t="n">
+        <v>7.003638072650462e-06</v>
+      </c>
+      <c r="K37" t="n">
+        <v>9.96098075431913e-11</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0231891224329841</v>
+      </c>
+      <c r="M37" t="n">
+        <v>7.620542115458123e-11</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.03965220547155897</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.413178666564819e-10</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.03650591957590172</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>RUG110</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.002745719680384814</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.935462963121579e-05</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.407955931400431e-09</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.31162753270411e-10</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.4041027211948987</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4.32788481563372e-18</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.008084661948464673</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.30141344578439e-09</v>
+      </c>
+      <c r="J38" t="n">
+        <v>8.187008588268583e-11</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.194007282673276e-10</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0002894651156988887</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3.088126498135824e-18</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.5847480579014678</v>
+      </c>
+      <c r="O38" t="n">
+        <v>6.384671327220964e-13</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.548701261364491e-08</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>RUG468</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.03121416784711144</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0005926669666156439</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0005383782494841615</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.413151409649196e-09</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.3369649665313874</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.179160815185264e-14</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.4672387800749055</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.137411820347923e-15</v>
+      </c>
+      <c r="J39" t="n">
+        <v>5.379448490081676e-10</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4.001079989426687e-10</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0009827311861933647</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.669928404047224e-09</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.0008200365213668958</v>
+      </c>
+      <c r="O39" t="n">
+        <v>9.933922597510924e-10</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.1616482656083979</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>RUG203</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.001110937674476709</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.718746039368029e-06</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6.255707998458682e-07</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.736185422949913e-08</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.01223050766571429</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.224793193651714e-17</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0009292669156114136</v>
+      </c>
+      <c r="I40" t="n">
+        <v>8.038165641385766e-08</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.599775228220207e-09</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4.632270688446812e-06</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.232764899408793e-05</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.958363814201135e-15</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.9857067646654342</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3.221752029472997e-11</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.117466736292871e-06</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>RUG581</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.004891626789198949</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2.472123898543589e-05</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.577568048502377e-06</v>
+      </c>
+      <c r="E41" t="n">
+        <v>7.247946459751023e-09</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.007936446239970354</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.746920475406892e-14</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.639527819743373e-05</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5.998701381786024e-09</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4.990602347461582e-11</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.229941503464271e-09</v>
+      </c>
+      <c r="L41" t="n">
+        <v>5.953796662231261e-06</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4.141823329064121e-13</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.9868812775794772</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2.293306765757131e-08</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.0002319640494652348</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>RUG651</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.04682359553351307</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7.255189469393134e-05</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.532484820399862e-08</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.114582157107572e-08</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.08353160735107384</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5.030008332694976e-17</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.001068762049913888</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4.895689530260716e-07</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.548384913245314e-09</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.046540631622053e-08</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.0009078968696907895</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4.739473642173565e-16</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.8675949940075989</v>
+      </c>
+      <c r="O42" t="n">
+        <v>6.349344894031986e-12</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3.423375157605099e-08</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>RUG527</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.001814498001233817</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.081231941916002e-06</v>
+      </c>
+      <c r="D43" t="n">
+        <v>8.373738493694751e-07</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3.285970038696384e-08</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.7738837451089824</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.877455035971466e-17</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0006105777778136865</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.46668561048746e-11</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.088202814890167e-08</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.471906802729497e-15</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3.23558507054964e-06</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.316843081462998e-14</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.2236818621424895</v>
+      </c>
+      <c r="O43" t="n">
+        <v>4.595082427553674e-13</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.119021748224661e-06</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>RUG277</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.01877356715015897</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.052073483858293e-05</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.235976963081935e-07</v>
+      </c>
+      <c r="E44" t="n">
+        <v>6.662109671874323e-09</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.7406112842919202</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.147530062191529e-18</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.04892876466218356</v>
+      </c>
+      <c r="I44" t="n">
+        <v>7.032479292729074e-10</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.034711705712396e-11</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.269706160890576e-08</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.0006860772617656408</v>
+      </c>
+      <c r="M44" t="n">
+        <v>8.01752990687776e-14</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.1904810416071146</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.096559548852587e-13</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.0004985806013658133</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>RUG447</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.3786485249733455</v>
+      </c>
+      <c r="C45" t="n">
+        <v>5.631163305396766e-05</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.888029097629831e-06</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4.392733471419552e-06</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.5238293793241758</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.712859677250801e-14</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.03919814843627444</v>
+      </c>
+      <c r="I45" t="n">
+        <v>8.662802747348176e-14</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.034906005770271e-07</v>
+      </c>
+      <c r="K45" t="n">
+        <v>9.701850955849543e-13</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.000928393085306833</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4.717010318587981e-12</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.05730702867414544</v>
+      </c>
+      <c r="O45" t="n">
+        <v>3.53356315988491e-11</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.472957940194631e-05</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>RUG109</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.4644429397213907</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1948516817525281</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.009972030453677764</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3.051815519568511e-06</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.201043848020573e-06</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.456508097694551e-10</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.01568681406222436</v>
+      </c>
+      <c r="I46" t="n">
+        <v>8.122253073993941e-13</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.000104463302159672</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.195438150011149e-14</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.3007888977958493</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.066745835041463e-06</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.008420052886291466</v>
+      </c>
+      <c r="O46" t="n">
+        <v>4.44240695721658e-07</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.005726356033505173</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>RUG155</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.004702006021131285</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0008238601019275866</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.170127838947046e-08</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.160689468343156e-10</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.2926940041752781</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.425388143246355e-18</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.09334883054544349</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8.079662913641162e-12</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4.708460321399398e-11</v>
+      </c>
+      <c r="K47" t="n">
+        <v>8.894213238302705e-06</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.0002332666939110803</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2.413916046412509e-15</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.5958367957582302</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2.857903791096328e-13</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.01235232061804015</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>RUG218</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.004796547234381096</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.809306094533305e-06</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.30135878545264e-06</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.431005286030901e-10</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9892435265947852</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.183893149525775e-19</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.002770199352756985</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.265336062789769e-14</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.283175908487667e-10</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1.445670804190343e-07</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.0001187380689959474</v>
+      </c>
+      <c r="M48" t="n">
+        <v>7.180112726600509e-15</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.501717913157725e-05</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.118412836422274e-15</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.003050716066549824</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>RUG718</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.4335641712614216</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.01499349934194218</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4.047758049014226e-08</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4.589926966506061e-10</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0196790083993749</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5.298708092831035e-18</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.06101094394001712</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3.613562784404444e-09</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.587929584654419e-10</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1.912594763088527e-06</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.006695560082042726</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5.482480248581527e-16</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.463852654521748</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.070715017317554e-11</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.0002022051390538151</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>RUG516</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.01655258693055487</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.001508786640420829</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.084069921554279e-07</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.112711808902453e-08</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.01052885853375046</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3.658621113616053e-18</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.01973756390950285</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.370970117798179e-09</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.265865878719635e-09</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1.489806439903857e-09</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.0007495058034745821</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.285062372152663e-15</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.9508950303536777</v>
+      </c>
+      <c r="O50" t="n">
+        <v>7.231021356858278e-11</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2.751209555467133e-05</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>RUG426</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.04768886595939841</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.660671211819249e-05</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.313703270806187e-08</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.60202415341575e-08</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.4761537946696469</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.295582782413505e-17</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.004016452713462328</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.305425805424313e-10</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.853041937514025e-10</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.0008217653984944297</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.0004211137543230443</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.397887392070904e-14</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.4682406566396561</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.698549690710415e-12</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.002640714678067211</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>RUG270</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.01853299308810151</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.0001029814028933852</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5.379815458233021e-07</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.402807521616997e-11</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.9640567616307617</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3.175013418862194e-16</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.01342110699698595</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.634992981695381e-14</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.542241673160135e-11</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1.300569487467111e-09</v>
+      </c>
+      <c r="L52" t="n">
+        <v>7.333539245289791e-05</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2.486576697055985e-11</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.0001441847220080673</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.186334132687732e-12</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.003668097419151882</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>RUG834</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.004112857933538073</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5.182083951142238e-06</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.226402012251112e-07</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.404353309853897e-09</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.1462920809771375</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.444353266964198e-22</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.000311496977578779</v>
+      </c>
+      <c r="I53" t="n">
+        <v>6.181454074597022e-10</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.059081060543192e-11</v>
+      </c>
+      <c r="K53" t="n">
+        <v>8.603900280490697e-08</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.0003985471315215196</v>
+      </c>
+      <c r="M53" t="n">
+        <v>8.571606827763744e-17</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.8488579289639431</v>
+      </c>
+      <c r="O53" t="n">
+        <v>6.982740228878999e-17</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2.169422003625659e-05</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>RUG370</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.7641655443089322</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.02035711164979013</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6.31855951008231e-05</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2.121725967134862e-07</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0008151889827498217</v>
+      </c>
+      <c r="G54" t="n">
+        <v>6.534220761346691e-15</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.06986710883160054</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3.03437216664593e-08</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.380973943370265e-08</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1.641944900182217e-05</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.001004025863192025</v>
+      </c>
+      <c r="M54" t="n">
+        <v>6.770562857426165e-12</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.1192349471251438</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2.956277530284179e-10</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.02447621156602625</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>RUG522</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.008265933829174434</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.519581780643414e-07</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6.663377819336456e-08</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.935613977448693e-09</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.2202463144780552</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.817525957951137e-19</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.0001930299296317004</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.259253125450909e-11</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.586704520773467e-09</v>
+      </c>
+      <c r="K55" t="n">
+        <v>4.532869321799811e-17</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.2055225201677e-06</v>
+      </c>
+      <c r="M55" t="n">
+        <v>7.058831961398791e-16</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.7712932516524083</v>
+      </c>
+      <c r="O55" t="n">
+        <v>7.447966483520537e-14</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4.04612677606829e-08</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>RUG135</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.01255731665093867</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.001844691127077197</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.561552573587754e-08</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.44971637640092e-11</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.003753653089273345</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5.098236585453341e-13</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.1851328485678544</v>
+      </c>
+      <c r="I56" t="n">
+        <v>6.427518853987047e-12</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.283819583360456e-10</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1.235467551846184e-05</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.002058755199669637</v>
+      </c>
+      <c r="M56" t="n">
+        <v>7.635352598780374e-12</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.7946393276210282</v>
+      </c>
+      <c r="O56" t="n">
+        <v>6.599594078418024e-08</v>
+      </c>
+      <c r="P56" t="n">
+        <v>9.711797218469935e-07</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>RUG509</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.3085235742682882</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.003178552167216317</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4.296776561246185e-05</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.349084172706936e-07</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.1496290724471072</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.598691259723167e-15</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.1398301295800467</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3.957449573781366e-13</v>
+      </c>
+      <c r="J57" t="n">
+        <v>5.170636950575626e-09</v>
+      </c>
+      <c r="K57" t="n">
+        <v>8.915557841144911e-07</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.004603567611901903</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.286827256391777e-12</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.2129875975763272</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2.047610377940582e-11</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.1812035069265014</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>RUG385</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.1498121475843449</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4.280563166862217e-05</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.84162594798468e-06</v>
+      </c>
+      <c r="E58" t="n">
+        <v>6.362105848290194e-11</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.001726551647584907</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4.071541980142467e-11</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.003279434476588661</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.742542429864312e-11</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.953134444056021e-12</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.83651039583903</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.001515731019349783</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2.470107598850453e-10</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.00675010148402316</v>
+      </c>
+      <c r="O58" t="n">
+        <v>2.256892004345347e-07</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.0003607646305358176</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>RUG394</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5667964561068641</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.000223533947794638</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.09361762046989892</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0001050303087003466</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.1838629769881905</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3.459526247180812e-11</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.008551078835119181</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4.498148054975569e-14</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.36321675445735e-05</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3.26199994130634e-17</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.001124338093013402</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2.181387851357469e-05</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.1452685313832366</v>
+      </c>
+      <c r="O59" t="n">
+        <v>6.783440778164603e-09</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.0004149810030429621</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/outputs/fft-o__Bacteroidales.xlsx
+++ b/outputs/fft-o__Bacteroidales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E7545D-B53D-814D-B134-98F53C452ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB4C9BB-6386-B448-A8A7-892245ABE5E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="g__C941_wrapper-SH" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="116">
   <si>
     <t>f__Bacteroidaceae</t>
   </si>
@@ -367,6 +367,15 @@
   <si>
     <t>c = 0.9</t>
   </si>
+  <si>
+    <t>LDA performs better than LSVM for non-reject predictions, LSVM performs better than LDA for reject predictions</t>
+  </si>
+  <si>
+    <t>samled another set from mags_g__C941</t>
+  </si>
+  <si>
+    <t>similar results as g__C941</t>
+  </si>
 </sst>
 </file>
 
@@ -473,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -485,6 +494,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -11100,10 +11112,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13022,6 +13034,11 @@
       </c>
       <c r="Q37" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -16301,269 +16318,223 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>-1.440737599160727</v>
-      </c>
-      <c r="C2">
-        <v>-29.28807240783674</v>
-      </c>
-      <c r="D2">
-        <v>-20.404899917210511</v>
-      </c>
-      <c r="E2">
-        <v>-15.91013592750207</v>
-      </c>
-      <c r="F2">
-        <v>5.8977803023218751</v>
-      </c>
-      <c r="G2">
-        <v>-4.9325623098183389</v>
-      </c>
-      <c r="H2">
-        <v>-4.0673007823087142</v>
-      </c>
-      <c r="I2">
-        <v>-4.1503681692966641</v>
-      </c>
-      <c r="J2">
-        <v>-10.20168699187456</v>
-      </c>
-      <c r="K2">
-        <v>-8.6740529202407366</v>
-      </c>
-      <c r="L2">
-        <v>-31.071044980720121</v>
-      </c>
-      <c r="M2">
-        <v>-7.2484585710350578</v>
-      </c>
-      <c r="N2">
-        <v>-19.687870636257141</v>
-      </c>
-      <c r="O2">
-        <v>-5.7765594956203996</v>
-      </c>
-      <c r="P2">
-        <v>-2.8103582181134641</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>0.57021874655156779</v>
+        <v>-1.440737599160727</v>
       </c>
       <c r="C3">
-        <v>-22.240672177594949</v>
+        <v>-29.28807240783674</v>
       </c>
       <c r="D3">
-        <v>-8.2574779270828262</v>
+        <v>-20.404899917210511</v>
       </c>
       <c r="E3">
-        <v>-14.5747956533381</v>
+        <v>-15.91013592750207</v>
       </c>
       <c r="F3">
-        <v>-2.7851434372189749</v>
+        <v>5.8977803023218751</v>
       </c>
       <c r="G3">
-        <v>-3.561448034167003</v>
+        <v>-4.9325623098183389</v>
       </c>
       <c r="H3">
-        <v>-2.6424846775465669</v>
+        <v>-4.0673007823087142</v>
       </c>
       <c r="I3">
-        <v>-2.7366378282326052</v>
+        <v>-4.1503681692966641</v>
       </c>
       <c r="J3">
-        <v>-10.29326545877259</v>
+        <v>-10.20168699187456</v>
       </c>
       <c r="K3">
-        <v>-6.4059731989517079</v>
+        <v>-8.6740529202407366</v>
       </c>
       <c r="L3">
-        <v>-21.493355640675301</v>
+        <v>-31.071044980720121</v>
       </c>
       <c r="M3">
-        <v>-5.4809414202111872</v>
+        <v>-7.2484585710350578</v>
       </c>
       <c r="N3">
-        <v>-16.88673284698233</v>
+        <v>-19.687870636257141</v>
       </c>
       <c r="O3">
-        <v>-5.4029684267223743</v>
+        <v>-5.7765594956203996</v>
       </c>
       <c r="P3">
-        <v>-4.828325990377075</v>
+        <v>-2.8103582181134641</v>
       </c>
       <c r="Q3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>-1.924227438941839</v>
+        <v>0.57021874655156779</v>
       </c>
       <c r="C4">
-        <v>-29.9425344531554</v>
+        <v>-22.240672177594949</v>
       </c>
       <c r="D4">
-        <v>-24.262216776187351</v>
+        <v>-8.2574779270828262</v>
       </c>
       <c r="E4">
-        <v>-15.522384352470169</v>
+        <v>-14.5747956533381</v>
       </c>
       <c r="F4">
-        <v>7.3579517165323658</v>
+        <v>-2.7851434372189749</v>
       </c>
       <c r="G4">
-        <v>-5.9373990315700258</v>
+        <v>-3.561448034167003</v>
       </c>
       <c r="H4">
-        <v>-5.1913504779881459</v>
+        <v>-2.6424846775465669</v>
       </c>
       <c r="I4">
-        <v>-5.4064935895114639</v>
+        <v>-2.7366378282326052</v>
       </c>
       <c r="J4">
-        <v>-10.86468130703156</v>
+        <v>-10.29326545877259</v>
       </c>
       <c r="K4">
-        <v>-11.873568296300819</v>
+        <v>-6.4059731989517079</v>
       </c>
       <c r="L4">
-        <v>-39.994156217141366</v>
+        <v>-21.493355640675301</v>
       </c>
       <c r="M4">
-        <v>-6.7884986883750669</v>
+        <v>-5.4809414202111872</v>
       </c>
       <c r="N4">
-        <v>-14.084274242326179</v>
+        <v>-16.88673284698233</v>
       </c>
       <c r="O4">
-        <v>-9.7312419922827829</v>
+        <v>-5.4029684267223743</v>
       </c>
       <c r="P4">
-        <v>-4.4025647225217464</v>
+        <v>-4.828325990377075</v>
       </c>
       <c r="Q4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>-1.405595921257345</v>
+        <v>-1.924227438941839</v>
       </c>
       <c r="C5">
-        <v>-25.45350646165668</v>
+        <v>-29.9425344531554</v>
       </c>
       <c r="D5">
-        <v>-19.336483541052221</v>
+        <v>-24.262216776187351</v>
       </c>
       <c r="E5">
-        <v>-12.78146167395936</v>
+        <v>-15.522384352470169</v>
       </c>
       <c r="F5">
-        <v>1.0742380639981779</v>
+        <v>7.3579517165323658</v>
       </c>
       <c r="G5">
-        <v>-4.3013337067784967</v>
+        <v>-5.9373990315700258</v>
       </c>
       <c r="H5">
-        <v>-4.3665943256249964</v>
+        <v>-5.1913504779881459</v>
       </c>
       <c r="I5">
-        <v>-5.1563063245747349</v>
+        <v>-5.4064935895114639</v>
       </c>
       <c r="J5">
-        <v>-9.2690908401950836</v>
+        <v>-10.86468130703156</v>
       </c>
       <c r="K5">
-        <v>-8.8005840240284812</v>
+        <v>-11.873568296300819</v>
       </c>
       <c r="L5">
-        <v>-26.889963575653841</v>
+        <v>-39.994156217141366</v>
       </c>
       <c r="M5">
-        <v>-7.2189284448668394</v>
+        <v>-6.7884986883750669</v>
       </c>
       <c r="N5">
-        <v>-10.38847364357491</v>
+        <v>-14.084274242326179</v>
       </c>
       <c r="O5">
-        <v>-6.7910396418234393</v>
+        <v>-9.7312419922827829</v>
       </c>
       <c r="P5">
-        <v>-3.811351239745095</v>
+        <v>-4.4025647225217464</v>
       </c>
       <c r="Q5" t="s">
         <v>4</v>
@@ -16571,52 +16542,52 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>-0.27010757261967772</v>
+        <v>-1.405595921257345</v>
       </c>
       <c r="C6">
-        <v>-18.82777465223727</v>
+        <v>-25.45350646165668</v>
       </c>
       <c r="D6">
-        <v>-8.0504535686851284</v>
+        <v>-19.336483541052221</v>
       </c>
       <c r="E6">
-        <v>-15.57906064385088</v>
+        <v>-12.78146167395936</v>
       </c>
       <c r="F6">
-        <v>1.5775467242028181</v>
+        <v>1.0742380639981779</v>
       </c>
       <c r="G6">
-        <v>-4.1065477700719892</v>
+        <v>-4.3013337067784967</v>
       </c>
       <c r="H6">
-        <v>-3.5530975865168228</v>
+        <v>-4.3665943256249964</v>
       </c>
       <c r="I6">
-        <v>-2.821141674500474</v>
+        <v>-5.1563063245747349</v>
       </c>
       <c r="J6">
-        <v>-10.29819240351517</v>
+        <v>-9.2690908401950836</v>
       </c>
       <c r="K6">
-        <v>-6.3143803273109373</v>
+        <v>-8.8005840240284812</v>
       </c>
       <c r="L6">
-        <v>-32.891279479151933</v>
+        <v>-26.889963575653841</v>
       </c>
       <c r="M6">
-        <v>-7.5488419544188181</v>
+        <v>-7.2189284448668394</v>
       </c>
       <c r="N6">
-        <v>-14.497767163035711</v>
+        <v>-10.38847364357491</v>
       </c>
       <c r="O6">
-        <v>-3.6642213919420352</v>
+        <v>-6.7910396418234393</v>
       </c>
       <c r="P6">
-        <v>-5.4368965753397163</v>
+        <v>-3.811351239745095</v>
       </c>
       <c r="Q6" t="s">
         <v>4</v>
@@ -16624,52 +16595,52 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>-0.74627763737103969</v>
+        <v>-0.27010757261967772</v>
       </c>
       <c r="C7">
-        <v>-27.819616968630339</v>
+        <v>-18.82777465223727</v>
       </c>
       <c r="D7">
-        <v>-19.344969761957309</v>
+        <v>-8.0504535686851284</v>
       </c>
       <c r="E7">
-        <v>-20.19409998265586</v>
+        <v>-15.57906064385088</v>
       </c>
       <c r="F7">
-        <v>2.9801866900670482</v>
+        <v>1.5775467242028181</v>
       </c>
       <c r="G7">
-        <v>-3.8640955451132308</v>
+        <v>-4.1065477700719892</v>
       </c>
       <c r="H7">
-        <v>-5.3201162448549857</v>
+        <v>-3.5530975865168228</v>
       </c>
       <c r="I7">
-        <v>-4.1465896876145996</v>
+        <v>-2.821141674500474</v>
       </c>
       <c r="J7">
-        <v>-11.478001862710761</v>
+        <v>-10.29819240351517</v>
       </c>
       <c r="K7">
-        <v>-10.198043651923371</v>
+        <v>-6.3143803273109373</v>
       </c>
       <c r="L7">
-        <v>-35.704245394022017</v>
+        <v>-32.891279479151933</v>
       </c>
       <c r="M7">
-        <v>-8.018141675297775</v>
+        <v>-7.5488419544188181</v>
       </c>
       <c r="N7">
-        <v>-23.68466935987885</v>
+        <v>-14.497767163035711</v>
       </c>
       <c r="O7">
-        <v>-6.3907149133939622</v>
+        <v>-3.6642213919420352</v>
       </c>
       <c r="P7">
-        <v>-5.3947154590700803</v>
+        <v>-5.4368965753397163</v>
       </c>
       <c r="Q7" t="s">
         <v>4</v>
@@ -16677,52 +16648,52 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>-1.206626343174577</v>
+        <v>-0.74627763737103969</v>
       </c>
       <c r="C8">
-        <v>-36.601935668671963</v>
+        <v>-27.819616968630339</v>
       </c>
       <c r="D8">
-        <v>-21.359819435279391</v>
+        <v>-19.344969761957309</v>
       </c>
       <c r="E8">
-        <v>-12.23663181926643</v>
+        <v>-20.19409998265586</v>
       </c>
       <c r="F8">
-        <v>10.14915088396098</v>
+        <v>2.9801866900670482</v>
       </c>
       <c r="G8">
-        <v>-6.5820017980216523</v>
+        <v>-3.8640955451132308</v>
       </c>
       <c r="H8">
-        <v>-7.8293606355341048</v>
+        <v>-5.3201162448549857</v>
       </c>
       <c r="I8">
-        <v>-4.3936628627682879</v>
+        <v>-4.1465896876145996</v>
       </c>
       <c r="J8">
-        <v>-15.39496913885321</v>
+        <v>-11.478001862710761</v>
       </c>
       <c r="K8">
-        <v>-12.11671266452395</v>
+        <v>-10.198043651923371</v>
       </c>
       <c r="L8">
-        <v>-38.712826148392367</v>
+        <v>-35.704245394022017</v>
       </c>
       <c r="M8">
-        <v>-10.38551295280347</v>
+        <v>-8.018141675297775</v>
       </c>
       <c r="N8">
-        <v>-21.1535966089568</v>
+        <v>-23.68466935987885</v>
       </c>
       <c r="O8">
-        <v>-6.5800024761211358</v>
+        <v>-6.3907149133939622</v>
       </c>
       <c r="P8">
-        <v>-3.816711825715235</v>
+        <v>-5.3947154590700803</v>
       </c>
       <c r="Q8" t="s">
         <v>4</v>
@@ -16730,158 +16701,158 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>-0.75477192248345537</v>
+        <v>-1.206626343174577</v>
       </c>
       <c r="C9">
-        <v>-15.30420159644318</v>
+        <v>-36.601935668671963</v>
       </c>
       <c r="D9">
-        <v>-6.6324419328406004</v>
+        <v>-21.359819435279391</v>
       </c>
       <c r="E9">
-        <v>-10.01624198097513</v>
+        <v>-12.23663181926643</v>
       </c>
       <c r="F9">
-        <v>-4.2845899231568634</v>
+        <v>10.14915088396098</v>
       </c>
       <c r="G9">
-        <v>-3.476275573091121</v>
+        <v>-6.5820017980216523</v>
       </c>
       <c r="H9">
-        <v>-2.5267354711493488</v>
+        <v>-7.8293606355341048</v>
       </c>
       <c r="I9">
-        <v>-3.62391819796049</v>
+        <v>-4.3936628627682879</v>
       </c>
       <c r="J9">
-        <v>-7.3815139678193162</v>
+        <v>-15.39496913885321</v>
       </c>
       <c r="K9">
-        <v>-4.0213981929882898</v>
+        <v>-12.11671266452395</v>
       </c>
       <c r="L9">
-        <v>-29.732049859480789</v>
+        <v>-38.712826148392367</v>
       </c>
       <c r="M9">
-        <v>-6.3905003663197713</v>
+        <v>-10.38551295280347</v>
       </c>
       <c r="N9">
-        <v>-10.606522146972861</v>
+        <v>-21.1535966089568</v>
       </c>
       <c r="O9">
-        <v>-3.6792502237403601</v>
+        <v>-6.5800024761211358</v>
       </c>
       <c r="P9">
-        <v>-5.9677250115132674</v>
+        <v>-3.816711825715235</v>
       </c>
       <c r="Q9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>-1.2533603416079611</v>
+        <v>-0.75477192248345537</v>
       </c>
       <c r="C10">
-        <v>-27.237202202388339</v>
+        <v>-15.30420159644318</v>
       </c>
       <c r="D10">
-        <v>-15.149903812757559</v>
+        <v>-6.6324419328406004</v>
       </c>
       <c r="E10">
-        <v>-20.191316993034199</v>
+        <v>-10.01624198097513</v>
       </c>
       <c r="F10">
-        <v>7.3161695706704082</v>
+        <v>-4.2845899231568634</v>
       </c>
       <c r="G10">
-        <v>-5.3385522604663818</v>
+        <v>-3.476275573091121</v>
       </c>
       <c r="H10">
-        <v>-5.4085897606821316</v>
+        <v>-2.5267354711493488</v>
       </c>
       <c r="I10">
-        <v>-4.0268282133466</v>
+        <v>-3.62391819796049</v>
       </c>
       <c r="J10">
-        <v>-12.13738532635613</v>
+        <v>-7.3815139678193162</v>
       </c>
       <c r="K10">
-        <v>-9.8656182540876713</v>
+        <v>-4.0213981929882898</v>
       </c>
       <c r="L10">
-        <v>-37.294996430314029</v>
+        <v>-29.732049859480789</v>
       </c>
       <c r="M10">
-        <v>-7.9182001431633831</v>
+        <v>-6.3905003663197713</v>
       </c>
       <c r="N10">
-        <v>-22.846343246669448</v>
+        <v>-10.606522146972861</v>
       </c>
       <c r="O10">
-        <v>-6.7165859036851314</v>
+        <v>-3.6792502237403601</v>
       </c>
       <c r="P10">
-        <v>-3.9222689107707058</v>
+        <v>-5.9677250115132674</v>
       </c>
       <c r="Q10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>-0.26134706744736608</v>
+        <v>-1.2533603416079611</v>
       </c>
       <c r="C11">
-        <v>-14.382284828215351</v>
+        <v>-27.237202202388339</v>
       </c>
       <c r="D11">
-        <v>-7.4056741572072653</v>
+        <v>-15.149903812757559</v>
       </c>
       <c r="E11">
-        <v>-7.7966182097758852</v>
+        <v>-20.191316993034199</v>
       </c>
       <c r="F11">
-        <v>1.9331318544212359</v>
+        <v>7.3161695706704082</v>
       </c>
       <c r="G11">
-        <v>-3.5317873519402521</v>
+        <v>-5.3385522604663818</v>
       </c>
       <c r="H11">
-        <v>-3.007970079551558</v>
+        <v>-5.4085897606821316</v>
       </c>
       <c r="I11">
-        <v>-3.0215515249799392</v>
+        <v>-4.0268282133466</v>
       </c>
       <c r="J11">
-        <v>-6.1374597843117584</v>
+        <v>-12.13738532635613</v>
       </c>
       <c r="K11">
-        <v>-5.4053455711949319</v>
+        <v>-9.8656182540876713</v>
       </c>
       <c r="L11">
-        <v>-18.3930929140732</v>
+        <v>-37.294996430314029</v>
       </c>
       <c r="M11">
-        <v>-5.6602227452172906</v>
+        <v>-7.9182001431633831</v>
       </c>
       <c r="N11">
-        <v>-14.13259284823455</v>
+        <v>-22.846343246669448</v>
       </c>
       <c r="O11">
-        <v>-4.8104452272116074</v>
+        <v>-6.7165859036851314</v>
       </c>
       <c r="P11">
-        <v>-2.8986929390242411</v>
+        <v>-3.9222689107707058</v>
       </c>
       <c r="Q11" t="s">
         <v>4</v>
@@ -16889,52 +16860,52 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <v>-1.2353403078425551</v>
+        <v>-0.26134706744736608</v>
       </c>
       <c r="C12">
-        <v>-20.34973180136398</v>
+        <v>-14.382284828215351</v>
       </c>
       <c r="D12">
-        <v>-14.107299604755379</v>
+        <v>-7.4056741572072653</v>
       </c>
       <c r="E12">
-        <v>-11.2059459378547</v>
+        <v>-7.7966182097758852</v>
       </c>
       <c r="F12">
-        <v>6.7890083601900821</v>
+        <v>1.9331318544212359</v>
       </c>
       <c r="G12">
-        <v>-4.2150860778751467</v>
+        <v>-3.5317873519402521</v>
       </c>
       <c r="H12">
-        <v>-2.982538685704609</v>
+        <v>-3.007970079551558</v>
       </c>
       <c r="I12">
-        <v>-3.0783441037298962</v>
+        <v>-3.0215515249799392</v>
       </c>
       <c r="J12">
-        <v>-7.160026638319426</v>
+        <v>-6.1374597843117584</v>
       </c>
       <c r="K12">
-        <v>-7.788132785726277</v>
+        <v>-5.4053455711949319</v>
       </c>
       <c r="L12">
-        <v>-25.010220723525531</v>
+        <v>-18.3930929140732</v>
       </c>
       <c r="M12">
-        <v>-5.9719037364607068</v>
+        <v>-5.6602227452172906</v>
       </c>
       <c r="N12">
-        <v>-9.4411276834607261</v>
+        <v>-14.13259284823455</v>
       </c>
       <c r="O12">
-        <v>-5.9081052686564819</v>
+        <v>-4.8104452272116074</v>
       </c>
       <c r="P12">
-        <v>-3.8955824115886508</v>
+        <v>-2.8986929390242411</v>
       </c>
       <c r="Q12" t="s">
         <v>4</v>
@@ -16942,158 +16913,158 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>-2.8498141339849732</v>
+        <v>-1.2353403078425551</v>
       </c>
       <c r="C13">
-        <v>-38.690253383331807</v>
+        <v>-20.34973180136398</v>
       </c>
       <c r="D13">
-        <v>-34.401104718733897</v>
+        <v>-14.107299604755379</v>
       </c>
       <c r="E13">
-        <v>-13.61728592081073</v>
+        <v>-11.2059459378547</v>
       </c>
       <c r="F13">
-        <v>-4.0274067171514956</v>
+        <v>6.7890083601900821</v>
       </c>
       <c r="G13">
-        <v>-6.3227548084281064</v>
+        <v>-4.2150860778751467</v>
       </c>
       <c r="H13">
-        <v>-7.7586012741173906</v>
+        <v>-2.982538685704609</v>
       </c>
       <c r="I13">
-        <v>-4.1767365729313788</v>
+        <v>-3.0783441037298962</v>
       </c>
       <c r="J13">
-        <v>-15.92589107429044</v>
+        <v>-7.160026638319426</v>
       </c>
       <c r="K13">
-        <v>-9.7567456679431412</v>
+        <v>-7.788132785726277</v>
       </c>
       <c r="L13">
-        <v>-37.48033000905761</v>
+        <v>-25.010220723525531</v>
       </c>
       <c r="M13">
-        <v>-10.14182727907219</v>
+        <v>-5.9719037364607068</v>
       </c>
       <c r="N13">
-        <v>-17.62389357679033</v>
+        <v>-9.4411276834607261</v>
       </c>
       <c r="O13">
-        <v>-6.0205128326048039</v>
+        <v>-5.9081052686564819</v>
       </c>
       <c r="P13">
-        <v>-5.4239941544729691</v>
+        <v>-3.8955824115886508</v>
       </c>
       <c r="Q13" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14">
-        <v>-1.317175139085103</v>
+        <v>-2.8498141339849732</v>
       </c>
       <c r="C14">
-        <v>-41.7155336016544</v>
+        <v>-38.690253383331807</v>
       </c>
       <c r="D14">
-        <v>-39.470621740778768</v>
+        <v>-34.401104718733897</v>
       </c>
       <c r="E14">
-        <v>-19.358710778335229</v>
+        <v>-13.61728592081073</v>
       </c>
       <c r="F14">
-        <v>10.337090713145029</v>
+        <v>-4.0274067171514956</v>
       </c>
       <c r="G14">
-        <v>-3.7562146163977652</v>
+        <v>-6.3227548084281064</v>
       </c>
       <c r="H14">
-        <v>-6.6320575183289803</v>
+        <v>-7.7586012741173906</v>
       </c>
       <c r="I14">
-        <v>-5.5919361199089606</v>
+        <v>-4.1767365729313788</v>
       </c>
       <c r="J14">
-        <v>-11.37175462932878</v>
+        <v>-15.92589107429044</v>
       </c>
       <c r="K14">
-        <v>-12.69698329952724</v>
+        <v>-9.7567456679431412</v>
       </c>
       <c r="L14">
-        <v>-58.364838230106542</v>
+        <v>-37.48033000905761</v>
       </c>
       <c r="M14">
-        <v>-4.4757326755284064</v>
+        <v>-10.14182727907219</v>
       </c>
       <c r="N14">
-        <v>-19.896805846824819</v>
+        <v>-17.62389357679033</v>
       </c>
       <c r="O14">
-        <v>-10.968026294303661</v>
+        <v>-6.0205128326048039</v>
       </c>
       <c r="P14">
-        <v>-7.6821823646523466</v>
+        <v>-5.4239941544729691</v>
       </c>
       <c r="Q14" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15">
-        <v>-1.4049352490175411</v>
+        <v>-1.317175139085103</v>
       </c>
       <c r="C15">
-        <v>-27.941303853309339</v>
+        <v>-41.7155336016544</v>
       </c>
       <c r="D15">
-        <v>-18.238709910057121</v>
+        <v>-39.470621740778768</v>
       </c>
       <c r="E15">
-        <v>-12.649514495007621</v>
+        <v>-19.358710778335229</v>
       </c>
       <c r="F15">
-        <v>4.3604831856420088</v>
+        <v>10.337090713145029</v>
       </c>
       <c r="G15">
-        <v>-4.4483343816451564</v>
+        <v>-3.7562146163977652</v>
       </c>
       <c r="H15">
-        <v>-5.8683615519425727</v>
+        <v>-6.6320575183289803</v>
       </c>
       <c r="I15">
-        <v>-4.0048447304315706</v>
+        <v>-5.5919361199089606</v>
       </c>
       <c r="J15">
-        <v>-9.2835506319524619</v>
+        <v>-11.37175462932878</v>
       </c>
       <c r="K15">
-        <v>-7.4265920525299958</v>
+        <v>-12.69698329952724</v>
       </c>
       <c r="L15">
-        <v>-27.71233778691683</v>
+        <v>-58.364838230106542</v>
       </c>
       <c r="M15">
-        <v>-9.4842135720160634</v>
+        <v>-4.4757326755284064</v>
       </c>
       <c r="N15">
-        <v>-25.77269588865154</v>
+        <v>-19.896805846824819</v>
       </c>
       <c r="O15">
-        <v>-6.2849478133868848</v>
+        <v>-10.968026294303661</v>
       </c>
       <c r="P15">
-        <v>-2.3661536288173992</v>
+        <v>-7.6821823646523466</v>
       </c>
       <c r="Q15" t="s">
         <v>4</v>
@@ -17101,52 +17072,52 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16">
-        <v>-1.610680769098606</v>
+        <v>-1.4049352490175411</v>
       </c>
       <c r="C16">
-        <v>-30.496965887050301</v>
+        <v>-27.941303853309339</v>
       </c>
       <c r="D16">
-        <v>-17.908488519644909</v>
+        <v>-18.238709910057121</v>
       </c>
       <c r="E16">
-        <v>-14.44872801684008</v>
+        <v>-12.649514495007621</v>
       </c>
       <c r="F16">
-        <v>9.1936477527874789</v>
+        <v>4.3604831856420088</v>
       </c>
       <c r="G16">
-        <v>-4.9620155945318682</v>
+        <v>-4.4483343816451564</v>
       </c>
       <c r="H16">
-        <v>-4.419220567875108</v>
+        <v>-5.8683615519425727</v>
       </c>
       <c r="I16">
-        <v>-5.0543122096364481</v>
+        <v>-4.0048447304315706</v>
       </c>
       <c r="J16">
-        <v>-8.1706939438554596</v>
+        <v>-9.2835506319524619</v>
       </c>
       <c r="K16">
-        <v>-10.006519503078939</v>
+        <v>-7.4265920525299958</v>
       </c>
       <c r="L16">
-        <v>-39.980426935037777</v>
+        <v>-27.71233778691683</v>
       </c>
       <c r="M16">
-        <v>-8.0691465967531393</v>
+        <v>-9.4842135720160634</v>
       </c>
       <c r="N16">
-        <v>-21.450653904021671</v>
+        <v>-25.77269588865154</v>
       </c>
       <c r="O16">
-        <v>-7.3578048574980226</v>
+        <v>-6.2849478133868848</v>
       </c>
       <c r="P16">
-        <v>-4.1776637381795796</v>
+        <v>-2.3661536288173992</v>
       </c>
       <c r="Q16" t="s">
         <v>4</v>
@@ -17154,52 +17125,52 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17">
-        <v>-0.42500356191354233</v>
+        <v>-1.610680769098606</v>
       </c>
       <c r="C17">
-        <v>-29.329316263755</v>
+        <v>-30.496965887050301</v>
       </c>
       <c r="D17">
-        <v>-31.728484863442851</v>
+        <v>-17.908488519644909</v>
       </c>
       <c r="E17">
-        <v>-17.603470763947779</v>
+        <v>-14.44872801684008</v>
       </c>
       <c r="F17">
-        <v>15.25302872771827</v>
+        <v>9.1936477527874789</v>
       </c>
       <c r="G17">
-        <v>-3.1947170075853228</v>
+        <v>-4.9620155945318682</v>
       </c>
       <c r="H17">
-        <v>-4.7760199625430184</v>
+        <v>-4.419220567875108</v>
       </c>
       <c r="I17">
-        <v>-4.804863262353722</v>
+        <v>-5.0543122096364481</v>
       </c>
       <c r="J17">
-        <v>-9.5854205091678537</v>
+        <v>-8.1706939438554596</v>
       </c>
       <c r="K17">
-        <v>-11.08964670363043</v>
+        <v>-10.006519503078939</v>
       </c>
       <c r="L17">
-        <v>-57.189719401293402</v>
+        <v>-39.980426935037777</v>
       </c>
       <c r="M17">
-        <v>-5.5206793081676393</v>
+        <v>-8.0691465967531393</v>
       </c>
       <c r="N17">
-        <v>-18.496555819068021</v>
+        <v>-21.450653904021671</v>
       </c>
       <c r="O17">
-        <v>-7.6262749402931904</v>
+        <v>-7.3578048574980226</v>
       </c>
       <c r="P17">
-        <v>-8.7879845378099066</v>
+        <v>-4.1776637381795796</v>
       </c>
       <c r="Q17" t="s">
         <v>4</v>
@@ -17207,52 +17178,52 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18">
-        <v>-0.69474301759281576</v>
+        <v>-0.42500356191354233</v>
       </c>
       <c r="C18">
-        <v>-29.025871602064591</v>
+        <v>-29.329316263755</v>
       </c>
       <c r="D18">
-        <v>-20.28981183142912</v>
+        <v>-31.728484863442851</v>
       </c>
       <c r="E18">
-        <v>-11.30121712713153</v>
+        <v>-17.603470763947779</v>
       </c>
       <c r="F18">
-        <v>6.837448061518006</v>
+        <v>15.25302872771827</v>
       </c>
       <c r="G18">
-        <v>-4.4352818956928539</v>
+        <v>-3.1947170075853228</v>
       </c>
       <c r="H18">
-        <v>-4.2769412542271432</v>
+        <v>-4.7760199625430184</v>
       </c>
       <c r="I18">
-        <v>-3.4160634792683351</v>
+        <v>-4.804863262353722</v>
       </c>
       <c r="J18">
-        <v>-9.2390931024100347</v>
+        <v>-9.5854205091678537</v>
       </c>
       <c r="K18">
-        <v>-7.4162160616698536</v>
+        <v>-11.08964670363043</v>
       </c>
       <c r="L18">
-        <v>-31.816958403524939</v>
+        <v>-57.189719401293402</v>
       </c>
       <c r="M18">
-        <v>-7.0244232395627026</v>
+        <v>-5.5206793081676393</v>
       </c>
       <c r="N18">
-        <v>-13.395311701272011</v>
+        <v>-18.496555819068021</v>
       </c>
       <c r="O18">
-        <v>-7.6131164146359671</v>
+        <v>-7.6262749402931904</v>
       </c>
       <c r="P18">
-        <v>-3.4785239144157711</v>
+        <v>-8.7879845378099066</v>
       </c>
       <c r="Q18" t="s">
         <v>4</v>
@@ -17260,52 +17231,52 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
-        <v>-0.24072938757458781</v>
+        <v>-0.69474301759281576</v>
       </c>
       <c r="C19">
-        <v>-25.339938387356689</v>
+        <v>-29.025871602064591</v>
       </c>
       <c r="D19">
-        <v>-19.95113849765869</v>
+        <v>-20.28981183142912</v>
       </c>
       <c r="E19">
-        <v>-17.227139932652381</v>
+        <v>-11.30121712713153</v>
       </c>
       <c r="F19">
-        <v>0.2448140132711224</v>
+        <v>6.837448061518006</v>
       </c>
       <c r="G19">
-        <v>-3.82453899929929</v>
+        <v>-4.4352818956928539</v>
       </c>
       <c r="H19">
-        <v>-3.544896249883148</v>
+        <v>-4.2769412542271432</v>
       </c>
       <c r="I19">
-        <v>-3.1773235119044339</v>
+        <v>-3.4160634792683351</v>
       </c>
       <c r="J19">
-        <v>-11.31940112939543</v>
+        <v>-9.2390931024100347</v>
       </c>
       <c r="K19">
-        <v>-8.6601579767244754</v>
+        <v>-7.4162160616698536</v>
       </c>
       <c r="L19">
-        <v>-33.636375392393752</v>
+        <v>-31.816958403524939</v>
       </c>
       <c r="M19">
-        <v>-7.3169262929916323</v>
+        <v>-7.0244232395627026</v>
       </c>
       <c r="N19">
-        <v>-23.20672513727407</v>
+        <v>-13.395311701272011</v>
       </c>
       <c r="O19">
-        <v>-5.5077820413833791</v>
+        <v>-7.6131164146359671</v>
       </c>
       <c r="P19">
-        <v>-6.0268237926797292</v>
+        <v>-3.4785239144157711</v>
       </c>
       <c r="Q19" t="s">
         <v>4</v>
@@ -17313,52 +17284,52 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20">
-        <v>-1.808848340280206</v>
+        <v>-0.24072938757458781</v>
       </c>
       <c r="C20">
-        <v>-21.959546944683229</v>
+        <v>-25.339938387356689</v>
       </c>
       <c r="D20">
-        <v>-16.455639244565159</v>
+        <v>-19.95113849765869</v>
       </c>
       <c r="E20">
-        <v>-14.17133250719221</v>
+        <v>-17.227139932652381</v>
       </c>
       <c r="F20">
-        <v>14.08842111743831</v>
+        <v>0.2448140132711224</v>
       </c>
       <c r="G20">
-        <v>-3.6777363882426539</v>
+        <v>-3.82453899929929</v>
       </c>
       <c r="H20">
-        <v>-4.2763918865991073</v>
+        <v>-3.544896249883148</v>
       </c>
       <c r="I20">
-        <v>-4.8959181780596204</v>
+        <v>-3.1773235119044339</v>
       </c>
       <c r="J20">
-        <v>-7.8353310594919652</v>
+        <v>-11.31940112939543</v>
       </c>
       <c r="K20">
-        <v>-8.3260860868505233</v>
+        <v>-8.6601579767244754</v>
       </c>
       <c r="L20">
-        <v>-26.930833723468389</v>
+        <v>-33.636375392393752</v>
       </c>
       <c r="M20">
-        <v>-8.7259017670283594</v>
+        <v>-7.3169262929916323</v>
       </c>
       <c r="N20">
-        <v>-19.038075577188149</v>
+        <v>-23.20672513727407</v>
       </c>
       <c r="O20">
-        <v>-6.4176792947381767</v>
+        <v>-5.5077820413833791</v>
       </c>
       <c r="P20">
-        <v>-3.437080058894689</v>
+        <v>-6.0268237926797292</v>
       </c>
       <c r="Q20" t="s">
         <v>4</v>
@@ -17366,52 +17337,52 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21">
-        <v>-1.32813998542497</v>
+        <v>-1.808848340280206</v>
       </c>
       <c r="C21">
-        <v>-20.376189308432249</v>
+        <v>-21.959546944683229</v>
       </c>
       <c r="D21">
-        <v>-9.3128882353094085</v>
+        <v>-16.455639244565159</v>
       </c>
       <c r="E21">
-        <v>-14.14364346377565</v>
+        <v>-14.17133250719221</v>
       </c>
       <c r="F21">
-        <v>4.6607870304905248</v>
+        <v>14.08842111743831</v>
       </c>
       <c r="G21">
-        <v>-4.5476233725975934</v>
+        <v>-3.6777363882426539</v>
       </c>
       <c r="H21">
-        <v>-4.0720523555710209</v>
+        <v>-4.2763918865991073</v>
       </c>
       <c r="I21">
-        <v>-3.7845407732331049</v>
+        <v>-4.8959181780596204</v>
       </c>
       <c r="J21">
-        <v>-9.8133921332679197</v>
+        <v>-7.8353310594919652</v>
       </c>
       <c r="K21">
-        <v>-7.923077004833587</v>
+        <v>-8.3260860868505233</v>
       </c>
       <c r="L21">
-        <v>-19.899099784969629</v>
+        <v>-26.930833723468389</v>
       </c>
       <c r="M21">
-        <v>-6.8025585202089403</v>
+        <v>-8.7259017670283594</v>
       </c>
       <c r="N21">
-        <v>-14.20633506833077</v>
+        <v>-19.038075577188149</v>
       </c>
       <c r="O21">
-        <v>-5.3296872470768282</v>
+        <v>-6.4176792947381767</v>
       </c>
       <c r="P21">
-        <v>-3.7182557771113842</v>
+        <v>-3.437080058894689</v>
       </c>
       <c r="Q21" t="s">
         <v>4</v>
@@ -17419,52 +17390,52 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22">
-        <v>-2.2184143900027942</v>
+        <v>-1.32813998542497</v>
       </c>
       <c r="C22">
-        <v>-31.870587707918041</v>
+        <v>-20.376189308432249</v>
       </c>
       <c r="D22">
-        <v>-24.974710209463609</v>
+        <v>-9.3128882353094085</v>
       </c>
       <c r="E22">
-        <v>-13.570097887353111</v>
+        <v>-14.14364346377565</v>
       </c>
       <c r="F22">
-        <v>6.6066538292382493</v>
+        <v>4.6607870304905248</v>
       </c>
       <c r="G22">
-        <v>-5.0420084143079578</v>
+        <v>-4.5476233725975934</v>
       </c>
       <c r="H22">
-        <v>-7.3337561896652579</v>
+        <v>-4.0720523555710209</v>
       </c>
       <c r="I22">
-        <v>-4.4789107576478209</v>
+        <v>-3.7845407732331049</v>
       </c>
       <c r="J22">
-        <v>-11.26002350262333</v>
+        <v>-9.8133921332679197</v>
       </c>
       <c r="K22">
-        <v>-9.3535459713718048</v>
+        <v>-7.923077004833587</v>
       </c>
       <c r="L22">
-        <v>-37.949445412856157</v>
+        <v>-19.899099784969629</v>
       </c>
       <c r="M22">
-        <v>-9.4548912221174692</v>
+        <v>-6.8025585202089403</v>
       </c>
       <c r="N22">
-        <v>-17.22981434582627</v>
+        <v>-14.20633506833077</v>
       </c>
       <c r="O22">
-        <v>-6.425436729024641</v>
+        <v>-5.3296872470768282</v>
       </c>
       <c r="P22">
-        <v>-3.160273545865361</v>
+        <v>-3.7182557771113842</v>
       </c>
       <c r="Q22" t="s">
         <v>4</v>
@@ -17472,52 +17443,52 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23">
-        <v>-2.9899291889291382</v>
+        <v>-2.2184143900027942</v>
       </c>
       <c r="C23">
-        <v>-31.10343910158538</v>
+        <v>-31.870587707918041</v>
       </c>
       <c r="D23">
-        <v>-21.333833437341479</v>
+        <v>-24.974710209463609</v>
       </c>
       <c r="E23">
-        <v>-14.887270141457121</v>
+        <v>-13.570097887353111</v>
       </c>
       <c r="F23">
-        <v>5.3874311684837499</v>
+        <v>6.6066538292382493</v>
       </c>
       <c r="G23">
-        <v>-5.8365435867159112</v>
+        <v>-5.0420084143079578</v>
       </c>
       <c r="H23">
-        <v>-4.4985597758008993</v>
+        <v>-7.3337561896652579</v>
       </c>
       <c r="I23">
-        <v>-4.5189962598660411</v>
+        <v>-4.4789107576478209</v>
       </c>
       <c r="J23">
-        <v>-9.7196327935183096</v>
+        <v>-11.26002350262333</v>
       </c>
       <c r="K23">
-        <v>-11.01809710278474</v>
+        <v>-9.3535459713718048</v>
       </c>
       <c r="L23">
-        <v>-28.130098399493079</v>
+        <v>-37.949445412856157</v>
       </c>
       <c r="M23">
-        <v>-6.156351674395296</v>
+        <v>-9.4548912221174692</v>
       </c>
       <c r="N23">
-        <v>-13.415114086735249</v>
+        <v>-17.22981434582627</v>
       </c>
       <c r="O23">
-        <v>-8.34512123160121</v>
+        <v>-6.425436729024641</v>
       </c>
       <c r="P23">
-        <v>-4.9504967224641989</v>
+        <v>-3.160273545865361</v>
       </c>
       <c r="Q23" t="s">
         <v>4</v>
@@ -17525,52 +17496,52 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24">
-        <v>-0.38754266467927029</v>
+        <v>-2.9899291889291382</v>
       </c>
       <c r="C24">
-        <v>-23.46102233512601</v>
+        <v>-31.10343910158538</v>
       </c>
       <c r="D24">
-        <v>-14.87295284631116</v>
+        <v>-21.333833437341479</v>
       </c>
       <c r="E24">
-        <v>-15.7007668813665</v>
+        <v>-14.887270141457121</v>
       </c>
       <c r="F24">
-        <v>7.0922060042243684</v>
+        <v>5.3874311684837499</v>
       </c>
       <c r="G24">
-        <v>-4.0505920716965056</v>
+        <v>-5.8365435867159112</v>
       </c>
       <c r="H24">
-        <v>-3.9800720918864099</v>
+        <v>-4.4985597758008993</v>
       </c>
       <c r="I24">
-        <v>-3.23418959939954</v>
+        <v>-4.5189962598660411</v>
       </c>
       <c r="J24">
-        <v>-11.71525435918339</v>
+        <v>-9.7196327935183096</v>
       </c>
       <c r="K24">
-        <v>-7.7325523117298616</v>
+        <v>-11.01809710278474</v>
       </c>
       <c r="L24">
-        <v>-35.770549866608633</v>
+        <v>-28.130098399493079</v>
       </c>
       <c r="M24">
-        <v>-8.1251243136228251</v>
+        <v>-6.156351674395296</v>
       </c>
       <c r="N24">
-        <v>-27.33230869387976</v>
+        <v>-13.415114086735249</v>
       </c>
       <c r="O24">
-        <v>-5.4524803096500252</v>
+        <v>-8.34512123160121</v>
       </c>
       <c r="P24">
-        <v>-4.2968483500012766</v>
+        <v>-4.9504967224641989</v>
       </c>
       <c r="Q24" t="s">
         <v>4</v>
@@ -17578,52 +17549,52 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25">
-        <v>-1.220762810396659</v>
+        <v>-0.38754266467927029</v>
       </c>
       <c r="C25">
-        <v>-20.79043046347865</v>
+        <v>-23.46102233512601</v>
       </c>
       <c r="D25">
-        <v>-16.794017955005732</v>
+        <v>-14.87295284631116</v>
       </c>
       <c r="E25">
-        <v>-12.251766213693649</v>
+        <v>-15.7007668813665</v>
       </c>
       <c r="F25">
-        <v>5.6093239702034232</v>
+        <v>7.0922060042243684</v>
       </c>
       <c r="G25">
-        <v>-3.7889941011931598</v>
+        <v>-4.0505920716965056</v>
       </c>
       <c r="H25">
-        <v>-4.0079884799012779</v>
+        <v>-3.9800720918864099</v>
       </c>
       <c r="I25">
-        <v>-3.784237590650104</v>
+        <v>-3.23418959939954</v>
       </c>
       <c r="J25">
-        <v>-6.7766318673731591</v>
+        <v>-11.71525435918339</v>
       </c>
       <c r="K25">
-        <v>-7.6320471797417104</v>
+        <v>-7.7325523117298616</v>
       </c>
       <c r="L25">
-        <v>-23.012553054737129</v>
+        <v>-35.770549866608633</v>
       </c>
       <c r="M25">
-        <v>-5.5729806988099551</v>
+        <v>-8.1251243136228251</v>
       </c>
       <c r="N25">
-        <v>-16.29900532604838</v>
+        <v>-27.33230869387976</v>
       </c>
       <c r="O25">
-        <v>-6.687659466753181</v>
+        <v>-5.4524803096500252</v>
       </c>
       <c r="P25">
-        <v>-4.4819774681824649</v>
+        <v>-4.2968483500012766</v>
       </c>
       <c r="Q25" t="s">
         <v>4</v>
@@ -17631,158 +17602,158 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26">
-        <v>-0.98572370134735154</v>
+        <v>-1.220762810396659</v>
       </c>
       <c r="C26">
-        <v>-25.768198717329181</v>
+        <v>-20.79043046347865</v>
       </c>
       <c r="D26">
-        <v>-22.634685008870481</v>
+        <v>-16.794017955005732</v>
       </c>
       <c r="E26">
-        <v>-17.764825335381101</v>
+        <v>-12.251766213693649</v>
       </c>
       <c r="F26">
-        <v>-2.6383206708458671</v>
+        <v>5.6093239702034232</v>
       </c>
       <c r="G26">
-        <v>-3.888406388544559</v>
+        <v>-3.7889941011931598</v>
       </c>
       <c r="H26">
-        <v>-3.3563089925681369</v>
+        <v>-4.0079884799012779</v>
       </c>
       <c r="I26">
-        <v>-3.1826782177653419</v>
+        <v>-3.784237590650104</v>
       </c>
       <c r="J26">
-        <v>-9.7754302131830357</v>
+        <v>-6.7766318673731591</v>
       </c>
       <c r="K26">
-        <v>-8.2478013810316906</v>
+        <v>-7.6320471797417104</v>
       </c>
       <c r="L26">
-        <v>-37.002794323564189</v>
+        <v>-23.012553054737129</v>
       </c>
       <c r="M26">
-        <v>-5.3200570775206772</v>
+        <v>-5.5729806988099551</v>
       </c>
       <c r="N26">
-        <v>-21.12702741994914</v>
+        <v>-16.29900532604838</v>
       </c>
       <c r="O26">
-        <v>-7.4290840325145746</v>
+        <v>-6.687659466753181</v>
       </c>
       <c r="P26">
-        <v>-7.3333953098386724</v>
+        <v>-4.4819774681824649</v>
       </c>
       <c r="Q26" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27">
-        <v>-0.98468933545300996</v>
+        <v>-0.98572370134735154</v>
       </c>
       <c r="C27">
-        <v>-24.131000419352759</v>
+        <v>-25.768198717329181</v>
       </c>
       <c r="D27">
-        <v>-10.598691833873289</v>
+        <v>-22.634685008870481</v>
       </c>
       <c r="E27">
-        <v>-9.6636384223505196</v>
+        <v>-17.764825335381101</v>
       </c>
       <c r="F27">
-        <v>1.776985616589883</v>
+        <v>-2.6383206708458671</v>
       </c>
       <c r="G27">
-        <v>-3.750180942903818</v>
+        <v>-3.888406388544559</v>
       </c>
       <c r="H27">
-        <v>-4.2403700601541061</v>
+        <v>-3.3563089925681369</v>
       </c>
       <c r="I27">
-        <v>-3.1055616977566789</v>
+        <v>-3.1826782177653419</v>
       </c>
       <c r="J27">
-        <v>-7.6661228462374416</v>
+        <v>-9.7754302131830357</v>
       </c>
       <c r="K27">
-        <v>-6.7313246224311909</v>
+        <v>-8.2478013810316906</v>
       </c>
       <c r="L27">
-        <v>-20.473493270501759</v>
+        <v>-37.002794323564189</v>
       </c>
       <c r="M27">
-        <v>-6.7377966502509654</v>
+        <v>-5.3200570775206772</v>
       </c>
       <c r="N27">
-        <v>-11.615111306039241</v>
+        <v>-21.12702741994914</v>
       </c>
       <c r="O27">
-        <v>-6.2059714555439998</v>
+        <v>-7.4290840325145746</v>
       </c>
       <c r="P27">
-        <v>-4.1375315953989631</v>
+        <v>-7.3333953098386724</v>
       </c>
       <c r="Q27" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28">
-        <v>-1.100236233244547</v>
+        <v>-0.98468933545300996</v>
       </c>
       <c r="C28">
-        <v>-17.864162133304649</v>
+        <v>-24.131000419352759</v>
       </c>
       <c r="D28">
-        <v>-11.1420202475734</v>
+        <v>-10.598691833873289</v>
       </c>
       <c r="E28">
-        <v>-8.9379812136526944</v>
+        <v>-9.6636384223505196</v>
       </c>
       <c r="F28">
-        <v>2.4429725933754778</v>
+        <v>1.776985616589883</v>
       </c>
       <c r="G28">
-        <v>-4.1548532595734118</v>
+        <v>-3.750180942903818</v>
       </c>
       <c r="H28">
-        <v>-3.6087609179356561</v>
+        <v>-4.2403700601541061</v>
       </c>
       <c r="I28">
-        <v>-3.2843325714699141</v>
+        <v>-3.1055616977566789</v>
       </c>
       <c r="J28">
-        <v>-7.5771043457141456</v>
+        <v>-7.6661228462374416</v>
       </c>
       <c r="K28">
-        <v>-6.895377559923892</v>
+        <v>-6.7313246224311909</v>
       </c>
       <c r="L28">
-        <v>-19.398684277106039</v>
+        <v>-20.473493270501759</v>
       </c>
       <c r="M28">
-        <v>-7.2517279106299224</v>
+        <v>-6.7377966502509654</v>
       </c>
       <c r="N28">
-        <v>-18.09517998676743</v>
+        <v>-11.615111306039241</v>
       </c>
       <c r="O28">
-        <v>-4.8508472734275854</v>
+        <v>-6.2059714555439998</v>
       </c>
       <c r="P28">
-        <v>-2.643444910270945</v>
+        <v>-4.1375315953989631</v>
       </c>
       <c r="Q28" t="s">
         <v>4</v>
@@ -17790,52 +17761,52 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29">
-        <v>-1.4242018308018061</v>
+        <v>-1.100236233244547</v>
       </c>
       <c r="C29">
-        <v>-25.603633012899529</v>
+        <v>-17.864162133304649</v>
       </c>
       <c r="D29">
-        <v>-20.00122685007052</v>
+        <v>-11.1420202475734</v>
       </c>
       <c r="E29">
-        <v>-14.75390893104146</v>
+        <v>-8.9379812136526944</v>
       </c>
       <c r="F29">
-        <v>10.26710780759081</v>
+        <v>2.4429725933754778</v>
       </c>
       <c r="G29">
-        <v>-4.7704972976465294</v>
+        <v>-4.1548532595734118</v>
       </c>
       <c r="H29">
-        <v>-4.1601798041519684</v>
+        <v>-3.6087609179356561</v>
       </c>
       <c r="I29">
-        <v>-3.5460505193086642</v>
+        <v>-3.2843325714699141</v>
       </c>
       <c r="J29">
-        <v>-9.9921810849669299</v>
+        <v>-7.5771043457141456</v>
       </c>
       <c r="K29">
-        <v>-9.0250098410245467</v>
+        <v>-6.895377559923892</v>
       </c>
       <c r="L29">
-        <v>-28.095715041750289</v>
+        <v>-19.398684277106039</v>
       </c>
       <c r="M29">
-        <v>-7.519295183848981</v>
+        <v>-7.2517279106299224</v>
       </c>
       <c r="N29">
-        <v>-12.779489539126949</v>
+        <v>-18.09517998676743</v>
       </c>
       <c r="O29">
-        <v>-7.4219433791485088</v>
+        <v>-4.8508472734275854</v>
       </c>
       <c r="P29">
-        <v>-3.0205012280132562</v>
+        <v>-2.643444910270945</v>
       </c>
       <c r="Q29" t="s">
         <v>4</v>
@@ -17843,52 +17814,52 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30">
-        <v>-1.3525966756187899</v>
+        <v>-1.4242018308018061</v>
       </c>
       <c r="C30">
-        <v>-37.728059266290693</v>
+        <v>-25.603633012899529</v>
       </c>
       <c r="D30">
-        <v>-31.02295770369205</v>
+        <v>-20.00122685007052</v>
       </c>
       <c r="E30">
-        <v>-18.150862631586591</v>
+        <v>-14.75390893104146</v>
       </c>
       <c r="F30">
-        <v>7.7691908221407138</v>
+        <v>10.26710780759081</v>
       </c>
       <c r="G30">
-        <v>-4.5608530088210797</v>
+        <v>-4.7704972976465294</v>
       </c>
       <c r="H30">
-        <v>-4.7445041185228698</v>
+        <v>-4.1601798041519684</v>
       </c>
       <c r="I30">
-        <v>-6.144245488627071</v>
+        <v>-3.5460505193086642</v>
       </c>
       <c r="J30">
-        <v>-11.29037352328597</v>
+        <v>-9.9921810849669299</v>
       </c>
       <c r="K30">
-        <v>-12.85569360300677</v>
+        <v>-9.0250098410245467</v>
       </c>
       <c r="L30">
-        <v>-52.501622889043887</v>
+        <v>-28.095715041750289</v>
       </c>
       <c r="M30">
-        <v>-4.0084939292411903</v>
+        <v>-7.519295183848981</v>
       </c>
       <c r="N30">
-        <v>-13.690886838469311</v>
+        <v>-12.779489539126949</v>
       </c>
       <c r="O30">
-        <v>-10.042176296171951</v>
+        <v>-7.4219433791485088</v>
       </c>
       <c r="P30">
-        <v>-8.7444056755588537</v>
+        <v>-3.0205012280132562</v>
       </c>
       <c r="Q30" t="s">
         <v>4</v>
@@ -17896,52 +17867,52 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31">
-        <v>-1.4438129206879169</v>
+        <v>-1.3525966756187899</v>
       </c>
       <c r="C31">
-        <v>-20.09223050495147</v>
+        <v>-37.728059266290693</v>
       </c>
       <c r="D31">
-        <v>-16.648131542006809</v>
+        <v>-31.02295770369205</v>
       </c>
       <c r="E31">
-        <v>-11.178647009177441</v>
+        <v>-18.150862631586591</v>
       </c>
       <c r="F31">
-        <v>8.4655794603323322</v>
+        <v>7.7691908221407138</v>
       </c>
       <c r="G31">
-        <v>-3.5222126822000539</v>
+        <v>-4.5608530088210797</v>
       </c>
       <c r="H31">
-        <v>-3.9023888755996001</v>
+        <v>-4.7445041185228698</v>
       </c>
       <c r="I31">
-        <v>-3.1741278290983019</v>
+        <v>-6.144245488627071</v>
       </c>
       <c r="J31">
-        <v>-7.1961781040422554</v>
+        <v>-11.29037352328597</v>
       </c>
       <c r="K31">
-        <v>-7.9432988899428842</v>
+        <v>-12.85569360300677</v>
       </c>
       <c r="L31">
-        <v>-21.849372171560749</v>
+        <v>-52.501622889043887</v>
       </c>
       <c r="M31">
-        <v>-7.135251754452594</v>
+        <v>-4.0084939292411903</v>
       </c>
       <c r="N31">
-        <v>-12.806633152615481</v>
+        <v>-13.690886838469311</v>
       </c>
       <c r="O31">
-        <v>-6.6588153953923843</v>
+        <v>-10.042176296171951</v>
       </c>
       <c r="P31">
-        <v>-4.0936020774762643</v>
+        <v>-8.7444056755588537</v>
       </c>
       <c r="Q31" t="s">
         <v>4</v>
@@ -17949,52 +17920,52 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32">
-        <v>-1.157701666179501</v>
+        <v>-1.4438129206879169</v>
       </c>
       <c r="C32">
-        <v>-24.486793648100431</v>
+        <v>-20.09223050495147</v>
       </c>
       <c r="D32">
-        <v>-20.864041393932109</v>
+        <v>-16.648131542006809</v>
       </c>
       <c r="E32">
-        <v>-12.054133265926961</v>
+        <v>-11.178647009177441</v>
       </c>
       <c r="F32">
-        <v>5.6675580914748229</v>
+        <v>8.4655794603323322</v>
       </c>
       <c r="G32">
-        <v>-4.9649601149123344</v>
+        <v>-3.5222126822000539</v>
       </c>
       <c r="H32">
-        <v>-5.175118210129579</v>
+        <v>-3.9023888755996001</v>
       </c>
       <c r="I32">
-        <v>-3.3366739466737099</v>
+        <v>-3.1741278290983019</v>
       </c>
       <c r="J32">
-        <v>-9.9063258844482078</v>
+        <v>-7.1961781040422554</v>
       </c>
       <c r="K32">
-        <v>-7.061726896424811</v>
+        <v>-7.9432988899428842</v>
       </c>
       <c r="L32">
-        <v>-26.310210102516368</v>
+        <v>-21.849372171560749</v>
       </c>
       <c r="M32">
-        <v>-8.7669557565432505</v>
+        <v>-7.135251754452594</v>
       </c>
       <c r="N32">
-        <v>-19.320348940235991</v>
+        <v>-12.806633152615481</v>
       </c>
       <c r="O32">
-        <v>-4.5940710953801567</v>
+        <v>-6.6588153953923843</v>
       </c>
       <c r="P32">
-        <v>-3.0992762092206569</v>
+        <v>-4.0936020774762643</v>
       </c>
       <c r="Q32" t="s">
         <v>4</v>
@@ -18002,52 +17973,52 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33">
-        <v>-1.3331841555944091</v>
+        <v>-1.157701666179501</v>
       </c>
       <c r="C33">
-        <v>-28.057450889680599</v>
+        <v>-24.486793648100431</v>
       </c>
       <c r="D33">
-        <v>-22.625371970467111</v>
+        <v>-20.864041393932109</v>
       </c>
       <c r="E33">
-        <v>-12.804914282063949</v>
+        <v>-12.054133265926961</v>
       </c>
       <c r="F33">
-        <v>4.771260681896357</v>
+        <v>5.6675580914748229</v>
       </c>
       <c r="G33">
-        <v>-5.2548995391587354</v>
+        <v>-4.9649601149123344</v>
       </c>
       <c r="H33">
-        <v>-5.6557123038600894</v>
+        <v>-5.175118210129579</v>
       </c>
       <c r="I33">
-        <v>-3.6997593880492659</v>
+        <v>-3.3366739466737099</v>
       </c>
       <c r="J33">
-        <v>-10.558432121277139</v>
+        <v>-9.9063258844482078</v>
       </c>
       <c r="K33">
-        <v>-8.3306693373285512</v>
+        <v>-7.061726896424811</v>
       </c>
       <c r="L33">
-        <v>-32.37823337066451</v>
+        <v>-26.310210102516368</v>
       </c>
       <c r="M33">
-        <v>-8.8014872924860139</v>
+        <v>-8.7669557565432505</v>
       </c>
       <c r="N33">
-        <v>-20.632979433909821</v>
+        <v>-19.320348940235991</v>
       </c>
       <c r="O33">
-        <v>-6.5208589694263228</v>
+        <v>-4.5940710953801567</v>
       </c>
       <c r="P33">
-        <v>-4.245234468622157</v>
+        <v>-3.0992762092206569</v>
       </c>
       <c r="Q33" t="s">
         <v>4</v>
@@ -18055,52 +18026,52 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34">
-        <v>-2.0588195660707518</v>
+        <v>-1.3331841555944091</v>
       </c>
       <c r="C34">
-        <v>-35.013154277742842</v>
+        <v>-28.057450889680599</v>
       </c>
       <c r="D34">
-        <v>-24.173375922988079</v>
+        <v>-22.625371970467111</v>
       </c>
       <c r="E34">
-        <v>-12.32064440090722</v>
+        <v>-12.804914282063949</v>
       </c>
       <c r="F34">
-        <v>6.2863359563831551</v>
+        <v>4.771260681896357</v>
       </c>
       <c r="G34">
-        <v>-4.8203355643179577</v>
+        <v>-5.2548995391587354</v>
       </c>
       <c r="H34">
-        <v>-6.5290332471490888</v>
+        <v>-5.6557123038600894</v>
       </c>
       <c r="I34">
-        <v>-3.2712444984436928</v>
+        <v>-3.6997593880492659</v>
       </c>
       <c r="J34">
-        <v>-10.13272626311911</v>
+        <v>-10.558432121277139</v>
       </c>
       <c r="K34">
-        <v>-7.5749392473601338</v>
+        <v>-8.3306693373285512</v>
       </c>
       <c r="L34">
-        <v>-50.843690134737827</v>
+        <v>-32.37823337066451</v>
       </c>
       <c r="M34">
-        <v>-13.890528051297551</v>
+        <v>-8.8014872924860139</v>
       </c>
       <c r="N34">
-        <v>-22.97761425049746</v>
+        <v>-20.632979433909821</v>
       </c>
       <c r="O34">
-        <v>-9.9041786613535816</v>
+        <v>-6.5208589694263228</v>
       </c>
       <c r="P34">
-        <v>-3.830962971630882</v>
+        <v>-4.245234468622157</v>
       </c>
       <c r="Q34" t="s">
         <v>4</v>
@@ -18108,108 +18079,167 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35">
-        <v>-1.0729054840287311</v>
+        <v>-2.0588195660707518</v>
       </c>
       <c r="C35">
-        <v>-41.440092197742487</v>
+        <v>-35.013154277742842</v>
       </c>
       <c r="D35">
-        <v>-32.519836064340197</v>
+        <v>-24.173375922988079</v>
       </c>
       <c r="E35">
-        <v>-13.97578815986736</v>
+        <v>-12.32064440090722</v>
       </c>
       <c r="F35">
-        <v>-10.83222414459045</v>
+        <v>6.2863359563831551</v>
       </c>
       <c r="G35">
-        <v>-4.0550766068148301</v>
+        <v>-4.8203355643179577</v>
       </c>
       <c r="H35">
-        <v>-2.99737841931542</v>
+        <v>-6.5290332471490888</v>
       </c>
       <c r="I35">
-        <v>-5.7710428147733106</v>
+        <v>-3.2712444984436928</v>
       </c>
       <c r="J35">
-        <v>-19.05648063759191</v>
+        <v>-10.13272626311911</v>
       </c>
       <c r="K35">
-        <v>-11.88269007655016</v>
+        <v>-7.5749392473601338</v>
       </c>
       <c r="L35">
-        <v>-24.874156581489789</v>
+        <v>-50.843690134737827</v>
       </c>
       <c r="M35">
-        <v>-13.4516645361253</v>
+        <v>-13.890528051297551</v>
       </c>
       <c r="N35">
-        <v>-41.489205495869072</v>
+        <v>-22.97761425049746</v>
       </c>
       <c r="O35">
-        <v>-5.5736435235549031</v>
+        <v>-9.9041786613535816</v>
       </c>
       <c r="P35">
-        <v>-5.7556357567650176</v>
+        <v>-3.830962971630882</v>
       </c>
       <c r="Q35" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36">
+        <v>-1.0729054840287311</v>
+      </c>
+      <c r="C36">
+        <v>-41.440092197742487</v>
+      </c>
+      <c r="D36">
+        <v>-32.519836064340197</v>
+      </c>
+      <c r="E36">
+        <v>-13.97578815986736</v>
+      </c>
+      <c r="F36">
+        <v>-10.83222414459045</v>
+      </c>
+      <c r="G36">
+        <v>-4.0550766068148301</v>
+      </c>
+      <c r="H36">
+        <v>-2.99737841931542</v>
+      </c>
+      <c r="I36">
+        <v>-5.7710428147733106</v>
+      </c>
+      <c r="J36">
+        <v>-19.05648063759191</v>
+      </c>
+      <c r="K36">
+        <v>-11.88269007655016</v>
+      </c>
+      <c r="L36">
+        <v>-24.874156581489789</v>
+      </c>
+      <c r="M36">
+        <v>-13.4516645361253</v>
+      </c>
+      <c r="N36">
+        <v>-41.489205495869072</v>
+      </c>
+      <c r="O36">
+        <v>-5.5736435235549031</v>
+      </c>
+      <c r="P36">
+        <v>-5.7556357567650176</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>-0.53231301108498252</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>-25.53249937302969</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>-16.970432102949129</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <v>-18.545547476995839</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>-0.94360999134518186</v>
       </c>
-      <c r="G36">
+      <c r="G37">
         <v>-4.3891827434527473</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <v>-4.1851352745240407</v>
       </c>
-      <c r="I36">
+      <c r="I37">
         <v>-4.4830001798633736</v>
       </c>
-      <c r="J36">
+      <c r="J37">
         <v>-10.22505531480982</v>
       </c>
-      <c r="K36">
+      <c r="K37">
         <v>-10.10196216197693</v>
       </c>
-      <c r="L36">
+      <c r="L37">
         <v>-39.64783602259736</v>
       </c>
-      <c r="M36">
+      <c r="M37">
         <v>-6.1396344074303046</v>
       </c>
-      <c r="N36">
+      <c r="N37">
         <v>-23.665957531438892</v>
       </c>
-      <c r="O36">
+      <c r="O37">
         <v>-6.2874189166273302</v>
       </c>
-      <c r="P36">
+      <c r="P37">
         <v>-6.621690084667966</v>
       </c>
-      <c r="Q36" t="s">
-        <v>0</v>
+      <c r="Q37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -18221,7 +18251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/outputs/fft-o__Bacteroidales.xlsx
+++ b/outputs/fft-o__Bacteroidales.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB4C9BB-6386-B448-A8A7-892245ABE5E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A27C43-6A48-A641-B492-56D1216735E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="820" windowWidth="28800" windowHeight="15880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="g__C941_wrapper-SH" sheetId="1" r:id="rId1"/>
-    <sheet name="g__C941_wrapper-SH-c" sheetId="2" r:id="rId2"/>
-    <sheet name="g__Ruminococcus_E_wrapper-SH" sheetId="3" r:id="rId3"/>
-    <sheet name="g__Ruminococcus_E_wrapper-SH-c" sheetId="4" r:id="rId4"/>
-    <sheet name="g__C941_wrapper-LDA-p" sheetId="5" r:id="rId5"/>
-    <sheet name="g__Ruminococcus_E_wrapper-LDA-p" sheetId="6" r:id="rId6"/>
-    <sheet name="g__C941_2_wrapper-LSVM" sheetId="7" r:id="rId7"/>
-    <sheet name="g__C941_2_wrapper-LSVM-c" sheetId="8" r:id="rId8"/>
+    <sheet name="g__C941-LSVM" sheetId="1" r:id="rId1"/>
+    <sheet name="g__C941-LSVM-c" sheetId="2" r:id="rId2"/>
+    <sheet name="g__Ruminococcus_E-LSVM" sheetId="3" r:id="rId3"/>
+    <sheet name="g__Ruminococcus_E-LSVM-c" sheetId="4" r:id="rId4"/>
+    <sheet name="g__C941-LDA-p" sheetId="5" r:id="rId5"/>
+    <sheet name="g__Ruminococcus_E-LDA-p" sheetId="6" r:id="rId6"/>
+    <sheet name="g__C941_2-LSVM" sheetId="7" r:id="rId7"/>
+    <sheet name="g__C941_2-LSVM-c" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -18251,7 +18251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/outputs/fft-o__Bacteroidales.xlsx
+++ b/outputs/fft-o__Bacteroidales.xlsx
@@ -16,6 +16,8 @@
     <sheet name="g__C941_2-LSVM-c" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="g__C941_wrapper-LSVM" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="g__C941_wrapper-LSVM-c" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="g__C941_wrapper-LSVM1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="g__C941_wrapper-LSVM-c1" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2714,49 +2716,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -2774,46 +2776,46 @@
         <v>0.2462625862642592</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0.7381132502899906</v>
       </c>
       <c r="G3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -2828,49 +2830,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -2888,46 +2890,46 @@
         <v>0.7848246268961797</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -2942,49 +2944,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0.4260204617626743</v>
       </c>
       <c r="G6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -2999,49 +3001,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -3056,49 +3058,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -3116,46 +3118,46 @@
         <v>0.09065761510947412</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -3173,46 +3175,46 @@
         <v>0.7079833515379363</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0.5500730380032578</v>
       </c>
       <c r="G10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -3227,49 +3229,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -3284,49 +3286,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -3341,49 +3343,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0.9381490504232223</v>
       </c>
       <c r="G13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -3398,49 +3400,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -3455,49 +3457,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -3512,49 +3514,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -3572,46 +3574,46 @@
         <v>0.02062609878446947</v>
       </c>
       <c r="C17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -3626,49 +3628,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -3686,46 +3688,46 @@
         <v>0.02786362638572371</v>
       </c>
       <c r="C19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -3740,49 +3742,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -3800,46 +3802,46 @@
         <v>0.3624204668738531</v>
       </c>
       <c r="C21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0.4437360509276685</v>
       </c>
       <c r="G21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -3854,49 +3856,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -3911,49 +3913,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0.9079552531421338</v>
       </c>
       <c r="G23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -3971,46 +3973,46 @@
         <v>0.1463086289981546</v>
       </c>
       <c r="C24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -4028,46 +4030,46 @@
         <v>0.0728229187916053</v>
       </c>
       <c r="C25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -4085,46 +4087,46 @@
         <v>0.04196682810329067</v>
       </c>
       <c r="C26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0.4468850669817031</v>
       </c>
       <c r="G26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -4139,49 +4141,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0.6359541474651633</v>
       </c>
       <c r="G27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -4196,49 +4198,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -4253,49 +4255,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -4310,49 +4312,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -4367,49 +4369,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -4424,49 +4426,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0.5602521374041093</v>
       </c>
       <c r="G32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -4481,49 +4483,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -4538,49 +4540,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -4598,46 +4600,46 @@
         <v>0.1158578773973679</v>
       </c>
       <c r="C35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -4653,6 +4655,4198 @@
       </c>
       <c r="B36" t="n">
         <v>0.5061274377945648</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>f__Dysgonomonadaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>f__Marinilabiliaceae</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>f__PUMT01</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>f__Prolixibacteraceae</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+      <c r="L1" s="6" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+      <c r="M1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA7960</t>
+        </is>
+      </c>
+      <c r="N1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="O1" s="6" t="inlineStr">
+        <is>
+          <t>f__VadinHA17</t>
+        </is>
+      </c>
+      <c r="P1" s="6" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+      <c r="Q1" s="6" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.695282838307868</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-31.65614798358794</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-16.15188796493771</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-16.63836747466243</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7.088286794563109</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-5.328423581245054</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-5.066899877939673</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-3.817367956023779</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-11.21182582259259</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-9.451070417901613</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-33.36286789107331</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-7.441296337011014</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-12.79819254351284</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-7.295608923616255</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-3.958680391483634</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.2370553666910718</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-23.3249825111894</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-12.85220919481008</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-15.04636805358025</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-1.546475451968277</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-3.87187010176658</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-3.319987789913164</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-3.500812349070394</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-9.083851763974256</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-7.97323884306216</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-29.97006393959842</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-3.503565410460968</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-14.51375700320755</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-6.606980714867261</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-4.417482355359892</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.900669466096281</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-37.19005422445491</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-25.11253867924893</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-16.44441235954528</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7262644375549103</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-6.797732957774429</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-5.636300948195703</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-5.481868622742865</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-12.20976290793496</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-10.7800991839018</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-36.29689141195909</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-8.763200798724066</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-19.69903868713083</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-7.716456072068627</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-4.037205241248522</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.411781434756321</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-17.02339085232646</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-7.654993401764494</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-14.21589898735398</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9618504427685193</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-4.396465588806113</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-3.909606061700249</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-4.600390538700924</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-8.767905873905121</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-7.167196545478866</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-25.29313167267751</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-6.329158746059491</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-18.51320408376452</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-5.00590912822403</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-3.611153311663109</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.558224305244969</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-18.15450923423644</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-4.823122474741332</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-15.98865936624818</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.049983396866536</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-4.338373416638062</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-3.605099811515458</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-3.591494084822378</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-10.8748769307412</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-6.084926349033275</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-27.52017879415404</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-9.344302602710334</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-9.329029103090251</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-3.304686912637405</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-3.934435544184292</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.380734748900488</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-30.59477538946275</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-21.25628597131645</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-17.84549236931601</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.428165345220088</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-3.920067807979728</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-4.733942670149486</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-4.089760952365103</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-12.90320351427414</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-9.375814052421404</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-39.49788385410753</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-7.027201293701849</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-18.58447668112967</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-7.284667480511028</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-3.685142913406517</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1.601487368383148</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-30.20648340409196</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-17.66367136043629</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-14.82865610732878</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.272611743323688</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-5.74458447724372</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-5.196360367178908</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-5.042450642759587</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-11.29947318299464</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-8.74138215146476</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-38.45955738581469</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-8.182507843420153</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-18.27464267204925</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-9.051938900959113</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-3.468792125234232</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.7533741949517986</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-15.57871811785934</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-6.627806819011758</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-10.33922661167472</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-3.644279241627878</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-3.544659631836578</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-2.51297485003395</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-3.651347684000944</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-7.403985404135878</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-4.114392256523364</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-29.00992482477951</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-6.328477834817302</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-8.674657545209085</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-3.754499218756632</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-5.925447995972321</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.3023201065564115</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-26.77596356786749</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-22.41311210828675</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-16.19306356996254</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.4945620511337129</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-3.374339946218095</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-4.955835396587693</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-3.543613169120771</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-10.1250087490035</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-7.631334716463383</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-38.49528000068081</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-8.888322728162333</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-10.36860365234296</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-5.858225581099968</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-4.887832954973997</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.93041359420713</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-27.24201614832415</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-10.81944307902313</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-14.91181172673861</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.618013881148935</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-4.770396946921262</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-4.231845887642814</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-3.996215199109074</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-9.455618452161394</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-8.80420365514245</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-32.12108109555891</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-6.089785751407391</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-11.63189743160975</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-6.242951240635473</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-3.30513560502297</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-1.301779167380203</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-24.00843545950683</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-16.95665132360653</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-11.69071133720563</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8.065671054028428</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-4.395959636629738</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-4.413238988150251</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-4.227898151368103</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-8.788377640916414</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-8.468441127936583</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-26.22507390456291</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-6.285203304512011</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-11.88206242844306</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-5.929300280138687</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-2.99753913533404</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-2.845742592809745</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-32.62484412089525</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-28.31630070790546</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-13.31804331032191</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.59078132373496</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-5.93049200287875</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-6.696117022236125</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-4.528199489602872</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-15.49526410809269</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-9.1705957176905</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-35.84668538153284</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-9.028204448800844</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-17.04987932861533</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-6.418185888798337</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-5.552725207716243</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-1.687232151158034</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-51.87915342707077</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-53.56127085985605</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-17.34517134917053</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8.948286316825451</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-4.088849720973688</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-4.962554579974641</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-6.569917679826871</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-13.53555498340739</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-16.06583195268133</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-48.70841569192065</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-7.17625972097018</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-27.92038423186972</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-10.7809484096343</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-6.2959189701211</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-1.195936984433872</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-28.74966208191832</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-20.5425786262446</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-13.97060060566201</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.214340037029592</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-4.480831269382841</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-6.345844969247125</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-4.459931742812932</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-11.16154248230775</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-9.630590530636686</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-33.92104754052131</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-7.069878049011625</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-8.223910112677723</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-7.931354241889168</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-3.69389090407705</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-1.376509125102164</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-17.51137800062039</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-11.4121241145618</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-11.42839073185923</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4.387845890467626</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-4.121045590027165</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-2.926584140607215</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-3.151342407095603</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-10.17759328614678</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-6.323178448224033</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-21.16088340540103</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-6.686755333458859</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-15.48188388926372</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-5.279377610643363</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-2.404589302010176</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.4231370862713117</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-27.98996294807538</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-21.27073054677158</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-17.67165401936603</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4.651070618807045</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-2.751365139514498</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-4.382550516052241</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-4.734748288843478</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-10.6341093099967</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-9.929242066151369</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-53.51555837537956</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-4.330810633842318</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-14.80171160661484</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-8.579336207752698</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-7.511793547327296</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-1.203605803645297</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-33.63138765802768</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-22.86805944611521</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-12.96224678646728</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6.12158947084788</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-5.051296599171957</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-4.541475521513527</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-4.055402102244923</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-9.172380153472952</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-9.006102761397463</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-32.98786546086506</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-6.90105994057624</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-5.919137083173551</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-7.853451758690471</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-3.865633736420902</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.775709567182048</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-25.75807481254614</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-13.83813016556993</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-18.214776105701</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5.008071193529926</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-4.037199506729546</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-5.207030679270807</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-3.057259783381062</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-9.523527004491349</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-9.390836271714893</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-36.87821324361217</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-8.62219500785187</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-14.37138986324607</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-4.676405150657959</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-4.558093264239027</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.814140585643448</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-20.87304680122693</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-17.54375004659073</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-14.52761665947635</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10.91190300199771</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-4.144070124331317</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-3.926199858244777</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-5.026782847624795</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-7.792821041814166</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-8.06184657320118</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-25.8227169524406</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-8.544298200200211</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-16.40198227644913</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-6.499151558010005</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-2.962056305026635</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.5700892859170869</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-19.9728260153583</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-13.64675712629035</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-12.27232890944928</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.3229632753288647</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-3.77325919992091</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-3.868633035917744</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-4.407359092614716</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-8.686887652572048</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-7.450340325522985</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-20.25228448917781</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-7.061201366043139</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-8.735991048548064</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-5.498391648209337</v>
+      </c>
+      <c r="P21" t="n">
+        <v>-3.758458767264146</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-2.159694118211778</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-30.34758095790541</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-23.47298101380634</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-13.65856931151379</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5.428238077606186</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-5.363608673340367</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-7.214328343801474</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-4.523308825788059</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-11.18555007526821</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-9.053146874181857</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-36.09418349382086</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-9.466341139255995</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-15.04667237323365</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-6.25231972633488</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-3.176088443961364</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-2.081048608273096</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-28.14067802751483</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-23.30712943086878</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-15.51104764362435</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.897947939643641</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-4.304097057506689</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-4.81987052389383</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-3.515319228096776</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-10.48778934309939</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-8.095361300281462</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-28.0717344594124</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-7.085743309579537</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-12.50939589030591</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-7.272337642097904</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-4.28787713056589</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.6681412391771639</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-23.99717983908233</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-15.1841199690958</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-16.03316811719115</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6.393489573628824</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-4.209706802028735</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-3.950301253483004</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-3.508508473478629</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-12.22643028467437</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-7.938744046044821</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-36.91837898695956</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-8.398812836789817</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-22.1766550372709</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-5.405304061613325</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-4.460429475982917</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.9285947029518538</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-19.4312297194111</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-13.71930378343719</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-11.76231369551195</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.825304872160627</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-3.254241444838666</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-4.131561750568822</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-3.881133173901353</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-9.715462997446274</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-7.840890698668987</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-23.41639845409351</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-7.499347729625955</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-13.6285859604197</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-5.816222979476738</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-2.96602940268797</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.6590421130497102</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-26.24871189135448</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-22.50836645323112</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-17.70019846562979</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-2.904069714188598</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-3.748120801031621</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-3.377626006383013</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-3.265651944959225</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-9.266995631792595</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-8.653289819751913</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-38.58791791233975</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-5.842946484109067</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-19.48456175349523</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-7.994545103375726</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-6.959260159093517</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.33268826780644</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-21.08080693459472</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-7.955494517211978</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-12.44723811802016</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.7990757108399004</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-4.809930788207473</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-4.021895993895161</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-3.814918808973494</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-8.531824765381257</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-7.942971701005693</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-20.54788923265702</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-6.444620133490349</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-15.57643143875074</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-5.105031495278597</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-3.683291502639505</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-1.369822297959551</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-19.87243753787758</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-13.37445310633065</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-13.73696746061175</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6.254261775074788</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-4.241627956159378</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-3.639052270800525</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-3.988559666859655</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-8.240272967207563</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-7.937826815202286</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-22.67368356738977</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-7.131202850342311</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-17.38138487410392</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-6.245426649875307</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-4.030837790650743</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-1.618956322902255</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-22.73550786765583</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-22.39385350883605</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-12.62003829164991</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8.076093411819375</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-3.804538082844628</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-3.798800049734067</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-3.452135478058371</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-8.811814365997142</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-7.522193558820528</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-28.17591868593442</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-7.643315137536471</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-10.44009819707887</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-6.142584569022034</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-3.509276943825596</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-1.215051135388143</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-26.83769436736103</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-26.34528634516861</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-12.60815921425783</v>
+      </c>
+      <c r="F30" t="n">
+        <v>11.9413216998363</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-4.11923161754484</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-5.994139959458042</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-4.228084826177334</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-9.626409382184736</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-9.844456203822311</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-47.86346957510487</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-5.43488014927226</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-13.79262545153436</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-7.569568629254687</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-7.005145048809427</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.807223535755154</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-21.93766325798867</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-15.57818625505089</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-12.82029880670235</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5.271006608714464</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-4.522903802217721</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-4.056221267710717</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-3.535157979397185</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-8.2786146396073</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-7.366739455887505</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-26.8405033345321</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-6.005032139136856</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-13.10035488499958</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-5.78151478594844</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-4.789022258072937</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-1.409109224589032</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-26.84116945440225</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-22.00888153143537</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-13.93364507229379</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-1.054229001501387</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-4.668516595169685</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-4.242150113299109</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-2.661530636020494</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-6.639416317200429</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-8.221709311725485</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-24.07145275548285</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-5.134139287876424</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-8.942472555457616</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-6.614570664794498</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-2.929824249930662</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-1.656576714365143</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-26.48736486555033</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-15.37747139517418</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-17.15053239882448</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.7890620176354389</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-4.994650792899163</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-4.985793427514888</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-4.610340477450612</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-7.457915312699416</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-8.947791991567277</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-36.87127682508186</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-5.915172607914974</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-12.08185719964122</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-6.706557264573059</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-3.150616217926336</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-1.015295499074165</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-26.57799540305036</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-20.77760300214763</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-13.9590313619345</v>
+      </c>
+      <c r="F34" t="n">
+        <v>7.810031725586997</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-4.222264574363124</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-4.942253644978433</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-3.25966240497876</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-12.38476749730875</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-10.16228681006141</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-49.35173618980993</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-5.410818577497719</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-21.45414319925996</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-11.80208912548187</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-3.993620349482298</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.5787130676131894</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-19.01742985623653</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-12.52544762837037</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-14.24911672299813</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3.735370064492285</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-3.886756138712848</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-3.621211642765181</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-4.169442435003592</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-10.60507865405792</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-6.447032601172832</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-33.34826903218647</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-6.507561232643031</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-18.27869988193032</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-3.859542109249535</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-6.34560600432644</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.09308411806305153</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-25.55332356082848</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-17.96402373411734</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-16.10552559043555</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3.894304093519026</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-3.763671070749166</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-4.061106429736599</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-4.935657983158632</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-9.920110849943159</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-9.044221656222755</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-37.38469793675297</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-7.978271916098787</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-18.35586221540795</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-6.498915884869181</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-6.24885802408307</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>f__Dysgonomonadaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>f__Marinilabiliaceae</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>f__PUMT01</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>f__Prolixibacteraceae</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+      <c r="L1" s="6" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+      <c r="M1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA7960</t>
+        </is>
+      </c>
+      <c r="N1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="O1" s="6" t="inlineStr">
+        <is>
+          <t>f__VadinHA17</t>
+        </is>
+      </c>
+      <c r="P1" s="6" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+      <c r="Q1" s="6" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3814723166544641</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8631322187774552</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7058907173781606</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9809252213842596</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1233129025241007</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.3488399467217942</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7472810255668565</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2884314568643441</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.112145216408976</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2149553570414566</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3385183623355676</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.165929380411418</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.03570264852407312</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1704789434751449</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8995378554199502</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.8945310088177194</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.2106434661934053</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4534579409684742</v>
       </c>
       <c r="C36" t="n">
         <v>-0</v>

--- a/outputs/fft-o__Bacteroidales.xlsx
+++ b/outputs/fft-o__Bacteroidales.xlsx
@@ -15,6 +15,8 @@
     <sheet name="g__C941_wrapper-LSVM1" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="g__C941_wrapper-LSVM-c1" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="g__C941-LSVM-cl" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="g__C941-LSVM-l" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="g__C941-LSVM-cl1" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2610,6 +2612,4198 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>f__Dysgonomonadaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>f__Marinilabiliaceae</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>f__PUMT01</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>f__Prolixibacteraceae</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+      <c r="L1" s="6" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+      <c r="M1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA7960</t>
+        </is>
+      </c>
+      <c r="N1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="O1" s="6" t="inlineStr">
+        <is>
+          <t>f__VadinHA17</t>
+        </is>
+      </c>
+      <c r="P1" s="6" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+      <c r="Q1" s="6" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0001113398690873743</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.835074536570903e-19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.422328396021137e-12</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.211075031860554e-12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9433736488705287</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.005694029471343736</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.005912818628095793</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.02255423570512169</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.631599973629398e-05</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.235156607179019e-05</v>
+      </c>
+      <c r="L2" t="n">
+        <v>9.760345303664509e-16</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0006025685055355231</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.444390347277331e-07</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0005597923304388509</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.02111265460037105</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7558756752319675</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.096972862182115e-11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.407414903116829e-06</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.030235416926458e-07</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1258964570597581</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0162574575396752</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.03231358357564323</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.02673610867772967</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0001228643249823042</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0003556039497069691</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.980543554201148e-14</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0286442612139602</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.750627424233266e-08</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00127705128317663</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.01251930914767154</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1609468361595679</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.888793016322596e-18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.288655998655339e-13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.459950695250956e-08</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8148664406988522</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.001677256808152945</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.003446950395430241</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.004866429728297856</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.935979022746066e-06</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.703845927141116e-05</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.384588818642572e-17</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0001537660643777296</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.045441674730478e-11</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.000283575304734196</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.01373575574170239</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.110107823253959</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.322395148020728e-09</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.241063537732791e-05</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.744446332551e-08</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8098424426043714</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.01254815658294274</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0185983316174666</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.01073730993829718</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0002122593189564302</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0007497411731560028</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.445173237309483e-12</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.001676049045432587</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.396196661966063e-10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.005786155244696016</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.02968924057342137</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.01078211355941757</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.381188007752025e-10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.076584425880077e-05</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.000564413826057e-09</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8671639124775063</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0132609116708722</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0240716743466665</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.02795329561735469</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.003237382465961e-05</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.002463557571586195</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.910868130882935e-13</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8.388553570818482e-05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9.175560822878915e-06</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.03520559419422539</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.01890507910828226</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0006526232437524466</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.510007141554605e-17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.610734384450046e-13</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.296905524871055e-11</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9365919247924989</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01701550957234354</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.008322946876360588</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.01618878347281259</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.391763916884504e-06</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8.684215433611571e-05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.042461981287025e-18</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0008540237564729268</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.104057026845728e-10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0005648125394929919</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.01972014170447732</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.001915718432214544</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.638991872965761e-17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.755318631464175e-11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.569938720254977e-10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9526584626622645</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.003837983519050606</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.005254909719774187</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.006734415598603428</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.593440074608244e-05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0001418305676190631</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.568006285431912e-18</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0003086222993592863</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.101433805673256e-10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>8.910251673267015e-05</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.02904301879894514</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8218469801276523</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.831616325749727e-07</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.001138785027547432</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.705724530282077e-05</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01053850211206161</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02589691657828096</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.06928180183642277</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.02477517156539819</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0005889200650807862</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.017161668015256</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.211172469276642e-13</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.001657889638028144</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.260360765958442e-05</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.02453298278957319</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.002520538229982465</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1863444290284685</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.998742010950429e-13</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.886550239458635e-11</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.565870133013644e-08</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7294661607124255</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03420364282993232</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.006639838551499954</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.03148129478778414</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.763917201065128e-05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0005369087499877766</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.349948487304549e-18</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0001314677607203052</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.876526674788594e-06</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.003245603287233153</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.007910122915096117</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.001185827498489966</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.659178707648331e-16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.558012070048067e-08</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.487909725578906e-10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9245857267431098</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.008435654766588991</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.01345518536556373</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.01724342446390432</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8.932744311892032e-05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0001277521800771575</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.406842411047993e-15</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.002184925772004375</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.427842563572914e-07</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.001652023746044187</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.03103938320792515</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.039262543679704e-05</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8.229561866973648e-16</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.792098149065671e-12</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.670513074918411e-10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9017872772075606</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.01242029219966606</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.01097291160469959</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.01438365700122497</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0002025008274429611</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0001588740105494994</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.96264926416179e-12</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.001872852600774731</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9.203415994734121e-07</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.00243171675718779</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.0557286044530506</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.007362154865928902</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.24292800427513e-17</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.428479720300274e-15</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8.043003466524685e-09</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9703408147399603</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.003965770352481579</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.001200064655268049</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.01204737639384686</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.974752776857903e-07</v>
+      </c>
+      <c r="K13" t="n">
+        <v>7.927849650449401e-05</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6.16904700835756e-17</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0001307790176372554</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.724913726067326e-09</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.001394085340137487</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.003479468895037709</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8.577199167352433e-06</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.447276748084123e-28</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7.386391842454418e-30</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.201279683197286e-13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9707762362473515</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01942858971085248</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.006855600715645239</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.001304393805456975</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9.339552625854563e-07</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9.516620456947284e-08</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7.287242761272818e-23</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0006943781652663309</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5.135248000682073e-16</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.551442163280019e-05</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0009156806129395298</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.002990389384617044</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.455382522348315e-16</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.970683996719828e-12</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.435159642580761e-09</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9486071154033247</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.01168836300158625</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.001668163696009226</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.01264930442035936</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.796897758980615e-05</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5.676881789947248e-05</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.061926589324808e-16</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0009163837781524757</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.224210785773358e-05</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.0003100611242292217</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.02105323685124369</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.001527862927861546</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.076085370379192e-11</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.581500092172568e-08</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.669996620356214e-08</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.812648774517573</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01302868403253006</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.04419534386292227</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.04058710889559671</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.857323155706162e-05</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.001484347882412123</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.798133033483319e-10</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.001241453190348743</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9.370072988896954e-09</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.004423385864693611</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.08081442330889063</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.001724458238294628</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.082813471660526e-15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7.535953744346838e-13</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.23465429953328e-11</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9095622652356493</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05292164936454315</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.01195912048988004</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.009402733394940911</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.417125144926874e-05</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.723207783672365e-05</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6.624216203132449e-25</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.01363909938265089</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.206744230521564e-08</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0002027393924161002</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0005165190817954812</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.000203874287269573</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.012225119055236e-19</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.221268758323425e-14</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.820259492035438e-10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9445556205189971</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.007090738512268209</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0100656973546487</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.01704516148078722</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.000124084611296722</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0001088660714871411</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.42037273667659e-15</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.001045978785047561</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.001189135787810083</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.0003421208740381634</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.01822872113430999</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0007696632195638588</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.86763646142233e-15</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6.073912527176015e-10</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.036845114961564e-11</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.916365718462302</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01708627277249232</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.005075839150059018</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.04229031943966972</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7.368273162244496e-05</v>
+      </c>
+      <c r="K19" t="n">
+        <v>8.784619073122029e-05</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.703488903844723e-17</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0001814129901399405</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.636922845246622e-08</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.00864634017655307</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.009422887879873734</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9.44027483794558e-07</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.999176051316226e-16</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.34375403174915e-14</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5.493943653782606e-13</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9051734856518414</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01569849719515201</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.01802220089301175</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.006341446220641387</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0004602260156718168</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0002222797477269186</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.721087768960133e-12</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0001802010596711586</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.755916538803475e-09</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.001362119255501842</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.05253859617308697</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2668097685409281</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.765850705876616e-10</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.873252900616276e-07</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.301402779012442e-06</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.6494812249554338</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02403565320682614</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.01953440084794734</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.01260204337429484</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0002228666867147772</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0005606358532564663</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.066217818109685e-09</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0009332129513052573</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.026011362604536e-05</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.003957015343826382</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.02183132795496899</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0007421120946259075</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.132409120746315e-17</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.063556630712691e-14</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.181635512101512e-09</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9375967357261951</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.006276627755580832</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0006835153764525191</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.01118444299148721</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.557230345937327e-05</v>
+      </c>
+      <c r="K22" t="n">
+        <v>9.062834739022387e-05</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6.420934588746054e-17</v>
+      </c>
+      <c r="M22" t="n">
+        <v>7.505332193385978e-05</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.000483197190939e-08</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.001500576391853</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.04183471450453376</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.01831467359772979</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.722030907818879e-15</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8.910334597446554e-13</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.803685211651841e-09</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9174587075903037</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01360219492838808</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.007582553401337366</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.02938192561410492</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.930106817010378e-05</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0002441920717368749</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.421290528516524e-13</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.001057490397931898</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.719369905920562e-07</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.0006053481642335466</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.01172333842425005</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0002040308406740125</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.104870315783774e-15</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.789418442356443e-11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.349093125368524e-11</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9220548104770216</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01492022359204707</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.01798645787663686</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.02995844156745977</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.904497527027299e-06</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0003849669996163237</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.550931774896923e-17</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.000220356629844963</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.947883455618477e-12</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.004025182870361492</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.0102406245954717</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01816735813674019</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.612320550684847e-11</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.72499028557716e-08</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.26886056631774e-07</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8533447239566213</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.03538814975510603</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.01443202494004227</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.02065387984750753</v>
+      </c>
+      <c r="J25" t="n">
+        <v>7.665019137705713e-05</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0003258757295255195</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.473063047589648e-11</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0005941906265290817</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.586660923786463e-08</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.0026762349372299</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.05434070181589848</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8832542542751287</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.109884995740534e-12</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.683607179918132e-11</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.526367491849458e-08</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.02292663179628377</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02112108511934781</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.03157435423918811</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.03669771122088034</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8.20682998242908e-05</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0001643638184346038</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5.512918500034209e-18</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.003002531512038661</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.065709614848259e-11</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.0003526462409279341</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.0008243381026679025</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1150252506278003</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.173600594016909e-11</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.856288576215937e-05</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.568301284014133e-07</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8040787396028689</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.008886801063837222</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.01649622085742734</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.02190919919157803</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.0002164145193259147</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0003062479933618714</v>
+      </c>
+      <c r="L27" t="n">
+        <v>7.774058539327874e-10</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.001568308788740227</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.177083893076899e-08</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.005112671247704738</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.02636111378148436</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0002248518256620093</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.414760478147475e-13</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.367105323806959e-10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.660286273991003e-10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.917641445138335</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0155336137695431</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.02436421551777221</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.01893069412925434</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.0003440603074374835</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0002818909134511158</v>
+      </c>
+      <c r="L28" t="n">
+        <v>8.244170271909834e-11</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0008650248692008554</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.410257366145682e-09</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.001844282171878967</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.01996991926168526</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2.9050903573029e-05</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.775090399236132e-15</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4.144812577964762e-15</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.136211048786473e-10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.8893298672780023</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02143114003963342</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.02023414716287234</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.02926735239245666</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.0001745734990132381</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0004063110921395818</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.527316922505045e-13</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0004589477657373993</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5.365653628746462e-06</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.001933891713704661</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.0367293523853589</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.941932924659445e-07</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.886640715539182e-19</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.040888345069048e-19</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.726494449509439e-13</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9601627773011763</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01702455701237487</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.002411588812020047</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.01498044645221188</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7.818699118369861e-05</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.18989246384846e-05</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.496574594764345e-22</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.004051522905469229</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.053891633074611e-07</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.0004950547535286662</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.0007436672644682888</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0009637578868143537</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.001144591680593e-13</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.761602661857276e-10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.277533786993002e-09</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9270849441932164</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01148192218569459</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.01611301846965683</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.02791139362487315</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0002861696359098821</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0005384903553533462</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.224134759517682e-12</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.002601666706562777</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.53677627207732e-07</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.003049394690013832</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.009969085119159362</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.6482016029716821</v>
+      </c>
+      <c r="C32" t="n">
+        <v>9.595624816573182e-13</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.068273447993909e-10</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.462760718280662e-07</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.212708629513955</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.009215097306520637</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.01239658083273816</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0600980274226481</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.001162761963523912</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0002084554003656392</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.680556426953993e-11</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.00597583796935428</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.408809640580448e-05</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.001324686342969363</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.04869378577917285</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1568144202131853</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.747544069322107e-13</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.652261310289149e-08</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5.683677666971962e-09</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.7776172854782172</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.007537237461262124</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.006368231386415435</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.01119942265292455</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.000621662342141664</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0001108063874586886</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2.743921985902063e-17</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.002503082760182703</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4.717278129648808e-07</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.0009285703460953415</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.03629877703783856</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5.265789792657525e-05</v>
+      </c>
+      <c r="C34" t="n">
+        <v>7.6759138734152e-17</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.133574690525898e-14</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5.029428903218424e-11</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9179923977864596</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01480777580669657</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.006604265860565102</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.03868044829840529</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.788781494844346e-06</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.637276191539433e-05</v>
+      </c>
+      <c r="L34" t="n">
+        <v>7.695818543342728e-23</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.006339566162303615</v>
+      </c>
+      <c r="N34" t="n">
+        <v>7.257461931234566e-12</v>
+      </c>
+      <c r="O34" t="n">
+        <v>8.152121102139082e-06</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.01547357446555771</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.005822837320415951</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.374698023015593e-11</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.206369734660282e-08</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6.349725185139956e-09</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9115330306950675</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01829188501622099</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.02485933925666742</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.01510111851348205</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.440723469557366e-05</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.001833742921136571</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.001067802073655e-15</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.001557845859512629</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.659850015006122e-10</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.01920829412293196</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.00176748033671282</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.00439849864665865</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5.145955064273795e-14</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.754571198407905e-11</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5.202049559709325e-10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9450139472528609</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0224941414044033</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.01664010450244359</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.007488961289232725</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.787184464139725e-05</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0001254276686002997</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2.155666519057487e-17</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.000359468580272377</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4.174386826901766e-10</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.001473329534131671</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.001958248301514367</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>f__Dysgonomonadaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>f__Marinilabiliaceae</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>f__PUMT01</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>f__Prolixibacteraceae</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+      <c r="L1" s="6" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+      <c r="M1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA7960</t>
+        </is>
+      </c>
+      <c r="N1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="O1" s="6" t="inlineStr">
+        <is>
+          <t>f__VadinHA17</t>
+        </is>
+      </c>
+      <c r="P1" s="6" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+      <c r="Q1" s="6" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0001113398690873743</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.835074536570903e-19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.422328396021137e-12</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.211075031860554e-12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9433736488705287</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.005694029471343736</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.005912818628095793</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.02255423570512169</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.631599973629398e-05</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.235156607179019e-05</v>
+      </c>
+      <c r="L2" t="n">
+        <v>9.760345303664509e-16</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0006025685055355231</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.444390347277331e-07</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0005597923304388509</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.02111265460037105</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7558756752319675</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.096972862182115e-11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.407414903116829e-06</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.030235416926458e-07</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1258964570597581</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0162574575396752</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.03231358357564323</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.02673610867772967</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0001228643249823042</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0003556039497069691</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.980543554201148e-14</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0286442612139602</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.750627424233266e-08</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00127705128317663</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.01251930914767154</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1609468361595679</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.888793016322596e-18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.288655998655339e-13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.459950695250956e-08</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8148664406988522</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.001677256808152945</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.003446950395430241</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.004866429728297856</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.935979022746066e-06</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.703845927141116e-05</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.384588818642572e-17</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0001537660643777296</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.045441674730478e-11</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.000283575304734196</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.01373575574170239</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.110107823253959</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.322395148020728e-09</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.241063537732791e-05</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.744446332551e-08</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8098424426043714</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.01254815658294274</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0185983316174666</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.01073730993829718</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0002122593189564302</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0007497411731560028</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.445173237309483e-12</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.001676049045432587</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.396196661966063e-10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.005786155244696016</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.02968924057342137</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.01078211355941757</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.381188007752025e-10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.076584425880077e-05</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.000564413826057e-09</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8671639124775063</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0132609116708722</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0240716743466665</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.02795329561735469</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.003237382465961e-05</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.002463557571586195</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.910868130882935e-13</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8.388553570818482e-05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9.175560822878915e-06</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.03520559419422539</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.01890507910828226</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0006526232437524466</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.510007141554605e-17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.610734384450046e-13</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.296905524871055e-11</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9365919247924989</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01701550957234354</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.008322946876360588</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.01618878347281259</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.391763916884504e-06</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8.684215433611571e-05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.042461981287025e-18</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0008540237564729268</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.104057026845728e-10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0005648125394929919</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.01972014170447732</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.001915718432214544</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.638991872965761e-17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.755318631464175e-11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.569938720254977e-10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9526584626622645</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.003837983519050606</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.005254909719774187</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.006734415598603428</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.593440074608244e-05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0001418305676190631</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.568006285431912e-18</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0003086222993592863</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.101433805673256e-10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>8.910251673267015e-05</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.02904301879894514</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8218469801276523</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.831616325749727e-07</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.001138785027547432</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.705724530282077e-05</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01053850211206161</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02589691657828096</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.06928180183642277</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.02477517156539819</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0005889200650807862</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.017161668015256</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.211172469276642e-13</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.001657889638028144</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.260360765958442e-05</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.02453298278957319</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.002520538229982465</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1863444290284685</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.998742010950429e-13</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.886550239458635e-11</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.565870133013644e-08</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7294661607124255</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03420364282993232</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.006639838551499954</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.03148129478778414</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.763917201065128e-05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0005369087499877766</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.349948487304549e-18</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0001314677607203052</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.876526674788594e-06</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.003245603287233153</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.007910122915096117</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.001185827498489966</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.659178707648331e-16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.558012070048067e-08</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.487909725578906e-10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9245857267431098</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.008435654766588991</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.01345518536556373</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.01724342446390432</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8.932744311892032e-05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0001277521800771575</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.406842411047993e-15</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.002184925772004375</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.427842563572914e-07</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.001652023746044187</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.03103938320792515</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.039262543679704e-05</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8.229561866973648e-16</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.792098149065671e-12</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.670513074918411e-10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9017872772075606</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.01242029219966606</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.01097291160469959</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.01438365700122497</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0002025008274429611</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0001588740105494994</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.96264926416179e-12</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.001872852600774731</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9.203415994734121e-07</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.00243171675718779</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.0557286044530506</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.007362154865928902</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.24292800427513e-17</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.428479720300274e-15</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8.043003466524685e-09</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9703408147399603</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.003965770352481579</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.001200064655268049</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.01204737639384686</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.974752776857903e-07</v>
+      </c>
+      <c r="K13" t="n">
+        <v>7.927849650449401e-05</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6.16904700835756e-17</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0001307790176372554</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.724913726067326e-09</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.001394085340137487</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.003479468895037709</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8.577199167352433e-06</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.447276748084123e-28</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7.386391842454418e-30</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.201279683197286e-13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9707762362473515</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01942858971085248</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.006855600715645239</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.001304393805456975</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9.339552625854563e-07</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9.516620456947284e-08</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7.287242761272818e-23</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0006943781652663309</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5.135248000682073e-16</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.551442163280019e-05</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0009156806129395298</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.002990389384617044</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.455382522348315e-16</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.970683996719828e-12</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.435159642580761e-09</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9486071154033247</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.01168836300158625</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.001668163696009226</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.01264930442035936</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.796897758980615e-05</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5.676881789947248e-05</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.061926589324808e-16</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0009163837781524757</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.224210785773358e-05</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.0003100611242292217</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.02105323685124369</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.001527862927861546</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.076085370379192e-11</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.581500092172568e-08</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.669996620356214e-08</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.812648774517573</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01302868403253006</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.04419534386292227</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.04058710889559671</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.857323155706162e-05</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.001484347882412123</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.798133033483319e-10</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.001241453190348743</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9.370072988896954e-09</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.004423385864693611</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.08081442330889063</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.001724458238294628</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.082813471660526e-15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7.535953744346838e-13</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.23465429953328e-11</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9095622652356493</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05292164936454315</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.01195912048988004</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.009402733394940911</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.417125144926874e-05</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.723207783672365e-05</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6.624216203132449e-25</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.01363909938265089</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.206744230521564e-08</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0002027393924161002</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0005165190817954812</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.000203874287269573</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.012225119055236e-19</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.221268758323425e-14</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.820259492035438e-10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9445556205189971</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.007090738512268209</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0100656973546487</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.01704516148078722</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.000124084611296722</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0001088660714871411</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.42037273667659e-15</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.001045978785047561</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.001189135787810083</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.0003421208740381634</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.01822872113430999</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0007696632195638588</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.86763646142233e-15</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6.073912527176015e-10</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.036845114961564e-11</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.916365718462302</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01708627277249232</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.005075839150059018</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.04229031943966972</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7.368273162244496e-05</v>
+      </c>
+      <c r="K19" t="n">
+        <v>8.784619073122029e-05</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.703488903844723e-17</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0001814129901399405</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.636922845246622e-08</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.00864634017655307</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.009422887879873734</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9.44027483794558e-07</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.999176051316226e-16</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.34375403174915e-14</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5.493943653782606e-13</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9051734856518414</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01569849719515201</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.01802220089301175</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.006341446220641387</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0004602260156718168</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0002222797477269186</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.721087768960133e-12</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0001802010596711586</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.755916538803475e-09</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.001362119255501842</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.05253859617308697</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2668097685409281</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.765850705876616e-10</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.873252900616276e-07</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.301402779012442e-06</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.6494812249554338</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02403565320682614</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.01953440084794734</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.01260204337429484</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0002228666867147772</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0005606358532564663</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.066217818109685e-09</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0009332129513052573</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.026011362604536e-05</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.003957015343826382</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.02183132795496899</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0007421120946259075</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.132409120746315e-17</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.063556630712691e-14</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.181635512101512e-09</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9375967357261951</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.006276627755580832</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0006835153764525191</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.01118444299148721</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.557230345937327e-05</v>
+      </c>
+      <c r="K22" t="n">
+        <v>9.062834739022387e-05</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6.420934588746054e-17</v>
+      </c>
+      <c r="M22" t="n">
+        <v>7.505332193385978e-05</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.000483197190939e-08</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.001500576391853</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.04183471450453376</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.01831467359772979</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.722030907818879e-15</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8.910334597446554e-13</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.803685211651841e-09</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9174587075903037</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01360219492838808</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.007582553401337366</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.02938192561410492</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.930106817010378e-05</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0002441920717368749</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.421290528516524e-13</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.001057490397931898</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.719369905920562e-07</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.0006053481642335466</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.01172333842425005</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0002040308406740125</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.104870315783774e-15</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.789418442356443e-11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.349093125368524e-11</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9220548104770216</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01492022359204707</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.01798645787663686</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.02995844156745977</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.904497527027299e-06</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0003849669996163237</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.550931774896923e-17</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.000220356629844963</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.947883455618477e-12</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.004025182870361492</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.0102406245954717</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01816735813674019</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.612320550684847e-11</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.72499028557716e-08</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.26886056631774e-07</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8533447239566213</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.03538814975510603</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.01443202494004227</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.02065387984750753</v>
+      </c>
+      <c r="J25" t="n">
+        <v>7.665019137705713e-05</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0003258757295255195</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.473063047589648e-11</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0005941906265290817</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.586660923786463e-08</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.0026762349372299</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.05434070181589848</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8832542542751287</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.109884995740534e-12</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.683607179918132e-11</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.526367491849458e-08</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.02292663179628377</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02112108511934781</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.03157435423918811</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.03669771122088034</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8.20682998242908e-05</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0001643638184346038</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5.512918500034209e-18</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.003002531512038661</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.065709614848259e-11</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.0003526462409279341</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.0008243381026679025</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1150252506278003</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.173600594016909e-11</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.856288576215937e-05</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.568301284014133e-07</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8040787396028689</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.008886801063837222</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.01649622085742734</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.02190919919157803</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.0002164145193259147</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0003062479933618714</v>
+      </c>
+      <c r="L27" t="n">
+        <v>7.774058539327874e-10</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.001568308788740227</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.177083893076899e-08</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.005112671247704738</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.02636111378148436</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0002248518256620093</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.414760478147475e-13</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.367105323806959e-10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.660286273991003e-10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.917641445138335</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0155336137695431</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.02436421551777221</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.01893069412925434</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.0003440603074374835</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0002818909134511158</v>
+      </c>
+      <c r="L28" t="n">
+        <v>8.244170271909834e-11</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0008650248692008554</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.410257366145682e-09</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.001844282171878967</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.01996991926168526</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2.9050903573029e-05</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.775090399236132e-15</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4.144812577964762e-15</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.136211048786473e-10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.8893298672780023</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02143114003963342</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.02023414716287234</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.02926735239245666</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.0001745734990132381</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0004063110921395818</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.527316922505045e-13</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0004589477657373993</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5.365653628746462e-06</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.001933891713704661</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.0367293523853589</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.941932924659445e-07</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.886640715539182e-19</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.040888345069048e-19</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.726494449509439e-13</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9601627773011763</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01702455701237487</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.002411588812020047</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.01498044645221188</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7.818699118369861e-05</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.18989246384846e-05</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.496574594764345e-22</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.004051522905469229</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.053891633074611e-07</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.0004950547535286662</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.0007436672644682888</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0009637578868143537</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.001144591680593e-13</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.761602661857276e-10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.277533786993002e-09</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9270849441932164</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01148192218569459</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.01611301846965683</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.02791139362487315</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0002861696359098821</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0005384903553533462</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.224134759517682e-12</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.002601666706562777</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.53677627207732e-07</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.003049394690013832</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.009969085119159362</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.6482016029716821</v>
+      </c>
+      <c r="C32" t="n">
+        <v>9.595624816573182e-13</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.068273447993909e-10</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.462760718280662e-07</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.212708629513955</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.009215097306520637</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.01239658083273816</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0600980274226481</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.001162761963523912</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0002084554003656392</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.680556426953993e-11</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.00597583796935428</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.408809640580448e-05</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.001324686342969363</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.04869378577917285</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1568144202131853</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.747544069322107e-13</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.652261310289149e-08</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5.683677666971962e-09</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.7776172854782172</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.007537237461262124</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.006368231386415435</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.01119942265292455</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.000621662342141664</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0001108063874586886</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2.743921985902063e-17</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.002503082760182703</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4.717278129648808e-07</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.0009285703460953415</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.03629877703783856</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5.265789792657525e-05</v>
+      </c>
+      <c r="C34" t="n">
+        <v>7.6759138734152e-17</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.133574690525898e-14</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5.029428903218424e-11</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9179923977864596</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01480777580669657</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.006604265860565102</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.03868044829840529</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.788781494844346e-06</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.637276191539433e-05</v>
+      </c>
+      <c r="L34" t="n">
+        <v>7.695818543342728e-23</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.006339566162303615</v>
+      </c>
+      <c r="N34" t="n">
+        <v>7.257461931234566e-12</v>
+      </c>
+      <c r="O34" t="n">
+        <v>8.152121102139082e-06</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.01547357446555771</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.005822837320415951</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.374698023015593e-11</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.206369734660282e-08</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6.349725185139956e-09</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9115330306950675</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01829188501622099</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.02485933925666742</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.01510111851348205</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.440723469557366e-05</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.001833742921136571</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.001067802073655e-15</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.001557845859512629</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.659850015006122e-10</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.01920829412293196</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.00176748033671282</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.00439849864665865</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5.145955064273795e-14</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.754571198407905e-11</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5.202049559709325e-10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9450139472528609</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0224941414044033</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.01664010450244359</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.007488961289232725</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.787184464139725e-05</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0001254276686002997</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2.155666519057487e-17</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.000359468580272377</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4.174386826901766e-10</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.001473329534131671</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.001958248301514367</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/outputs/fft-o__Bacteroidales.xlsx
+++ b/outputs/fft-o__Bacteroidales.xlsx
@@ -17,6 +17,8 @@
     <sheet name="g__C941-LSVM-cl" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="g__C941-LSVM-l" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="g__C941-LSVM-cl1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="g__C941-LSVM-l1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="g__C941-LSVM-cl2" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -6804,6 +6806,4198 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>f__Dysgonomonadaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>f__Marinilabiliaceae</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>f__PUMT01</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>f__Prolixibacteraceae</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+      <c r="L1" s="6" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+      <c r="M1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA7960</t>
+        </is>
+      </c>
+      <c r="N1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="O1" s="6" t="inlineStr">
+        <is>
+          <t>f__VadinHA17</t>
+        </is>
+      </c>
+      <c r="P1" s="6" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+      <c r="Q1" s="6" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.329197517087466e-05</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.660980841097895e-18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.785474539894842e-11</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.316704238357487e-11</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.999942848989964</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.424481826561382e-06</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.470342887283625e-06</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.573848736026746e-06</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.939165491437178e-09</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.505326320123e-08</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.356246784597069e-19</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.454661755803324e-07</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.89737277627973e-11</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.350563026373195e-07</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5.090756513383973e-06</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7285145398558854</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.22455956231378e-11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.718772716595841e-06</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.479373166937935e-07</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1537477924994606</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.01701931754359899</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.03321546782172932</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.02652778238011596</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0001185014947185975</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0003429326668958089</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.837278756493021e-14</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0276133180192826</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.638603241476044e-08</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.001195331631409295</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.01170303292855371</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.055145736862697</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.634754783438938e-18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.444329525609078e-12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.353101037053222e-08</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.935760799458918</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0006353656456076896</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.00130350698120364</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.001833833974104293</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.225833669954982e-06</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6.388928906923041e-06</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.644065443052702e-17</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.7656825580262e-05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.266472896218443e-11</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0001063141085065862</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.005148137825685946</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2866514826638601</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.001125091651275e-09</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.029535909653699e-05</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.333612652148702e-07</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6972837837975069</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.002587348872333729</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.003783255103375844</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.00214146516007658</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.18607594707166e-05</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.00014782771815928</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.072797886854397e-12</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.000330212060449096</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.712738467500928e-11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.001137996593796395</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.005804334501284256</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.005223128931456485</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.181520475265057e-10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0001860414241056342</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.573970937794142e-09</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9913156947345684</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0003751037780810131</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0006707708927954563</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.000758450437787142</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.274272581738119e-07</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.486100120215678e-05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.077362920559326e-14</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.202801242141845e-06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.409252573575576e-07</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0009243941298968979</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.0004785786242053858</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.000349812082610084</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.357510771664317e-17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.438048709947525e-13</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.768193445580818e-11</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9995591529808222</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.52896413357793e-05</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.214957286274795e-05</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.342753838712734e-05</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.403983921966192e-09</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.235943784676545e-07</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.906588689258204e-21</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.21534491886005e-06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.569792904776649e-13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8.030732972717683e-07</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.802273922096275e-05</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0008100113744517553</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.182661509528452e-16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.681416517628275e-11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.797366763230502e-09</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9990012457547287</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.615414933403991e-05</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.202944791127336e-05</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.807783160799547e-05</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.597432448286956e-08</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.872214708637976e-07</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.304986218400028e-20</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.277602987940777e-06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.525006168713879e-12</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.68740219794463e-07</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.000120180066257117</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7009172785251881</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.321680827416702e-07</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.002065213929546648</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.711121010782357e-05</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01908452123559849</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.04630466684606357</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1201458180457718</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.03975912076700751</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0009205407077258497</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.02680883815337607</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.858583889465243e-13</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.002544086040521023</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.462687163720676e-05</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.03758164285236718</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.003766202646819829</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2652051783833126</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.15582773652171e-12</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.634973948071932e-11</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.017092797181816e-08</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7027616364636274</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.01340960654436348</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.00250943956962735</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.01181536101756209</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.367643646291677e-05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0001950818341917564</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.305954042108984e-18</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4.774190134709097e-05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.044458304155421e-06</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.001178465499352879</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.002862737683414871</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0003718595457711688</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.088258090796855e-15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.530272876512565e-08</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.702389733779137e-10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9994282657947505</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.336040898006509e-05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.692427250735665e-05</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.664824921194746e-05</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.373370033428755e-07</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.393975227249395e-07</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.170605007438401e-17</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5.803894968373255e-06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.968627132360039e-09</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4.378413037961442e-06</v>
+      </c>
+      <c r="P11" t="n">
+        <v>8.21244446497721e-05</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.436793599839513e-05</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.825121965893824e-15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.974449368874592e-12</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8.140328549763873e-10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9999661985052518</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.233745315510184e-06</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.075165052284483e-06</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.392647345303874e-06</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.930629596434521e-08</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.514368015713958e-08</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.870457541563611e-16</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.784878905933767e-07</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8.753661607038376e-11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.312880872516933e-07</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5.286869537177415e-06</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0008775313953878025</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.558713660899864e-17</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4.999311475948625e-15</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.655746975984899e-08</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9987793248810264</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.147538925070596e-05</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.852765022009029e-05</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0001857708583861867</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.008201330107534e-09</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.207673355839231e-06</v>
+      </c>
+      <c r="L13" t="n">
+        <v>9.396747441733084e-19</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.992037664408122e-06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.627058684657544e-11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.123204156977552e-05</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5.291848119229867e-05</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3.259911179057685e-06</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.981678473775714e-28</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.521743894847579e-29</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.535074756668217e-13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9999962122023359</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.536494794273206e-07</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.223408334634898e-07</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.311735978377982e-08</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.653056863221606e-11</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.684395460337947e-12</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.289806345747341e-27</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.229015408500648e-08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9.082820748011763e-21</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.74406826468913e-10</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.619558338277876e-08</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.001900691734322841</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.269038385600858e-16</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.145699506608816e-12</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.122810221685204e-09</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9977847416908648</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7.726965400120371e-05</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.089411731924237e-05</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8.246479636760553e-05</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.156296639577475e-07</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.652983956899752e-07</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.900527719443967e-18</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5.896442782113326e-06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.71550996431392e-07</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.993124330009367e-06</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.0001352908339996977</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0009475640601588576</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.10063288421584e-11</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.885510385076999e-08</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.102890716479874e-08</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9982573105327603</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6.006827355420501e-05</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.000200551739067555</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.000174837047946914</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.999268934011623e-07</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6.109234375495647e-06</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.560684143472733e-12</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5.101233398500635e-06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.845014873175639e-11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.815138930665704e-05</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.000330026587509992</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.002476744932289995</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.374205248540012e-15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.652353004542328e-12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.899761688563376e-11</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9971650388482033</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0002195814353830531</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.689706187945026e-05</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.642059802709111e-05</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9.273183476881951e-08</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.811991336679533e-07</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.541164339081795e-27</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5.23219531270662e-05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.566095710203465e-11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>7.671281414961493e-07</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.954015666702528e-06</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.000129562488506085</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.260035932829707e-19</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.585520250608338e-14</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.232193870267368e-09</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9998457325381216</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.239435644361571e-06</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.564302287111296e-06</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7.648269002560013e-06</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5.470810160281336e-08</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.799226286671041e-08</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6.260841607523859e-19</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4.61055561608129e-07</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.235982319293884e-07</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.504595533671121e-07</v>
+      </c>
+      <c r="P18" t="n">
+        <v>8.013920506959818e-06</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0007723577163653998</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.061402412167e-14</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.32443444753707e-09</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.260869410227191e-11</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9990803658361546</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.126630461338547e-05</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9.118440929949822e-06</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7.556148242668922e-05</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.259793107119122e-07</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.501840614200601e-07</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6.331011414038658e-20</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3.101204677671698e-07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.797757152429468e-11</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.477794737746535e-05</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.596461326102572e-05</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3.39821187899603e-07</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.104578605040637e-15</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5.178574491080933e-14</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.213898530697296e-12</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9999994485220249</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.617500807477315e-08</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.082168764967308e-08</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.408815309398557e-08</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.015578460888696e-09</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.902649093351786e-10</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8.205381205849549e-18</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3.973618683837932e-10</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8.280604739476438e-15</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3.003040935956666e-09</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.156644164118323e-07</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.3024248062202414</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7.54219530234644e-10</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5.75451237752935e-07</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.606429226471218e-06</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.6503822710049229</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01401709961481169</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.01110087007150226</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.007015655978615558</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0001224637971998309</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0003079951755058405</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5.854081117930668e-10</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0005123816370791019</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.659843431124156e-05</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.002170455139783834</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.01192621970593467</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0001820250448183424</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.414873828698156e-17</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.40055525008519e-14</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.519849602831083e-09</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9997156382264263</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.058588743099395e-05</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.145127456790379e-06</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.872430734617791e-05</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.576534730856774e-08</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.499478119232299e-07</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.062265728771292e-19</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.241666156520494e-07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.309297105611497e-11</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2.482326776570806e-06</v>
+      </c>
+      <c r="P22" t="n">
+        <v>6.909664698386982e-05</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.004941083777226572</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.021551121152184e-14</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.927637170436208e-12</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6.065415129829383e-09</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9924022588213526</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.000575928762598688</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0003164520285892434</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.001216515872944333</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.177029218755478e-06</v>
+      </c>
+      <c r="K23" t="n">
+        <v>9.808948384603489e-06</v>
+      </c>
+      <c r="L23" t="n">
+        <v>9.723671747892099e-15</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4.246780543239919e-05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.090903736153225e-08</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2.428416931347452e-05</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.000470005808538959</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0002266309097792403</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.323840476392248e-14</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6.048850914864843e-11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.094005238543825e-11</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9997371843821341</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7.157766649461731e-06</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8.491376510382e-06</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.387700073945961e-05</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.202716817766402e-09</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.72896215769962e-07</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.594170007260419e-20</v>
+      </c>
+      <c r="M24" t="n">
+        <v>9.892781739238647e-08</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8.742953716064739e-16</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.806678291388004e-06</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4.577747702960652e-06</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01642819778215805</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.98624778122604e-11</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.952891329556522e-08</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.907647196960443e-07</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9777307810894422</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.00169045794948871</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0006625027547893004</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0009332656931770862</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.387573021712965e-06</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.440098178154878e-05</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.534272665976576e-12</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2.624917613465627e-05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.907913237154991e-09</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.0001181518002242805</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.002392271936839622</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8040577488829329</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7.234508413331688e-12</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.176495508375763e-10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.686819332457802e-08</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.04035706787704351</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03623818322564203</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.05293932279294986</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.05950335731684987</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.000128164268172751</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0002566622214780365</v>
+      </c>
+      <c r="L26" t="n">
+        <v>8.607273659947074e-18</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.004687827399692386</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6.328676697620855e-11</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.0005489285410897838</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.001282710417784633</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.06859289266244165</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.396554805786109e-10</v>
+      </c>
+      <c r="D27" t="n">
+        <v>8.723464141721876e-05</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.033067305821771e-06</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9091608758016283</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.002515793625571557</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.004625249640103708</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.00603566621997469</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5.826748641143273e-05</v>
+      </c>
+      <c r="K27" t="n">
+        <v>8.243580816627393e-05</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.091957640396558e-10</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0004220235201305989</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.162340898877016e-09</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.00137356472955981</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.007044959286096706</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.00012444688579133</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7.441250237895032e-13</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7.337402846871953e-10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5.797134622478018e-10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9998331290094222</v>
+      </c>
+      <c r="G28" t="n">
+        <v>8.292302950534973e-06</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.278988850082147e-05</v>
+      </c>
+      <c r="I28" t="n">
+        <v>9.68478654591408e-06</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.726067476728694e-07</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.413680642812997e-07</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.133252191921897e-14</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4.336841450948746e-07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>7.064136871175285e-13</v>
+      </c>
+      <c r="O28" t="n">
+        <v>9.238215651406626e-07</v>
+      </c>
+      <c r="P28" t="n">
+        <v>9.984331321549656e-06</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.292584680341649e-05</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.991905961038276e-15</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9.321047560999189e-15</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.555164322716089e-10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9999793009082337</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.574300673959295e-06</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.451396576938528e-06</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.053723327326867e-06</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.187666966821639e-08</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.763733069522324e-08</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.718357167929858e-17</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3.120448313931131e-08</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.646439246713386e-10</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.314244223031673e-07</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.491061305285128e-06</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.197871564426272e-07</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6.012829107806008e-19</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6.334124595542833e-19</v>
+      </c>
+      <c r="E30" t="n">
+        <v>9.845216708411466e-13</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9999998636535516</v>
+      </c>
+      <c r="G30" t="n">
+        <v>7.172180646140508e-09</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9.98264662286209e-10</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6.185812108465089e-09</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.179913617021747e-11</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.110595661053541e-11</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.015239645246175e-28</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.647564100780881e-09</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4.268297272948747e-14</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2.004988525541624e-10</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.010385464491382e-10</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.000340843891603057</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.314936298051549e-13</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.798427808972196e-10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7.067128970309601e-09</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9995025240872328</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.571033255280334e-05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.563935428136804e-05</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6.069450991195628e-05</v>
+      </c>
+      <c r="J31" t="n">
+        <v>6.046286846266658e-07</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.137409323262457e-06</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.584225723479181e-15</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5.492282589589697e-06</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.235679943441782e-10</v>
+      </c>
+      <c r="O31" t="n">
+        <v>6.420494564547948e-06</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.092523828157103e-05</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.3366853442210921</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.038979796692609e-12</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.269980349833426e-10</v>
+      </c>
+      <c r="E32" t="n">
+        <v>9.482945732536661e-07</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.451985470231121</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.01474319449576261</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.01962319170929626</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.09379598869518442</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.001699040587573757</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0003042220561830611</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.452080551405431e-11</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.00871927644185198</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.04264718150485e-05</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.001920647487969903</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.07050224905401893</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.06959857147005422</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.069148919187515e-13</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6.175779159801354e-08</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.323441699117512e-08</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9053390819788266</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.002945276426596014</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.002468559957267057</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.004312154264757821</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0002365671546589667</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.213892028473435e-05</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.043374577012483e-17</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0009517956157468122</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.789078489829784e-07</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.0003521701228670214</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.01375343018847591</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>4.15975387312101e-05</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.67224165297291e-16</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4.648114252008363e-14</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.095689795105238e-10</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9999484642373664</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.850368798018221e-06</v>
+      </c>
+      <c r="H34" t="n">
+        <v>8.121642631730811e-07</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.723316079254148e-06</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5.616393831856172e-10</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4.265860861647865e-09</v>
+      </c>
+      <c r="L34" t="n">
+        <v>9.025454396027389e-27</v>
+      </c>
+      <c r="M34" t="n">
+        <v>7.434877130512095e-07</v>
+      </c>
+      <c r="N34" t="n">
+        <v>8.456554401791938e-16</v>
+      </c>
+      <c r="O34" t="n">
+        <v>9.499030961916457e-10</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.803000029500273e-06</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.007101772201327476</v>
+      </c>
+      <c r="C35" t="n">
+        <v>9.519817923122936e-11</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.62519151612962e-08</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.381766275442246e-08</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9917942828632027</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0002526596148309185</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0003366606927908043</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.0001992157866530102</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.169993279035176e-07</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.381591928106335e-05</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.594031196246103e-17</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2.019472180968021e-05</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.442539475103648e-12</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.0002486054114952692</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.243562106290616e-05</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.008403259454441148</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.07939714224549e-13</v>
+      </c>
+      <c r="D36" t="n">
+        <v>7.875454354444938e-11</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.091163313795066e-09</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9911136144289971</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0002185919866422407</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0001579615041557301</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6.989468234566012e-05</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.434299420819236e-07</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.16176243501906e-06</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.996415224214465e-19</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3.329126003201573e-06</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.864606738183068e-12</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.363994157439007e-05</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.810250957328408e-05</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>f__Dysgonomonadaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>f__Marinilabiliaceae</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>f__PUMT01</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>f__Prolixibacteraceae</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+      <c r="L1" s="6" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+      <c r="M1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA7960</t>
+        </is>
+      </c>
+      <c r="N1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="O1" s="6" t="inlineStr">
+        <is>
+          <t>f__VadinHA17</t>
+        </is>
+      </c>
+      <c r="P1" s="6" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+      <c r="Q1" s="6" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0001113398690873743</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.835074536570903e-19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.422328396021137e-12</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.211075031860554e-12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9433736488705287</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.005694029471343736</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.005912818628095793</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.02255423570512169</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.631599973629398e-05</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.235156607179019e-05</v>
+      </c>
+      <c r="L2" t="n">
+        <v>9.760345303664509e-16</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0006025685055355231</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.444390347277331e-07</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0005597923304388509</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.02111265460037105</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7558756752319675</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.096972862182115e-11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.407414903116829e-06</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.030235416926458e-07</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1258964570597581</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0162574575396752</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.03231358357564323</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.02673610867772967</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0001228643249823042</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0003556039497069691</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.980543554201148e-14</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0286442612139602</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.750627424233266e-08</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00127705128317663</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.01251930914767154</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1609468361595679</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.888793016322596e-18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.288655998655339e-13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.459950695250956e-08</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8148664406988522</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.001677256808152945</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.003446950395430241</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.004866429728297856</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.935979022746066e-06</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.703845927141116e-05</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.384588818642572e-17</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0001537660643777296</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.045441674730478e-11</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.000283575304734196</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.01373575574170239</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.110107823253959</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.322395148020728e-09</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.241063537732791e-05</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.744446332551e-08</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8098424426043714</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.01254815658294274</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0185983316174666</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.01073730993829718</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0002122593189564302</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0007497411731560028</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.445173237309483e-12</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.001676049045432587</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.396196661966063e-10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.005786155244696016</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.02968924057342137</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.01078211355941757</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.381188007752025e-10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.076584425880077e-05</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.000564413826057e-09</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8671639124775063</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0132609116708722</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0240716743466665</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.02795329561735469</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.003237382465961e-05</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.002463557571586195</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.910868130882935e-13</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8.388553570818482e-05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9.175560822878915e-06</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.03520559419422539</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.01890507910828226</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0006526232437524466</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.510007141554605e-17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.610734384450046e-13</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.296905524871055e-11</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9365919247924989</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01701550957234354</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.008322946876360588</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.01618878347281259</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.391763916884504e-06</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8.684215433611571e-05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.042461981287025e-18</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0008540237564729268</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.104057026845728e-10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0005648125394929919</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.01972014170447732</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.001915718432214544</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.638991872965761e-17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.755318631464175e-11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.569938720254977e-10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9526584626622645</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.003837983519050606</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.005254909719774187</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.006734415598603428</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.593440074608244e-05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0001418305676190631</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.568006285431912e-18</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0003086222993592863</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.101433805673256e-10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>8.910251673267015e-05</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.02904301879894514</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8218469801276523</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.831616325749727e-07</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.001138785027547432</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.705724530282077e-05</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01053850211206161</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02589691657828096</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.06928180183642277</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.02477517156539819</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0005889200650807862</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.017161668015256</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.211172469276642e-13</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.001657889638028144</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.260360765958442e-05</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.02453298278957319</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.002520538229982465</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1863444290284685</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.998742010950429e-13</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.886550239458635e-11</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.565870133013644e-08</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7294661607124255</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03420364282993232</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.006639838551499954</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.03148129478778414</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.763917201065128e-05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0005369087499877766</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.349948487304549e-18</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0001314677607203052</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.876526674788594e-06</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.003245603287233153</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.007910122915096117</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.001185827498489966</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.659178707648331e-16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.558012070048067e-08</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.487909725578906e-10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9245857267431098</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.008435654766588991</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.01345518536556373</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.01724342446390432</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8.932744311892032e-05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0001277521800771575</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.406842411047993e-15</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.002184925772004375</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.427842563572914e-07</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.001652023746044187</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.03103938320792515</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.039262543679704e-05</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8.229561866973648e-16</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.792098149065671e-12</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.670513074918411e-10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9017872772075606</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.01242029219966606</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.01097291160469959</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.01438365700122497</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0002025008274429611</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0001588740105494994</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.96264926416179e-12</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.001872852600774731</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9.203415994734121e-07</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.00243171675718779</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.0557286044530506</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.007362154865928902</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.24292800427513e-17</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.428479720300274e-15</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8.043003466524685e-09</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9703408147399603</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.003965770352481579</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.001200064655268049</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.01204737639384686</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.974752776857903e-07</v>
+      </c>
+      <c r="K13" t="n">
+        <v>7.927849650449401e-05</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6.16904700835756e-17</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0001307790176372554</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.724913726067326e-09</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.001394085340137487</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.003479468895037709</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8.577199167352433e-06</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.447276748084123e-28</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7.386391842454418e-30</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.201279683197286e-13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9707762362473515</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01942858971085248</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.006855600715645239</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.001304393805456975</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9.339552625854563e-07</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9.516620456947284e-08</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7.287242761272818e-23</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0006943781652663309</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5.135248000682073e-16</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.551442163280019e-05</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0009156806129395298</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.002990389384617044</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.455382522348315e-16</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.970683996719828e-12</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.435159642580761e-09</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9486071154033247</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.01168836300158625</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.001668163696009226</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.01264930442035936</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.796897758980615e-05</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5.676881789947248e-05</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.061926589324808e-16</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0009163837781524757</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.224210785773358e-05</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.0003100611242292217</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.02105323685124369</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.001527862927861546</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.076085370379192e-11</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.581500092172568e-08</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.669996620356214e-08</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.812648774517573</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01302868403253006</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.04419534386292227</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.04058710889559671</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.857323155706162e-05</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.001484347882412123</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.798133033483319e-10</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.001241453190348743</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9.370072988896954e-09</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.004423385864693611</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.08081442330889063</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.001724458238294628</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.082813471660526e-15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7.535953744346838e-13</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.23465429953328e-11</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9095622652356493</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05292164936454315</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.01195912048988004</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.009402733394940911</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.417125144926874e-05</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.723207783672365e-05</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6.624216203132449e-25</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.01363909938265089</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.206744230521564e-08</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0002027393924161002</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0005165190817954812</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.000203874287269573</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.012225119055236e-19</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.221268758323425e-14</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.820259492035438e-10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9445556205189971</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.007090738512268209</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0100656973546487</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.01704516148078722</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.000124084611296722</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0001088660714871411</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.42037273667659e-15</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.001045978785047561</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.001189135787810083</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.0003421208740381634</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.01822872113430999</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0007696632195638588</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.86763646142233e-15</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6.073912527176015e-10</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.036845114961564e-11</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.916365718462302</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01708627277249232</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.005075839150059018</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.04229031943966972</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7.368273162244496e-05</v>
+      </c>
+      <c r="K19" t="n">
+        <v>8.784619073122029e-05</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.703488903844723e-17</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0001814129901399405</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.636922845246622e-08</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.00864634017655307</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.009422887879873734</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9.44027483794558e-07</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.999176051316226e-16</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.34375403174915e-14</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5.493943653782606e-13</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9051734856518414</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01569849719515201</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.01802220089301175</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.006341446220641387</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0004602260156718168</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0002222797477269186</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.721087768960133e-12</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0001802010596711586</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.755916538803475e-09</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.001362119255501842</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.05253859617308697</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2668097685409281</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.765850705876616e-10</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.873252900616276e-07</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.301402779012442e-06</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.6494812249554338</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02403565320682614</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.01953440084794734</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.01260204337429484</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0002228666867147772</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0005606358532564663</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.066217818109685e-09</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0009332129513052573</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.026011362604536e-05</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.003957015343826382</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.02183132795496899</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0007421120946259075</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.132409120746315e-17</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.063556630712691e-14</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.181635512101512e-09</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9375967357261951</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.006276627755580832</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0006835153764525191</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.01118444299148721</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.557230345937327e-05</v>
+      </c>
+      <c r="K22" t="n">
+        <v>9.062834739022387e-05</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6.420934588746054e-17</v>
+      </c>
+      <c r="M22" t="n">
+        <v>7.505332193385978e-05</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.000483197190939e-08</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.001500576391853</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.04183471450453376</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.01831467359772979</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.722030907818879e-15</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8.910334597446554e-13</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.803685211651841e-09</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9174587075903037</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01360219492838808</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.007582553401337366</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.02938192561410492</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.930106817010378e-05</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0002441920717368749</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.421290528516524e-13</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.001057490397931898</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.719369905920562e-07</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.0006053481642335466</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.01172333842425005</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0002040308406740125</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.104870315783774e-15</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.789418442356443e-11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.349093125368524e-11</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9220548104770216</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01492022359204707</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.01798645787663686</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.02995844156745977</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.904497527027299e-06</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0003849669996163237</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.550931774896923e-17</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.000220356629844963</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.947883455618477e-12</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.004025182870361492</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.0102406245954717</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01816735813674019</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.612320550684847e-11</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.72499028557716e-08</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.26886056631774e-07</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8533447239566213</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.03538814975510603</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.01443202494004227</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.02065387984750753</v>
+      </c>
+      <c r="J25" t="n">
+        <v>7.665019137705713e-05</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0003258757295255195</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.473063047589648e-11</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0005941906265290817</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.586660923786463e-08</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.0026762349372299</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.05434070181589848</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8832542542751287</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.109884995740534e-12</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.683607179918132e-11</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.526367491849458e-08</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.02292663179628377</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02112108511934781</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.03157435423918811</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.03669771122088034</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8.20682998242908e-05</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0001643638184346038</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5.512918500034209e-18</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.003002531512038661</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.065709614848259e-11</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.0003526462409279341</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.0008243381026679025</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1150252506278003</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.173600594016909e-11</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.856288576215937e-05</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.568301284014133e-07</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8040787396028689</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.008886801063837222</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.01649622085742734</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.02190919919157803</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.0002164145193259147</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0003062479933618714</v>
+      </c>
+      <c r="L27" t="n">
+        <v>7.774058539327874e-10</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.001568308788740227</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.177083893076899e-08</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.005112671247704738</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.02636111378148436</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0002248518256620093</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.414760478147475e-13</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.367105323806959e-10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.660286273991003e-10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.917641445138335</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0155336137695431</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.02436421551777221</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.01893069412925434</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.0003440603074374835</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0002818909134511158</v>
+      </c>
+      <c r="L28" t="n">
+        <v>8.244170271909834e-11</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0008650248692008554</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.410257366145682e-09</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.001844282171878967</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.01996991926168526</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2.9050903573029e-05</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.775090399236132e-15</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4.144812577964762e-15</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.136211048786473e-10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.8893298672780023</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02143114003963342</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.02023414716287234</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.02926735239245666</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.0001745734990132381</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0004063110921395818</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.527316922505045e-13</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0004589477657373993</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5.365653628746462e-06</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.001933891713704661</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.0367293523853589</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.941932924659445e-07</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.886640715539182e-19</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.040888345069048e-19</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.726494449509439e-13</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9601627773011763</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01702455701237487</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.002411588812020047</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.01498044645221188</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7.818699118369861e-05</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.18989246384846e-05</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.496574594764345e-22</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.004051522905469229</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.053891633074611e-07</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.0004950547535286662</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.0007436672644682888</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0009637578868143537</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.001144591680593e-13</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.761602661857276e-10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.277533786993002e-09</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9270849441932164</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01148192218569459</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.01611301846965683</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.02791139362487315</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0002861696359098821</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0005384903553533462</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.224134759517682e-12</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.002601666706562777</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.53677627207732e-07</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.003049394690013832</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.009969085119159362</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.6482016029716821</v>
+      </c>
+      <c r="C32" t="n">
+        <v>9.595624816573182e-13</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.068273447993909e-10</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.462760718280662e-07</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.212708629513955</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.009215097306520637</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.01239658083273816</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0600980274226481</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.001162761963523912</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0002084554003656392</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.680556426953993e-11</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.00597583796935428</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.408809640580448e-05</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.001324686342969363</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.04869378577917285</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1568144202131853</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.747544069322107e-13</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.652261310289149e-08</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5.683677666971962e-09</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.7776172854782172</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.007537237461262124</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.006368231386415435</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.01119942265292455</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.000621662342141664</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0001108063874586886</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2.743921985902063e-17</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.002503082760182703</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4.717278129648808e-07</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.0009285703460953415</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.03629877703783856</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5.265789792657525e-05</v>
+      </c>
+      <c r="C34" t="n">
+        <v>7.6759138734152e-17</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.133574690525898e-14</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5.029428903218424e-11</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9179923977864596</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01480777580669657</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.006604265860565102</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.03868044829840529</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.788781494844346e-06</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.637276191539433e-05</v>
+      </c>
+      <c r="L34" t="n">
+        <v>7.695818543342728e-23</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.006339566162303615</v>
+      </c>
+      <c r="N34" t="n">
+        <v>7.257461931234566e-12</v>
+      </c>
+      <c r="O34" t="n">
+        <v>8.152121102139082e-06</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.01547357446555771</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.005822837320415951</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.374698023015593e-11</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.206369734660282e-08</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6.349725185139956e-09</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9115330306950675</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01829188501622099</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.02485933925666742</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.01510111851348205</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.440723469557366e-05</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.001833742921136571</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.001067802073655e-15</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.001557845859512629</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.659850015006122e-10</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.01920829412293196</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.00176748033671282</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.00439849864665865</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5.145955064273795e-14</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.754571198407905e-11</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5.202049559709325e-10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9450139472528609</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0224941414044033</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.01664010450244359</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.007488961289232725</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.787184464139725e-05</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0001254276686002997</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2.155666519057487e-17</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.000359468580272377</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4.174386826901766e-10</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.001473329534131671</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.001958248301514367</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/outputs/fft-o__Bacteroidales.xlsx
+++ b/outputs/fft-o__Bacteroidales.xlsx
@@ -16,6 +16,8 @@
     <sheet name="g__C941-LSVM-cl" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="g__C941-LSVM-l1" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="g__C941-LSVM-cl1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="g__C941-RSVM" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="g__C941-RSVM-cl" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4707,6 +4709,4198 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>f__Dysgonomonadaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>f__Marinilabiliaceae</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>f__PUMT01</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>f__Prolixibacteraceae</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+      <c r="L1" s="6" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+      <c r="M1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA7960</t>
+        </is>
+      </c>
+      <c r="N1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="O1" s="6" t="inlineStr">
+        <is>
+          <t>f__VadinHA17</t>
+        </is>
+      </c>
+      <c r="P1" s="6" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+      <c r="Q1" s="6" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>14.31102171406731</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.226344253751019</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.754263810508092</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.704021424361009</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13.30768512906716</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.3094955995996812</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11.29572279282213</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.75384867497827</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.697256691509469</v>
+      </c>
+      <c r="K2" t="n">
+        <v>10.28012561610789</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.99741523889191</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9.266921275309013</v>
+      </c>
+      <c r="N2" t="n">
+        <v>12.30305931814549</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.714716933884536</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.6907659325569357</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>14.31113358275105</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.230281151847633</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.75459750413215</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.704214797403969</v>
+      </c>
+      <c r="F3" t="n">
+        <v>13.30758671574898</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.3094705253838932</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11.29610213985091</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.754309337516283</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.69728197251438</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.27689236819435</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.020074621473182</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9.267737932352263</v>
+      </c>
+      <c r="N3" t="n">
+        <v>12.30287683354524</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3.714726777485252</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.6906789991283414</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>14.3109588645531</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.222073605093096</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.754717252265714</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.704015712552273</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13.30769841095347</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.3094857618427413</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11.29536622674016</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.752373590750345</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.697294245416439</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.28277289571242</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6.971748303978427</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9.266720065258898</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12.30298638796502</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.71485584170743</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.6908444144188162</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>14.31117444963384</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.23137090474092</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.754137738491228</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.704129720619386</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13.30750399083082</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.3094567920831808</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11.29610791453418</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.753273040419218</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.697297350162716</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10.27621143396471</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7.02080198290775</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9.267577188373364</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12.3030150503986</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3.715154508354529</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.6907122185269172</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>14.31107058845962</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.232325577075201</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.75466602097775</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.704216536230148</v>
+      </c>
+      <c r="F6" t="n">
+        <v>13.30750146807264</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.3094271544360859</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11.29612464549691</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.753822534535898</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.69731596557704</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.27561729430897</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.025644095682927</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9.267584544377817</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12.30295753846079</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.715362672813188</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.6906759018207544</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>14.31106791719257</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.226245689259887</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.754493451546481</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.704055704038163</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13.30780530281358</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.3094654689666094</v>
+      </c>
+      <c r="H7" t="n">
+        <v>11.2958828813018</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.754678019019194</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.697221026449698</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10.27988055444408</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.994274841412206</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9.266706220559474</v>
+      </c>
+      <c r="N7" t="n">
+        <v>12.30271382419869</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3.714615584330893</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.6907784660733962</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>14.3110347890831</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.224728010078652</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.7552806513285</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.704023756920857</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13.30782210205177</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.3095326227075476</v>
+      </c>
+      <c r="H8" t="n">
+        <v>11.29569718551792</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.75384678844009</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.697224271626451</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10.28129411047849</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.979951141740335</v>
+      </c>
+      <c r="M8" t="n">
+        <v>9.266051224472923</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12.30291311024456</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.714399994102798</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.690840080485303</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>14.31108083413047</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8.233275141188074</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.754429686774034</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.704424553254014</v>
+      </c>
+      <c r="F9" t="n">
+        <v>13.3073160325374</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.690599350607969</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11.29615416284052</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.753037196785376</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.697400059282985</v>
+      </c>
+      <c r="K9" t="n">
+        <v>10.27483291410067</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7.02120306467829</v>
+      </c>
+      <c r="M9" t="n">
+        <v>9.268550665143939</v>
+      </c>
+      <c r="N9" t="n">
+        <v>12.30304517564447</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3.71550172097507</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.3093870213639565</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>14.31112216045326</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.228152102572729</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4.754095299633377</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.70413846862736</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13.30769851482749</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.3094863633968916</v>
+      </c>
+      <c r="H10" t="n">
+        <v>11.29596177133902</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.755131996241535</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.697239372103847</v>
+      </c>
+      <c r="K10" t="n">
+        <v>10.27899165450488</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7.007087444742868</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9.266354198649276</v>
+      </c>
+      <c r="N10" t="n">
+        <v>12.30284037402956</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3.714539785648534</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.6907460712431313</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>14.31102585883175</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.227176857901874</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.754734846777645</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.704023851841079</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13.30767272769256</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.3094836330129508</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11.29589957757268</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.753998630846624</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.697278431174928</v>
+      </c>
+      <c r="K11" t="n">
+        <v>10.27885520034992</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6.996754552166</v>
+      </c>
+      <c r="M11" t="n">
+        <v>9.267370388933825</v>
+      </c>
+      <c r="N11" t="n">
+        <v>12.30308718353081</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3.714775938392507</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.6907489486750682</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14.31106302403433</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8.228452925531414</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.753919758518824</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.70405299328954</v>
+      </c>
+      <c r="F12" t="n">
+        <v>13.30767736873811</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.3094572217986701</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11.29587759944393</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.753787396938058</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.697248661052938</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10.27799807156525</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7.003767929159081</v>
+      </c>
+      <c r="M12" t="n">
+        <v>9.267375722152218</v>
+      </c>
+      <c r="N12" t="n">
+        <v>12.30312241590677</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3.71498101720511</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.6907548154572742</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>14.3108686609018</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8.223686082079858</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4.753858373138102</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.704096643312181</v>
+      </c>
+      <c r="F13" t="n">
+        <v>13.30751566748003</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.3094156723156715</v>
+      </c>
+      <c r="H13" t="n">
+        <v>11.29527836278837</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.753598237439384</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.697288441393353</v>
+      </c>
+      <c r="K13" t="n">
+        <v>10.28242845363213</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6.97142307557039</v>
+      </c>
+      <c r="M13" t="n">
+        <v>9.267689515488154</v>
+      </c>
+      <c r="N13" t="n">
+        <v>12.30294927811378</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3.715423558995944</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.6907694576304546</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>14.31092457569338</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8.214378251880966</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.753588104673816</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.703865965273522</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13.30808729370395</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.3094621585311897</v>
+      </c>
+      <c r="H14" t="n">
+        <v>11.29537745094042</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.75442624824983</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.697185802753616</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10.28529587461362</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6.950669059380449</v>
+      </c>
+      <c r="M14" t="n">
+        <v>9.266495235851012</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12.30257733715665</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3.714151837085455</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.6909024519293979</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14.31105729885228</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8.226913491612475</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.75441109695154</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.704028093905358</v>
+      </c>
+      <c r="F15" t="n">
+        <v>13.30768387151456</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.3094729417776635</v>
+      </c>
+      <c r="H15" t="n">
+        <v>11.29568897255773</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.753128607743169</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.697213435195845</v>
+      </c>
+      <c r="K15" t="n">
+        <v>10.27980928392988</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.997395417717104</v>
+      </c>
+      <c r="M15" t="n">
+        <v>9.266812243270465</v>
+      </c>
+      <c r="N15" t="n">
+        <v>12.30312996063585</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3.714714838758055</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.6907902530708221</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>14.3111089056929</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8.231071398810638</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4.754188552051271</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.704084724018632</v>
+      </c>
+      <c r="F16" t="n">
+        <v>13.30763838995097</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.3094739099589465</v>
+      </c>
+      <c r="H16" t="n">
+        <v>11.29613286323384</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.7538924551127</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.697279701935598</v>
+      </c>
+      <c r="K16" t="n">
+        <v>10.27663039571131</v>
+      </c>
+      <c r="L16" t="n">
+        <v>7.020880753566811</v>
+      </c>
+      <c r="M16" t="n">
+        <v>9.267119313636632</v>
+      </c>
+      <c r="N16" t="n">
+        <v>12.30300680078942</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.714928360147314</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.690720460819944</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>14.3110564568319</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.226232698995386</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4.754430724603885</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.704033839675125</v>
+      </c>
+      <c r="F17" t="n">
+        <v>13.3078063355106</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.3094305671571669</v>
+      </c>
+      <c r="H17" t="n">
+        <v>11.29570578226301</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5.753877884218681</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.697282488476858</v>
+      </c>
+      <c r="K17" t="n">
+        <v>10.27988059651304</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6.985781181493869</v>
+      </c>
+      <c r="M17" t="n">
+        <v>9.267410905736019</v>
+      </c>
+      <c r="N17" t="n">
+        <v>12.30286984040028</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3.714716063953749</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.690696999813796</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>14.3110502775178</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8.227385823082621</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4.753801698594227</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.704079052256319</v>
+      </c>
+      <c r="F18" t="n">
+        <v>13.3076076357042</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.3094969526488778</v>
+      </c>
+      <c r="H18" t="n">
+        <v>11.2958071043758</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.753415142188433</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.697263226742304</v>
+      </c>
+      <c r="K18" t="n">
+        <v>10.27958834892481</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7.008925654428761</v>
+      </c>
+      <c r="M18" t="n">
+        <v>9.267028816364695</v>
+      </c>
+      <c r="N18" t="n">
+        <v>12.30314806988851</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3.714706098599332</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.6907342894416812</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>14.31109294492526</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.229100960868864</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4.754399175864841</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.704085007804439</v>
+      </c>
+      <c r="F19" t="n">
+        <v>13.3077246395771</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.3094369298877369</v>
+      </c>
+      <c r="H19" t="n">
+        <v>11.29589771162718</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.755663561401184</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.697278274064051</v>
+      </c>
+      <c r="K19" t="n">
+        <v>10.27703714744886</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7.008418808636288</v>
+      </c>
+      <c r="M19" t="n">
+        <v>9.267242684633647</v>
+      </c>
+      <c r="N19" t="n">
+        <v>12.30292379242315</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3.715021136573312</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.6906934156542124</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>14.31104861999852</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8.22888716598057</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.754168951018833</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.704036828583967</v>
+      </c>
+      <c r="F20" t="n">
+        <v>13.30772493789841</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.3094626456055949</v>
+      </c>
+      <c r="H20" t="n">
+        <v>11.29590670757642</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.75323693994973</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.697299684436915</v>
+      </c>
+      <c r="K20" t="n">
+        <v>10.27826740160061</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7.010690629021588</v>
+      </c>
+      <c r="M20" t="n">
+        <v>9.266985354438695</v>
+      </c>
+      <c r="N20" t="n">
+        <v>12.3030128030538</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3.714917258526523</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.6907466406586206</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>14.31111123822733</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8.230287804078888</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.754106535216407</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.704120235567435</v>
+      </c>
+      <c r="F21" t="n">
+        <v>13.30748355337215</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.3094659533550793</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11.2960604046656</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.753421849400321</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.697299601443742</v>
+      </c>
+      <c r="K21" t="n">
+        <v>10.27718840167311</v>
+      </c>
+      <c r="L21" t="n">
+        <v>7.018770381915492</v>
+      </c>
+      <c r="M21" t="n">
+        <v>9.267217483475795</v>
+      </c>
+      <c r="N21" t="n">
+        <v>12.30318251138958</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3.714954975879441</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.6907132711533226</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>14.31092281895358</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8.224884353691163</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.754463300958764</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.704055427131908</v>
+      </c>
+      <c r="F22" t="n">
+        <v>13.30759714877264</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.3094519861673454</v>
+      </c>
+      <c r="H22" t="n">
+        <v>11.2953384857752</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.752772630446463</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.697279141928391</v>
+      </c>
+      <c r="K22" t="n">
+        <v>10.28188034282244</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6.9725449050027</v>
+      </c>
+      <c r="M22" t="n">
+        <v>9.266989212700414</v>
+      </c>
+      <c r="N22" t="n">
+        <v>12.30306580638887</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3.715197929983362</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.6908208891512763</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>14.31100445126946</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8.22767554641027</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.753367055868857</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.703985505025058</v>
+      </c>
+      <c r="F23" t="n">
+        <v>13.30756628562748</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.309438894724127</v>
+      </c>
+      <c r="H23" t="n">
+        <v>11.29574998638377</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.754035036642584</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.697306600311132</v>
+      </c>
+      <c r="K23" t="n">
+        <v>10.27967903739227</v>
+      </c>
+      <c r="L23" t="n">
+        <v>7.002508014656445</v>
+      </c>
+      <c r="M23" t="n">
+        <v>9.267202208689865</v>
+      </c>
+      <c r="N23" t="n">
+        <v>12.30306907922421</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3.715052996748378</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.690728310858882</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>14.3111112004929</v>
+      </c>
+      <c r="C24" t="n">
+        <v>8.229730540907401</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.754543324119252</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.704165444944447</v>
+      </c>
+      <c r="F24" t="n">
+        <v>13.30766514225607</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.3094604145829673</v>
+      </c>
+      <c r="H24" t="n">
+        <v>11.29591168703725</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.754414901954554</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.697249726334478</v>
+      </c>
+      <c r="K24" t="n">
+        <v>10.27791612562326</v>
+      </c>
+      <c r="L24" t="n">
+        <v>7.008815056722467</v>
+      </c>
+      <c r="M24" t="n">
+        <v>9.266997854548352</v>
+      </c>
+      <c r="N24" t="n">
+        <v>12.30280119540989</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3.714957820100904</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.6907340842172267</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>14.3110907769552</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8.23043658736912</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.75399451416747</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.704098856295337</v>
+      </c>
+      <c r="F25" t="n">
+        <v>13.30756069072467</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.3094536493463239</v>
+      </c>
+      <c r="H25" t="n">
+        <v>11.29604674760274</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.753719256134699</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.697301190113214</v>
+      </c>
+      <c r="K25" t="n">
+        <v>10.27713736692858</v>
+      </c>
+      <c r="L25" t="n">
+        <v>7.015410128897639</v>
+      </c>
+      <c r="M25" t="n">
+        <v>9.267082342131237</v>
+      </c>
+      <c r="N25" t="n">
+        <v>12.30309707163238</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3.715060957059798</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.690723488565182</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>14.31110222130982</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8.228443607575883</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4.754032257053674</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.704054217587495</v>
+      </c>
+      <c r="F26" t="n">
+        <v>13.30769929426454</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.3094659610710792</v>
+      </c>
+      <c r="H26" t="n">
+        <v>11.29597701584987</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.756053627117567</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.697282779815193</v>
+      </c>
+      <c r="K26" t="n">
+        <v>10.27859481274538</v>
+      </c>
+      <c r="L26" t="n">
+        <v>7.004277291201409</v>
+      </c>
+      <c r="M26" t="n">
+        <v>9.266754963839681</v>
+      </c>
+      <c r="N26" t="n">
+        <v>12.30282031265625</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3.714573811530901</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.6907159094098501</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>14.31108825368474</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8.229602910376299</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4.75473083712011</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.704152109695334</v>
+      </c>
+      <c r="F27" t="n">
+        <v>13.30756454828323</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.309472199532355</v>
+      </c>
+      <c r="H27" t="n">
+        <v>11.29607004270847</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.753974049231393</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.697291928875654</v>
+      </c>
+      <c r="K27" t="n">
+        <v>10.27699253399692</v>
+      </c>
+      <c r="L27" t="n">
+        <v>7.015377209386603</v>
+      </c>
+      <c r="M27" t="n">
+        <v>9.267362753644033</v>
+      </c>
+      <c r="N27" t="n">
+        <v>12.30307258561952</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3.714983928792932</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.6907104473677491</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>14.31107390225699</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8.229678097657501</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.754215621106968</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.704053366510316</v>
+      </c>
+      <c r="F28" t="n">
+        <v>13.30766480898145</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.3094671981951121</v>
+      </c>
+      <c r="H28" t="n">
+        <v>11.29599803138435</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.753743632310236</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.697305768059234</v>
+      </c>
+      <c r="K28" t="n">
+        <v>10.27774270857241</v>
+      </c>
+      <c r="L28" t="n">
+        <v>7.010223400512224</v>
+      </c>
+      <c r="M28" t="n">
+        <v>9.267079778267508</v>
+      </c>
+      <c r="N28" t="n">
+        <v>12.30303514862691</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3.714884490983373</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.6907249884026436</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>14.31102498426358</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8.228883829492665</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4.752926624628606</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.704047313180576</v>
+      </c>
+      <c r="F29" t="n">
+        <v>13.30762496673688</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.3094372489602855</v>
+      </c>
+      <c r="H29" t="n">
+        <v>11.29595502390733</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.753814809761476</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.697260849623615</v>
+      </c>
+      <c r="K29" t="n">
+        <v>10.27815859866536</v>
+      </c>
+      <c r="L29" t="n">
+        <v>7.008892584786937</v>
+      </c>
+      <c r="M29" t="n">
+        <v>9.267272221630302</v>
+      </c>
+      <c r="N29" t="n">
+        <v>12.30319464041099</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3.7151045256546</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.6907182584448439</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>14.31102931049618</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8.226714408264574</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4.753286062480864</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.704014495414112</v>
+      </c>
+      <c r="F30" t="n">
+        <v>13.30786233052619</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.3094463621670457</v>
+      </c>
+      <c r="H30" t="n">
+        <v>11.29556355151504</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5.754013505712977</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.697298970960877</v>
+      </c>
+      <c r="K30" t="n">
+        <v>10.28009025332104</v>
+      </c>
+      <c r="L30" t="n">
+        <v>6.99575749113052</v>
+      </c>
+      <c r="M30" t="n">
+        <v>9.267176110898815</v>
+      </c>
+      <c r="N30" t="n">
+        <v>12.302910913366</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3.714786753537643</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6906931944641699</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>14.31104482882161</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8.229863913423914</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4.75390998185687</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.704116319548048</v>
+      </c>
+      <c r="F31" t="n">
+        <v>13.30753677908202</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.3094602665329673</v>
+      </c>
+      <c r="H31" t="n">
+        <v>11.29597085765946</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.75395245154381</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.697354008676845</v>
+      </c>
+      <c r="K31" t="n">
+        <v>10.27753381956354</v>
+      </c>
+      <c r="L31" t="n">
+        <v>7.015080470201029</v>
+      </c>
+      <c r="M31" t="n">
+        <v>9.267560885056048</v>
+      </c>
+      <c r="N31" t="n">
+        <v>12.30311181208684</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3.714963964482291</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.690696120271178</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>14.31103282714596</v>
+      </c>
+      <c r="C32" t="n">
+        <v>8.228147548662244</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.753660530908764</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.704101021354158</v>
+      </c>
+      <c r="F32" t="n">
+        <v>13.3075036504678</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.3094644682857472</v>
+      </c>
+      <c r="H32" t="n">
+        <v>11.29587037549799</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.75468892898193</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.697341396360644</v>
+      </c>
+      <c r="K32" t="n">
+        <v>10.27840654306215</v>
+      </c>
+      <c r="L32" t="n">
+        <v>7.003670529146299</v>
+      </c>
+      <c r="M32" t="n">
+        <v>9.267416085733434</v>
+      </c>
+      <c r="N32" t="n">
+        <v>12.30320672888765</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3.714944879107741</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.6907154148352194</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>14.31101454490167</v>
+      </c>
+      <c r="C33" t="n">
+        <v>8.226952257815553</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4.754446693543642</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.704037635613314</v>
+      </c>
+      <c r="F33" t="n">
+        <v>13.30760888632615</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.3094714704567944</v>
+      </c>
+      <c r="H33" t="n">
+        <v>11.29573248532419</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.752790013505662</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.697343206492514</v>
+      </c>
+      <c r="K33" t="n">
+        <v>10.27972159948587</v>
+      </c>
+      <c r="L33" t="n">
+        <v>6.99024411679518</v>
+      </c>
+      <c r="M33" t="n">
+        <v>9.267519681899952</v>
+      </c>
+      <c r="N33" t="n">
+        <v>12.30307525405824</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3.714917913391675</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.690770760960967</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>14.31106254831484</v>
+      </c>
+      <c r="C34" t="n">
+        <v>8.225913566318837</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4.754516531228689</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.704025988209063</v>
+      </c>
+      <c r="F34" t="n">
+        <v>13.30793977501266</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.3095362058334142</v>
+      </c>
+      <c r="H34" t="n">
+        <v>11.29583678877472</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5.7548433298189</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.697351753688124</v>
+      </c>
+      <c r="K34" t="n">
+        <v>10.28034556575389</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6.984460742353476</v>
+      </c>
+      <c r="M34" t="n">
+        <v>9.267083810725461</v>
+      </c>
+      <c r="N34" t="n">
+        <v>12.30274536433727</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3.713847387355915</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.6907770750939048</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>14.31110214779311</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8.231269712577426</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4.753689518464669</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.704149092324007</v>
+      </c>
+      <c r="F35" t="n">
+        <v>13.30760647401931</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.3094223238782681</v>
+      </c>
+      <c r="H35" t="n">
+        <v>11.29613361407842</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.754399736558658</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.69726684029979</v>
+      </c>
+      <c r="K35" t="n">
+        <v>10.27651452318094</v>
+      </c>
+      <c r="L35" t="n">
+        <v>7.019576702822388</v>
+      </c>
+      <c r="M35" t="n">
+        <v>9.267571900563757</v>
+      </c>
+      <c r="N35" t="n">
+        <v>12.30284594577376</v>
+      </c>
+      <c r="O35" t="n">
+        <v>3.715289294326412</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.6906538504908337</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>14.31112943127853</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8.229627256225809</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4.754197471177461</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.704112303260284</v>
+      </c>
+      <c r="F36" t="n">
+        <v>13.30765551538014</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.3094493707574625</v>
+      </c>
+      <c r="H36" t="n">
+        <v>11.29604326194001</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5.754195470461121</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.697249114685359</v>
+      </c>
+      <c r="K36" t="n">
+        <v>10.27772210283687</v>
+      </c>
+      <c r="L36" t="n">
+        <v>7.018210508009934</v>
+      </c>
+      <c r="M36" t="n">
+        <v>9.266656227936441</v>
+      </c>
+      <c r="N36" t="n">
+        <v>12.30289093316556</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3.714944608205549</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.6907011625800435</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>f__Dysgonomonadaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>f__Marinilabiliaceae</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>f__PUMT01</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>f__Prolixibacteraceae</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+      <c r="L1" s="6" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+      <c r="M1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA7960</t>
+        </is>
+      </c>
+      <c r="N1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="O1" s="6" t="inlineStr">
+        <is>
+          <t>f__VadinHA17</t>
+        </is>
+      </c>
+      <c r="P1" s="6" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+      <c r="Q1" s="6" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1028204999345029</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01209290484128204</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04299153808077684</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.01646275945035788</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.4311024525786156</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.009665177286836845</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.03120111797848672</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.04148234369395108</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01750483330442103</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.04744764249327913</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.02239215795114394</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.01301108563919421</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.139967674705726</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.01402144659607868</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.05783636546534722</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2878821855613289</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01195218370198396</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05342967323986646</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01851473492521492</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3867583414697916</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.007624296657062726</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.04599024004632147</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.03680358486854385</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01399290692144968</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.01459520583068343</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0237640628629708</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.01036984222033993</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.04713012042362658</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.01057599561002772</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.03061662566078851</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.07442107450502577</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01257016400734963</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04571526645418249</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01860813836261735</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3980697021688974</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01234796280850177</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.02757551639103268</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.03117652067418669</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.02297026951161077</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1107343494844171</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.01752382295638889</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.01794202791198428</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1205132586634108</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.01643154204513081</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.07340038405526383</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7804841577384724</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.002377146587149867</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.007746820720815426</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.002199392391460867</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1479930243037683</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.001156847088592528</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.01767120734695282</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.004763591090305734</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.002061414424207842</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.002058922599978647</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.003234077021730709</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.001371056672818321</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01673835011699958</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.001882238778995864</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.008261753117751252</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1488381456479028</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.02309528964031242</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1004095642968484</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.02301653333023837</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.3527610458474986</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.01144803878640466</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.08770209721245138</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.05273427448813841</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0184004449082208</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.01284212671145784</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.03969579455871076</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.01137354061243586</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.05543352724611477</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.01957986544056765</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.04266971127269772</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.130723939633835</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01520875817077976</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04757248464223593</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.02121584988084085</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4511120964738864</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01463537856830474</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.03633883055663896</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.04419831732909901</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.02090264856847621</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.04306071982053462</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.02761131097887987</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.01566808812747262</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.05131026725518557</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0172275075003401</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.06321380249349044</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1260244203982247</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01381816025515292</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.04770335836690456</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.01818773868888709</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.4497727379752506</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.01093410902971248</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02877045523450769</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.04094700061889407</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01867389152836254</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.05351474170297252</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.02184319260501384</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.01420702202810828</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.07474316629122102</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.0153761424031253</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.06548386287366192</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3636767400600469</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0256675601221157</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1037285045766199</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.04232639953389915</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.147088795169086</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.009850684028706768</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1110781543153245</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.03660943468663817</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.02447020758950992</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.008977679568830511</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.02311296983228622</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.01402452962716986</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.04939060814800629</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.01727246718011452</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.0227252655616463</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1777253530185287</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01419170422460173</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.04196327512558255</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.02007494900360613</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.4365451322965517</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.01100162161049113</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.03845614299572814</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.04334492274767485</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0177902630705549</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.03275169039495391</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.02547822799798525</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.01199376198753396</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.05798169200635041</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.01392246977250737</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.05677879374734896</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1091872268612853</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0121322587949964</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.05886044269410915</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.01679605131895574</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4220463290236443</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.01013542765496946</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.04531533612472595</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.04269327936938239</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.01820757125314856</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.03114358795697807</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.02150702144620873</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0134147839339602</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1217173959216167</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.0147245874649008</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.0621187001811174</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1254118621692439</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01297739166020306</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.03544111963219197</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.01716702323673466</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.4307145456175721</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.01100701442387681</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.04006738482676154</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.03796620723721545</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01696527341248236</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.02272762900854966</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0212679905618911</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.01275741063773063</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.1390453194001372</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.01480123605861333</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.0616825921167963</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.07906411599300169</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01571942343481914</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.06210024263210539</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.02666081512842873</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2414791957684857</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.01954260596720839</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.03143133702601279</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.06089466977125502</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.03047563945789875</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1713957471129477</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.02114170613155446</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.03401166521862191</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.1014428948384004</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.03220795213239453</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.07243198938686525</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1081965091618333</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01240758575962109</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.03147122718044616</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.01570899311058514</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.4369628061657128</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01743903417223394</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.02970240721485414</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.03147500036324067</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0193409159915131</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1189503691203613</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.01567881044222117</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.02304214209105576</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.06175518345196033</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.01323470856050896</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.06463430721385269</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1060915212138351</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01026165492940963</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03673432249812296</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.01384825908396585</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.4235894658355531</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.008985436945774701</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0303512386325624</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.02851853141562292</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01334649473742207</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.03375912494141326</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.01798644433881891</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.01049398109827879</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1984765305226785</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.01120471961477372</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.05635227419176796</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1891860373402052</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01577472436521685</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.04329215446964103</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0160671050287944</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4175095338408685</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.009760540550506378</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.06053365911431656</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.03864531346487839</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01590031042586511</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.01639510025697525</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.02485166421905674</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.01104674492913239</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.06978061569855469</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.01324741592605324</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.05800908036993484</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.116812428541449</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0139053198273925</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.05984262360915699</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0192932598251321</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.4360686793211633</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0163408779097899</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.03953813823233628</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.04529951242561914</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.02124719039557709</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.04742425936374958</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.02228697483814764</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.01732735467109155</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.08602766021110647</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.01580769615584443</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.04277802467244426</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1005585438827086</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.009543052638718</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.03232044597887965</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.01428807376253671</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.4158283931692607</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.007095750147257747</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0384355438615113</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.03292195714790216</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.01365619553105923</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.03755970670240796</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.01945995301004115</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.009702342446708036</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.2135281297850485</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.01017544905443615</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.04492646288152351</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.12657017705988</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01585552186543036</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.05843414402266275</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.02026800723173515</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.4309863625714918</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01390504007791108</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.04305138964408469</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.07083711422418142</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.02025431316505997</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.02035245860084585</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.02842163745438656</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.01380581997939009</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0678978052005888</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.01892851092492302</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.05043169797742821</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1213366063484054</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01495465845858971</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.04436168299443458</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.01883613701338006</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.4311194493713758</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01184642378557503</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.05010982405861998</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.03931025387342243</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.02125591834172817</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.02733850629984079</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.02616359216639951</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.01287292297188652</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.1023359952917283</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.01585348670421588</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.06230454232039752</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4410437792549082</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.006121173922525279</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.02361316912743267</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.007473793270137268</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3014550196352306</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.003857202941806391</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.04194127830243553</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.01607710824784753</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.007132950704449415</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.008677743963452002</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0109573111664946</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.004248135333964342</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.09481719110831083</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.005463449621535348</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.02712069339947032</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.06359211059620506</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.01138001287549984</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.04829992295431892</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0171448287268988</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3551681928421401</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01270633230801184</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.02138065997963035</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0337897286195574</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.01956734832304614</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.09990360166529612</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.01491798126970854</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.01556359016379556</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.1437827850687343</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.01834753650373603</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.1244553681034207</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1042904539050593</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.01274819906223107</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.03425258220780938</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.01549215985226051</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.4218506859476384</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01160363513788985</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.03734929886596686</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.04498687065069194</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.01962056782811349</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.045447029895972</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.02300465046689609</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.01304642541054881</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.1489726919146229</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.01615103166833675</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.05118371718596233</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1500001678252355</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.01867836880951168</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.05191430492948196</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.02373664612494431</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.439437600298365</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01240488484670424</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.04116561970272288</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.043645462264753</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.01989966264264822</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.02487787230246099</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.02863507651278138</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.01376355489195452</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.05440369273337611</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.01761844008669175</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.05981864602836819</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.241515140922795</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01290506829712393</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.03420107331037387</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.01467761876459338</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3988282666065165</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.008740404711561536</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.04927964959377966</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.03262683410567996</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.01520127987978953</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.01536370100576086</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.01966926990865027</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.009123287007681611</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.08769955581683118</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.01200846635204995</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.04816038371681305</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1382580519801239</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.01513648931357416</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.04913733685411523</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.01927107122431979</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.4246206845407364</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01260324069954095</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.04155197119418329</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0825734257378469</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.02080520379161295</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.03055267893840264</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.02822453451979911</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.01311409295863651</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.05760177437379109</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.0156298526062467</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.05091959126707087</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.226356926243165</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01070204384059094</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.06974612787181418</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.01639105285153988</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.386429870179026</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.007912056511325864</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.05620461386548007</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.03688517402460888</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.01493235842815057</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0148554184110792</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.02103819999752406</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.009382017693937683</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.07270446860498943</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.01256195682059946</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.0438977146561691</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.128319284566234</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01569055312700772</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.04731950410053722</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.01837090278054891</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.4287480826331957</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01122002455681043</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.05792996805141599</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.04217393561660809</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.02070373968278129</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.02411670873881538</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0249407711598369</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.01264925125898893</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.09307339874267356</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.01521418883750906</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.05952968614703695</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.08155518670818682</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01217943624833851</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.02518082995352016</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.01536422846241854</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.4304378893730031</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01050122163193164</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.05760003664660897</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.03966007937509351</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.01544369881230284</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.02339609150957613</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0196563773415001</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.01084823989585974</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.1975298207857926</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.01385097777523991</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.04679588548062728</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.112478006941802</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01322278833202686</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.04136843533222049</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.01781459718902834</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.4297280489630154</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01245333773455529</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.03432662906040584</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.04467733774547373</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.02100160641378993</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.04850331894526042</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.02290030535655705</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0148387820363181</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.127150920685463</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.01515498891033072</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.04438089635375275</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1393059494969239</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01303750754107728</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.04577838938393039</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.01813333776810019</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.4095448365480419</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.009207260072028668</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.05725769454149254</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.04476502800759638</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.02140924027506549</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.02037993718273191</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.02393796024634455</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.01146272536657334</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.1266668744637043</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.01337341538530146</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.04573984372108836</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1184712415359215</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.009255207217250424</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.03195523814149639</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.01498271105484511</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.4100690646398861</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.007754339343834689</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.04347287552304836</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.05184721281099015</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0168819999206573</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.02414908338578959</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.01704430585592843</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0096992814730157</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.187117325225204</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.01206866275629655</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.04523145111583658</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1023161873394936</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0118457948449864</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.04589941147662739</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.01707054429618369</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.4253980233902603</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.01001968842231227</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0342695937522724</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0330577554556872</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0218005513955869</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.04097101886730434</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.01784571273138308</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.01428667497676214</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.1464828680008369</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.01455214227290451</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.06418403277739861</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1264084014873153</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.01511536022386295</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.04553374687267926</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.01936623379363744</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.4566525760001852</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01239483154614988</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.03443571337593254</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.04522876519543041</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.02456614348557854</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.04675715785486297</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.02326702436082435</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.01656527942426321</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.0566889188465771</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.01351383898359204</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.06350600854910855</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1334468904946468</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.02050773678482387</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.05220300345076444</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.02307200120250456</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.42280141683169</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01373746572666988</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.06683488760958468</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.0581619727043303</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.01844748816791525</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.01843765591204597</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.03380427584719697</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.01411938196240959</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.06455597795754811</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.0196706032112989</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.0401992421365702</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1720048989848016</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0156368152606475</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0502164845676281</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.01998738752984637</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.4289799291821958</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01204040505192431</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.05145120703543061</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.04309648344222264</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.01757284490236057</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.02272859958648027</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.03098254043456101</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.01189674675591397</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.06403238656831998</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.01580352733991144</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.04356974335775582</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/outputs/fft-o__Bacteroidales.xlsx
+++ b/outputs/fft-o__Bacteroidales.xlsx
@@ -18,6 +18,8 @@
     <sheet name="g__C941-LSVM-cl1" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="g__C941-RSVM" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="g__C941-RSVM-cl" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="g__Ruminococcus_E-RSVM" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="g__Ruminococcus_E-RSVM-cl" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -8901,6 +8903,6820 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>f__Dysgonomonadaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>f__Marinilabiliaceae</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>f__PUMT01</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>f__Prolixibacteraceae</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+      <c r="L1" s="6" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+      <c r="M1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA7960</t>
+        </is>
+      </c>
+      <c r="N1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="O1" s="6" t="inlineStr">
+        <is>
+          <t>f__VadinHA17</t>
+        </is>
+      </c>
+      <c r="P1" s="6" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+      <c r="Q1" s="6" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>RUG464</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>14.31094263505735</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.225192945782</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.753254318197223</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.704049744430317</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13.30751623417256</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.3094970597786224</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11.2957249934961</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.754188844787392</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.697208830659796</v>
+      </c>
+      <c r="K2" t="n">
+        <v>10.28303221294657</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.992884496497758</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9.265560440506849</v>
+      </c>
+      <c r="N2" t="n">
+        <v>12.30296411487699</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.714757553777582</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.6907529550228478</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>RUG682</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>14.31093500575739</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.225094534033392</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.753070818578485</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.703950812890966</v>
+      </c>
+      <c r="F3" t="n">
+        <v>13.30748960809183</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.3094417406546836</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11.29564712736064</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.753144216749433</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.697107634975397</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.28316556597179</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.991592125515901</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9.266256576998689</v>
+      </c>
+      <c r="N3" t="n">
+        <v>12.30295193449991</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3.715181993682684</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.6907536496482357</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>RUG299</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>14.31084783386568</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.223403848005887</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.753798475734041</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.703855200558558</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13.30757156870346</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.309493531647527</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11.29557487840816</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.752212431806628</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.697199018217566</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.28471197589248</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6.989527685148331</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9.266084619087327</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12.30293630698044</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.714474125552997</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.6907999516085345</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>RUG846</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>14.31090101646042</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.227769766393118</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.752399297977767</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.703990335727839</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13.30726243447389</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.3094317823789495</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11.29563304527521</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.752800758478321</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.697222933226004</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10.28220972159398</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7.017460584992904</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9.267231993208449</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12.3030710895872</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3.715236569345941</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.6906980986768192</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>RUG271</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>14.31080475729394</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.218370287724593</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.752293825247063</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.703608683979416</v>
+      </c>
+      <c r="F6" t="n">
+        <v>13.30749407128795</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.309428693136696</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11.2953804154661</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.753312949806468</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.697032320300215</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.2862934305951</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.963970548604475</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9.266507585457312</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12.3030833625419</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.715020360293786</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.6908692064908883</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>RUG196</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>14.31101956730398</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.23160435225889</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.752702257115104</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.704123721421138</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13.30727666362975</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.6906286492068716</v>
+      </c>
+      <c r="H7" t="n">
+        <v>11.29598810716051</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.751800654546174</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.697373827171155</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10.27814027811879</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7.023887762882576</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9.267939993118055</v>
+      </c>
+      <c r="N7" t="n">
+        <v>12.30305621897221</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3.715726504740902</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.3093653716250973</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>RUG138</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>14.31089933619283</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.222449923962548</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.753566055282399</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.703859790747534</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13.30741477623399</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.30939732437611</v>
+      </c>
+      <c r="H8" t="n">
+        <v>11.29545582235745</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.75279775975585</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.697120537152907</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10.2844727185811</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.974265942167602</v>
+      </c>
+      <c r="M8" t="n">
+        <v>9.266098557126044</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12.30291906567268</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.715423974212868</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.6908118567138694</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>RUG366</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>14.31098763435878</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8.230136322907075</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.754550938583685</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.704173770076207</v>
+      </c>
+      <c r="F9" t="n">
+        <v>13.30733981440783</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.3094157538371281</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11.2959647450573</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.750711373123824</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.697381457614062</v>
+      </c>
+      <c r="K9" t="n">
+        <v>10.27976337473403</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7.010171341192194</v>
+      </c>
+      <c r="M9" t="n">
+        <v>9.267097423934564</v>
+      </c>
+      <c r="N9" t="n">
+        <v>12.30292812959161</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3.715372258029528</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.690714752190541</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>RUG008</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>14.3108562211283</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.231379572290614</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.7562549757262</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.70450924226618</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13.30682836135371</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.6907504260636248</v>
+      </c>
+      <c r="H10" t="n">
+        <v>11.29544501322619</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.748711836284527</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.697627001512923</v>
+      </c>
+      <c r="K10" t="n">
+        <v>10.27828154794733</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.998303801249636</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9.269110093370768</v>
+      </c>
+      <c r="N10" t="n">
+        <v>12.30288534472244</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3.717328238531064</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-0.3093221906181134</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>RUG543</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>14.31089071998439</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.221752410002347</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.753007143211171</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.703647498242534</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13.30748927442022</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.3094525490903358</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11.29562638886515</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.75249084757534</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.697165810813726</v>
+      </c>
+      <c r="K11" t="n">
+        <v>10.28413683849111</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6.988690023287616</v>
+      </c>
+      <c r="M11" t="n">
+        <v>9.26699224773132</v>
+      </c>
+      <c r="N11" t="n">
+        <v>12.30305665897765</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3.714852305840668</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.6908402998313193</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>RUG566</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14.31091792855236</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8.227219828122113</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.752613834545384</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.703944999297099</v>
+      </c>
+      <c r="F12" t="n">
+        <v>13.30743114955209</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.3094234446725079</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11.29574917632186</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.753595839771648</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.697266546707011</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10.28183364749138</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7.002412892463874</v>
+      </c>
+      <c r="M12" t="n">
+        <v>9.26636630457449</v>
+      </c>
+      <c r="N12" t="n">
+        <v>12.30302952973661</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3.715302460028251</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.6907093626486038</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>RUG090</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>14.31094419351549</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8.228944338358211</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4.751582436273524</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.703972975783086</v>
+      </c>
+      <c r="F13" t="n">
+        <v>13.30714634678625</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.3093917213893645</v>
+      </c>
+      <c r="H13" t="n">
+        <v>11.29579430042592</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.752733996897218</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.697241621737174</v>
+      </c>
+      <c r="K13" t="n">
+        <v>10.28110966189744</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7.019271739698693</v>
+      </c>
+      <c r="M13" t="n">
+        <v>9.267849681742534</v>
+      </c>
+      <c r="N13" t="n">
+        <v>12.30311829441629</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3.715565452629743</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.6906797330349171</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>RUG665</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>14.31082312226477</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8.219284858744803</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.753171266444514</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.703716588142256</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13.3075100773498</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.3094457099904001</v>
+      </c>
+      <c r="H14" t="n">
+        <v>11.2953862035785</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.752573867038107</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.697076352703791</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10.28609579754791</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6.965225279438314</v>
+      </c>
+      <c r="M14" t="n">
+        <v>9.266450109662124</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12.302964819626</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3.714896363356325</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.6908809352063783</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>RUG189</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14.3109530602705</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8.229991201749204</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.752956076283074</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.70412412602278</v>
+      </c>
+      <c r="F15" t="n">
+        <v>13.30717273086307</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.309381261598874</v>
+      </c>
+      <c r="H15" t="n">
+        <v>11.29587680462217</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.752696578242786</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.697285467834966</v>
+      </c>
+      <c r="K15" t="n">
+        <v>10.27971798728143</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7.022351816794147</v>
+      </c>
+      <c r="M15" t="n">
+        <v>9.267495159748501</v>
+      </c>
+      <c r="N15" t="n">
+        <v>12.30312702004749</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3.715557408003133</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.6906647181934505</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>RUG081</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>14.31101520037747</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8.230645183995129</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4.752930947423994</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.704136188306327</v>
+      </c>
+      <c r="F16" t="n">
+        <v>13.3072737600308</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.6906273565752845</v>
+      </c>
+      <c r="H16" t="n">
+        <v>11.29599368590134</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.750982280864084</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.697334141211566</v>
+      </c>
+      <c r="K16" t="n">
+        <v>10.27878521927842</v>
+      </c>
+      <c r="L16" t="n">
+        <v>7.02235651382739</v>
+      </c>
+      <c r="M16" t="n">
+        <v>9.268166713099628</v>
+      </c>
+      <c r="N16" t="n">
+        <v>12.30306138393182</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.715519296386077</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-0.3093372576219803</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>RUG845</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>14.31084361401268</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.224974575424218</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4.752817741117758</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.703853996581511</v>
+      </c>
+      <c r="F17" t="n">
+        <v>13.30736584017221</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.3094273372140541</v>
+      </c>
+      <c r="H17" t="n">
+        <v>11.29555263804952</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5.752697160383172</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.697305345266858</v>
+      </c>
+      <c r="K17" t="n">
+        <v>10.28341225715635</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7.000496545983201</v>
+      </c>
+      <c r="M17" t="n">
+        <v>9.266975373651503</v>
+      </c>
+      <c r="N17" t="n">
+        <v>12.30303261353205</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3.715116639226661</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.6907346534286543</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>RUG341</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>14.31084092313612</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8.22181697236875</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4.753057477089286</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.703869938482305</v>
+      </c>
+      <c r="F18" t="n">
+        <v>13.30751169484078</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.3094638848382688</v>
+      </c>
+      <c r="H18" t="n">
+        <v>11.29534436626103</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.75235669094078</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.697191097980733</v>
+      </c>
+      <c r="K18" t="n">
+        <v>10.28512471813905</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6.973750375689366</v>
+      </c>
+      <c r="M18" t="n">
+        <v>9.26687374125423</v>
+      </c>
+      <c r="N18" t="n">
+        <v>12.30290471831097</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3.714910134045679</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.690840742148368</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>RUG365</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>14.31086107171823</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.221901967798805</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4.752719625517359</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.703778079411251</v>
+      </c>
+      <c r="F19" t="n">
+        <v>13.30763964490007</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.3094921801293641</v>
+      </c>
+      <c r="H19" t="n">
+        <v>11.29555444243742</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.753200297246195</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.697173343714785</v>
+      </c>
+      <c r="K19" t="n">
+        <v>10.28475787566815</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6.984107173630922</v>
+      </c>
+      <c r="M19" t="n">
+        <v>9.26595611391026</v>
+      </c>
+      <c r="N19" t="n">
+        <v>12.30306208436389</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3.714379268586329</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.6908385112081525</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>RUG605</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>14.31091020648037</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8.223142397546621</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.75413164515539</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.703959060053985</v>
+      </c>
+      <c r="F20" t="n">
+        <v>13.30726507723257</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.3094242291149533</v>
+      </c>
+      <c r="H20" t="n">
+        <v>11.29556926541068</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.753052902304512</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.697138147853087</v>
+      </c>
+      <c r="K20" t="n">
+        <v>10.28411345969465</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6.97020445013632</v>
+      </c>
+      <c r="M20" t="n">
+        <v>9.266070276717553</v>
+      </c>
+      <c r="N20" t="n">
+        <v>12.30304414774926</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3.715325499655985</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.6908215372536506</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>RUG794</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>14.31092817712958</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8.227680683421758</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.752815311150327</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.704093719855031</v>
+      </c>
+      <c r="F21" t="n">
+        <v>13.3073953456017</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.3094390224487691</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11.29577338523989</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.752672774656329</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.697276992318918</v>
+      </c>
+      <c r="K21" t="n">
+        <v>10.28189561523872</v>
+      </c>
+      <c r="L21" t="n">
+        <v>7.001355552293886</v>
+      </c>
+      <c r="M21" t="n">
+        <v>9.266164884036785</v>
+      </c>
+      <c r="N21" t="n">
+        <v>12.30304273908863</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3.715290696065573</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.6907105177712274</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>RUG230</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>14.31096981979151</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8.221976233877253</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.754100175027394</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.703907917824817</v>
+      </c>
+      <c r="F22" t="n">
+        <v>13.30734953890969</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.3094203489361418</v>
+      </c>
+      <c r="H22" t="n">
+        <v>11.2955250775545</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.75294819714428</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.697149824570954</v>
+      </c>
+      <c r="K22" t="n">
+        <v>10.28416737164309</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6.963855282801801</v>
+      </c>
+      <c r="M22" t="n">
+        <v>9.266928993945655</v>
+      </c>
+      <c r="N22" t="n">
+        <v>12.30286239746484</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3.715121433505035</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.6908550563801659</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>RUG041</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>14.31097079959048</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8.229876007604693</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.752443651437698</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.704014903000453</v>
+      </c>
+      <c r="F23" t="n">
+        <v>13.30718347873148</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.3093922105090333</v>
+      </c>
+      <c r="H23" t="n">
+        <v>11.29587479213801</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.752098137921804</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.697248919210715</v>
+      </c>
+      <c r="K23" t="n">
+        <v>10.28015765820932</v>
+      </c>
+      <c r="L23" t="n">
+        <v>7.023859608062416</v>
+      </c>
+      <c r="M23" t="n">
+        <v>9.267545336754511</v>
+      </c>
+      <c r="N23" t="n">
+        <v>12.30317830720303</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3.715550067464254</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.6906723264845824</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>RUG272</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>14.31098786422118</v>
+      </c>
+      <c r="C24" t="n">
+        <v>8.229285594807711</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.75319154479732</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.704254892128348</v>
+      </c>
+      <c r="F24" t="n">
+        <v>13.30725581199037</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.3094157461685856</v>
+      </c>
+      <c r="H24" t="n">
+        <v>11.29595646086267</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.754081933671194</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.69730706790204</v>
+      </c>
+      <c r="K24" t="n">
+        <v>10.27919593706208</v>
+      </c>
+      <c r="L24" t="n">
+        <v>7.011057317398691</v>
+      </c>
+      <c r="M24" t="n">
+        <v>9.26744986366745</v>
+      </c>
+      <c r="N24" t="n">
+        <v>12.30308616671103</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3.715262743797858</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.6906748704530347</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>RUG026</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>14.31110471742087</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8.233796269405023</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.756590168563565</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.704713840395796</v>
+      </c>
+      <c r="F25" t="n">
+        <v>13.30659358788157</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.3093799782605831</v>
+      </c>
+      <c r="H25" t="n">
+        <v>11.29551996751958</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.749574803922459</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.697246902426659</v>
+      </c>
+      <c r="K25" t="n">
+        <v>10.27933626013533</v>
+      </c>
+      <c r="L25" t="n">
+        <v>7.011038990666574</v>
+      </c>
+      <c r="M25" t="n">
+        <v>9.267730840416162</v>
+      </c>
+      <c r="N25" t="n">
+        <v>12.30264418851807</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3.717043640913935</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.6907265882996352</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>RUG333</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>14.31096083464351</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8.228514676346174</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4.753334684731153</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.70405212687569</v>
+      </c>
+      <c r="F26" t="n">
+        <v>13.30739817665673</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.3094131476903699</v>
+      </c>
+      <c r="H26" t="n">
+        <v>11.29579022559099</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.752330694691282</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.697266032860906</v>
+      </c>
+      <c r="K26" t="n">
+        <v>10.28034628533674</v>
+      </c>
+      <c r="L26" t="n">
+        <v>7.003842162742291</v>
+      </c>
+      <c r="M26" t="n">
+        <v>9.267274497378631</v>
+      </c>
+      <c r="N26" t="n">
+        <v>12.30311946618922</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3.715363806013139</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.6907089800230408</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>RUG641</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>14.31088622270686</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8.226217108905846</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4.752643309256749</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.703913075391077</v>
+      </c>
+      <c r="F27" t="n">
+        <v>13.30721015079984</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.3093685483634251</v>
+      </c>
+      <c r="H27" t="n">
+        <v>11.29557549246344</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.752287013756459</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.697201674698342</v>
+      </c>
+      <c r="K27" t="n">
+        <v>10.28236811265227</v>
+      </c>
+      <c r="L27" t="n">
+        <v>7.00290531191483</v>
+      </c>
+      <c r="M27" t="n">
+        <v>9.267901509900316</v>
+      </c>
+      <c r="N27" t="n">
+        <v>12.30307483356456</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3.71564215820995</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.6907198818918656</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>RUG449</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>14.31097746824143</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8.224853392927878</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.752869472389938</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.70386063065873</v>
+      </c>
+      <c r="F28" t="n">
+        <v>13.30741697775964</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.309451556102311</v>
+      </c>
+      <c r="H28" t="n">
+        <v>11.29582911341394</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.754156130739524</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.697117556048048</v>
+      </c>
+      <c r="K28" t="n">
+        <v>10.28281673936394</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6.993554554759543</v>
+      </c>
+      <c r="M28" t="n">
+        <v>9.265787517733372</v>
+      </c>
+      <c r="N28" t="n">
+        <v>12.30307681163398</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3.714940968922559</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.6907943263166483</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>RUG637</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>14.31084144196569</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8.220305241055737</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4.75357995375952</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.703730546755378</v>
+      </c>
+      <c r="F29" t="n">
+        <v>13.30743094452628</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.3094321053363405</v>
+      </c>
+      <c r="H29" t="n">
+        <v>11.29529097114922</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.752702533126959</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.697121482615199</v>
+      </c>
+      <c r="K29" t="n">
+        <v>10.28578707009894</v>
+      </c>
+      <c r="L29" t="n">
+        <v>6.969294877581789</v>
+      </c>
+      <c r="M29" t="n">
+        <v>9.266541784799124</v>
+      </c>
+      <c r="N29" t="n">
+        <v>12.30290199222082</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3.715136312328318</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.6908526363448498</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>RUG217</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>14.31095343735871</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8.225051170754005</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4.753284985412324</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.703816085719608</v>
+      </c>
+      <c r="F30" t="n">
+        <v>13.30744864891486</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.3094887864903942</v>
+      </c>
+      <c r="H30" t="n">
+        <v>11.295859292302</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5.752952813711542</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.697251508906113</v>
+      </c>
+      <c r="K30" t="n">
+        <v>10.28344174527933</v>
+      </c>
+      <c r="L30" t="n">
+        <v>7.006449979908276</v>
+      </c>
+      <c r="M30" t="n">
+        <v>9.266243760017991</v>
+      </c>
+      <c r="N30" t="n">
+        <v>12.30281889368398</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3.714517216084286</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6908035503126435</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>RUG290</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>14.3108723140748</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8.226177394338041</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4.7534436709958</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.703963740592092</v>
+      </c>
+      <c r="F31" t="n">
+        <v>13.30725982737126</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.3093682474220306</v>
+      </c>
+      <c r="H31" t="n">
+        <v>11.29550558479928</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.752133770945098</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.697301931427411</v>
+      </c>
+      <c r="K31" t="n">
+        <v>10.28282922187848</v>
+      </c>
+      <c r="L31" t="n">
+        <v>6.979401932417185</v>
+      </c>
+      <c r="M31" t="n">
+        <v>9.266985748124895</v>
+      </c>
+      <c r="N31" t="n">
+        <v>12.30300468091225</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3.715801428339331</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.6907445431602357</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>RUG368</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>14.31088039588524</v>
+      </c>
+      <c r="C32" t="n">
+        <v>8.226538040112716</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.753597535158687</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.704058986500502</v>
+      </c>
+      <c r="F32" t="n">
+        <v>13.30734728783691</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.3094216204777954</v>
+      </c>
+      <c r="H32" t="n">
+        <v>11.2957174722626</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.75322576648163</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.697397734846963</v>
+      </c>
+      <c r="K32" t="n">
+        <v>10.281361663298</v>
+      </c>
+      <c r="L32" t="n">
+        <v>6.998568824246654</v>
+      </c>
+      <c r="M32" t="n">
+        <v>9.267464482453979</v>
+      </c>
+      <c r="N32" t="n">
+        <v>12.30304102603469</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3.715150695134516</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.6907029077681978</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>RUG835</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>14.31086685683375</v>
+      </c>
+      <c r="C33" t="n">
+        <v>8.223601286078292</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4.752618169647296</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.703776823846066</v>
+      </c>
+      <c r="F33" t="n">
+        <v>13.30746877129147</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.3094529749535201</v>
+      </c>
+      <c r="H33" t="n">
+        <v>11.29560552569933</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.7530329787069</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.697175979365139</v>
+      </c>
+      <c r="K33" t="n">
+        <v>10.28399907979612</v>
+      </c>
+      <c r="L33" t="n">
+        <v>6.998512211674768</v>
+      </c>
+      <c r="M33" t="n">
+        <v>9.266704935687741</v>
+      </c>
+      <c r="N33" t="n">
+        <v>12.30302449326429</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3.714654068140897</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.69082111910661</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>RUG202</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>14.31091726834269</v>
+      </c>
+      <c r="C34" t="n">
+        <v>8.225428375649384</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4.752657241485698</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.703990518184525</v>
+      </c>
+      <c r="F34" t="n">
+        <v>13.30754075972031</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.3094553126945935</v>
+      </c>
+      <c r="H34" t="n">
+        <v>11.29565828019168</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5.753808445036396</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.69714294083355</v>
+      </c>
+      <c r="K34" t="n">
+        <v>10.28291443815313</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6.992777866859274</v>
+      </c>
+      <c r="M34" t="n">
+        <v>9.265772859804423</v>
+      </c>
+      <c r="N34" t="n">
+        <v>12.30305743682665</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3.715016976220757</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.6907521159008939</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>RUG074</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>14.31098297924443</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8.231602195690396</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4.753496587738553</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.704265998184756</v>
+      </c>
+      <c r="F35" t="n">
+        <v>13.30714222171943</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.6906723290374939</v>
+      </c>
+      <c r="H35" t="n">
+        <v>11.29594332288161</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.751606847856207</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.697445553824914</v>
+      </c>
+      <c r="K35" t="n">
+        <v>10.27728196237173</v>
+      </c>
+      <c r="L35" t="n">
+        <v>7.020480953799393</v>
+      </c>
+      <c r="M35" t="n">
+        <v>9.268501454248449</v>
+      </c>
+      <c r="N35" t="n">
+        <v>12.30304469612741</v>
+      </c>
+      <c r="O35" t="n">
+        <v>3.71611406023868</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-0.309363490938328</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>RUG105</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>14.31093376813783</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8.226765836810523</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4.75342204766779</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.703930911306736</v>
+      </c>
+      <c r="F36" t="n">
+        <v>13.30753833786254</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.3094892268334557</v>
+      </c>
+      <c r="H36" t="n">
+        <v>11.29597809198177</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5.752640550845704</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.697299421179851</v>
+      </c>
+      <c r="K36" t="n">
+        <v>10.2814883318945</v>
+      </c>
+      <c r="L36" t="n">
+        <v>7.003412245565962</v>
+      </c>
+      <c r="M36" t="n">
+        <v>9.266221594246337</v>
+      </c>
+      <c r="N36" t="n">
+        <v>12.303087993861</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3.714733869825794</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.6907828926336999</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>RUG726</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>14.31098762168631</v>
+      </c>
+      <c r="C37" t="n">
+        <v>8.230847089846554</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4.753581635059248</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2.704116526100394</v>
+      </c>
+      <c r="F37" t="n">
+        <v>13.30723651659131</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.3093993219679316</v>
+      </c>
+      <c r="H37" t="n">
+        <v>11.29599738936082</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.751821183074441</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.697405856538407</v>
+      </c>
+      <c r="K37" t="n">
+        <v>10.27873538086424</v>
+      </c>
+      <c r="L37" t="n">
+        <v>7.02293563322987</v>
+      </c>
+      <c r="M37" t="n">
+        <v>9.267717735185766</v>
+      </c>
+      <c r="N37" t="n">
+        <v>12.30305643294809</v>
+      </c>
+      <c r="O37" t="n">
+        <v>3.715375200793752</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.6906919986309419</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>RUG110</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>14.31089256458027</v>
+      </c>
+      <c r="C38" t="n">
+        <v>8.226683482735323</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4.753330886556523</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.703943001448372</v>
+      </c>
+      <c r="F38" t="n">
+        <v>13.30743438788303</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.3094227209259858</v>
+      </c>
+      <c r="H38" t="n">
+        <v>11.29579731961938</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5.752922995843885</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.697277305242935</v>
+      </c>
+      <c r="K38" t="n">
+        <v>10.28219387493784</v>
+      </c>
+      <c r="L38" t="n">
+        <v>6.999333558229517</v>
+      </c>
+      <c r="M38" t="n">
+        <v>9.265816578617731</v>
+      </c>
+      <c r="N38" t="n">
+        <v>12.30306777222308</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3.715270834254105</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.69072404704944</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>RUG468</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>14.31086567134811</v>
+      </c>
+      <c r="C39" t="n">
+        <v>8.221493855134845</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4.753522810844967</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.703714242793766</v>
+      </c>
+      <c r="F39" t="n">
+        <v>13.30753853730995</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.309447580091208</v>
+      </c>
+      <c r="H39" t="n">
+        <v>11.29558197383031</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.752239948134156</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.697158728093994</v>
+      </c>
+      <c r="K39" t="n">
+        <v>10.28440296794128</v>
+      </c>
+      <c r="L39" t="n">
+        <v>6.981221553844338</v>
+      </c>
+      <c r="M39" t="n">
+        <v>9.267197743869888</v>
+      </c>
+      <c r="N39" t="n">
+        <v>12.3028985646631</v>
+      </c>
+      <c r="O39" t="n">
+        <v>3.71487557494456</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.6908526817764511</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>RUG203</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>14.3108997690406</v>
+      </c>
+      <c r="C40" t="n">
+        <v>8.225851745235065</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4.753381220141189</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.703975134405898</v>
+      </c>
+      <c r="F40" t="n">
+        <v>13.30743004625623</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.3094335379500339</v>
+      </c>
+      <c r="H40" t="n">
+        <v>11.29574081348728</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5.753275354963026</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.697243237422774</v>
+      </c>
+      <c r="K40" t="n">
+        <v>10.28226616825689</v>
+      </c>
+      <c r="L40" t="n">
+        <v>6.98912313881734</v>
+      </c>
+      <c r="M40" t="n">
+        <v>9.266348507399037</v>
+      </c>
+      <c r="N40" t="n">
+        <v>12.30310774470711</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3.715232195072197</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.6907273360051335</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>RUG581</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>14.31089679995726</v>
+      </c>
+      <c r="C41" t="n">
+        <v>8.2247385521148</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4.753574566975124</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.704008012210669</v>
+      </c>
+      <c r="F41" t="n">
+        <v>13.3073658997501</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.3094157126335266</v>
+      </c>
+      <c r="H41" t="n">
+        <v>11.2954772444813</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5.753595253947135</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.697158804156287</v>
+      </c>
+      <c r="K41" t="n">
+        <v>10.28258960226958</v>
+      </c>
+      <c r="L41" t="n">
+        <v>6.976307921084619</v>
+      </c>
+      <c r="M41" t="n">
+        <v>9.26684570551855</v>
+      </c>
+      <c r="N41" t="n">
+        <v>12.30314054322056</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3.715457306814776</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.6907914369705073</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>RUG651</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>14.31091351058129</v>
+      </c>
+      <c r="C42" t="n">
+        <v>8.226386690887482</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.753056064714245</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.704039009209204</v>
+      </c>
+      <c r="F42" t="n">
+        <v>13.30744697551948</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.3094342894137188</v>
+      </c>
+      <c r="H42" t="n">
+        <v>11.29568899709158</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5.753662012291754</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.697250299354624</v>
+      </c>
+      <c r="K42" t="n">
+        <v>10.28216685395817</v>
+      </c>
+      <c r="L42" t="n">
+        <v>6.99663695047752</v>
+      </c>
+      <c r="M42" t="n">
+        <v>9.266154329854503</v>
+      </c>
+      <c r="N42" t="n">
+        <v>12.30305444996926</v>
+      </c>
+      <c r="O42" t="n">
+        <v>3.715161661823819</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.6907136070369009</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>RUG527</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>14.31092175793561</v>
+      </c>
+      <c r="C43" t="n">
+        <v>8.228528226305174</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4.754130743546137</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.704145523129391</v>
+      </c>
+      <c r="F43" t="n">
+        <v>13.30742040080223</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.3094176281923616</v>
+      </c>
+      <c r="H43" t="n">
+        <v>11.29589825757493</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.752240957935337</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.69738450796026</v>
+      </c>
+      <c r="K43" t="n">
+        <v>10.27996815399124</v>
+      </c>
+      <c r="L43" t="n">
+        <v>6.998563992895797</v>
+      </c>
+      <c r="M43" t="n">
+        <v>9.266952101172119</v>
+      </c>
+      <c r="N43" t="n">
+        <v>12.30307066909925</v>
+      </c>
+      <c r="O43" t="n">
+        <v>3.715323836906077</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6907174034218009</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>RUG277</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>14.31088948839314</v>
+      </c>
+      <c r="C44" t="n">
+        <v>8.222304673601117</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.752958578584875</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.703873002764996</v>
+      </c>
+      <c r="F44" t="n">
+        <v>13.30749033614453</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.3094659400442459</v>
+      </c>
+      <c r="H44" t="n">
+        <v>11.29567742817161</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5.753754952915454</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.697154557343671</v>
+      </c>
+      <c r="K44" t="n">
+        <v>10.28378699233726</v>
+      </c>
+      <c r="L44" t="n">
+        <v>6.982137857019741</v>
+      </c>
+      <c r="M44" t="n">
+        <v>9.266612524019546</v>
+      </c>
+      <c r="N44" t="n">
+        <v>12.30305011336974</v>
+      </c>
+      <c r="O44" t="n">
+        <v>3.714806652377018</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6908111494878926</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>RUG447</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>14.31097374536423</v>
+      </c>
+      <c r="C45" t="n">
+        <v>8.228850668148857</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4.753313475801352</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.704160933801751</v>
+      </c>
+      <c r="F45" t="n">
+        <v>13.30741237633451</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.3093976838766032</v>
+      </c>
+      <c r="H45" t="n">
+        <v>11.29597690056037</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5.751566202839947</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.697370581397381</v>
+      </c>
+      <c r="K45" t="n">
+        <v>10.27967845264168</v>
+      </c>
+      <c r="L45" t="n">
+        <v>7.012317194765038</v>
+      </c>
+      <c r="M45" t="n">
+        <v>9.267381945168744</v>
+      </c>
+      <c r="N45" t="n">
+        <v>12.30298968413085</v>
+      </c>
+      <c r="O45" t="n">
+        <v>3.715330435542417</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.6906899616786251</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>RUG109</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>14.31098999125068</v>
+      </c>
+      <c r="C46" t="n">
+        <v>8.233536920573506</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5.754184949739054</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.704243192341829</v>
+      </c>
+      <c r="F46" t="n">
+        <v>13.30696070346988</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.690649210887638</v>
+      </c>
+      <c r="H46" t="n">
+        <v>11.29589045747514</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4.750205681775511</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.697481128343792</v>
+      </c>
+      <c r="K46" t="n">
+        <v>10.27726423764076</v>
+      </c>
+      <c r="L46" t="n">
+        <v>7.031297218403523</v>
+      </c>
+      <c r="M46" t="n">
+        <v>9.268991154749814</v>
+      </c>
+      <c r="N46" t="n">
+        <v>12.30305007887716</v>
+      </c>
+      <c r="O46" t="n">
+        <v>3.715920514828086</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-0.3093237851878453</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>RUG155</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>14.31086550883819</v>
+      </c>
+      <c r="C47" t="n">
+        <v>8.223355762492938</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4.752686248997048</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2.703778734369375</v>
+      </c>
+      <c r="F47" t="n">
+        <v>13.30749575942373</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.3094569353171451</v>
+      </c>
+      <c r="H47" t="n">
+        <v>11.29561489333375</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5.753084000451266</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.697143035867466</v>
+      </c>
+      <c r="K47" t="n">
+        <v>10.28402068116835</v>
+      </c>
+      <c r="L47" t="n">
+        <v>6.983484622826537</v>
+      </c>
+      <c r="M47" t="n">
+        <v>9.266391412776128</v>
+      </c>
+      <c r="N47" t="n">
+        <v>12.30312693885888</v>
+      </c>
+      <c r="O47" t="n">
+        <v>3.714868981702791</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.6908214300827819</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>RUG218</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>14.3108799355459</v>
+      </c>
+      <c r="C48" t="n">
+        <v>8.220886235797074</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4.753712505164893</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.703772694891126</v>
+      </c>
+      <c r="F48" t="n">
+        <v>13.30763595805236</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.309481934825537</v>
+      </c>
+      <c r="H48" t="n">
+        <v>11.29551802362974</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5.752801304472507</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.697208107071105</v>
+      </c>
+      <c r="K48" t="n">
+        <v>10.28497892871998</v>
+      </c>
+      <c r="L48" t="n">
+        <v>6.979020580675236</v>
+      </c>
+      <c r="M48" t="n">
+        <v>9.266445884095369</v>
+      </c>
+      <c r="N48" t="n">
+        <v>12.30284117307409</v>
+      </c>
+      <c r="O48" t="n">
+        <v>3.714377697036906</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.6908577197125458</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>RUG718</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>14.3109854899107</v>
+      </c>
+      <c r="C49" t="n">
+        <v>8.230074852209036</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4.752762613403841</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2.703961921156869</v>
+      </c>
+      <c r="F49" t="n">
+        <v>13.30734134639612</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.3094285764294132</v>
+      </c>
+      <c r="H49" t="n">
+        <v>11.2959521276508</v>
+      </c>
+      <c r="I49" t="n">
+        <v>5.752614145569059</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.697234549002179</v>
+      </c>
+      <c r="K49" t="n">
+        <v>10.28042258840226</v>
+      </c>
+      <c r="L49" t="n">
+        <v>7.015138481849004</v>
+      </c>
+      <c r="M49" t="n">
+        <v>9.266495006122108</v>
+      </c>
+      <c r="N49" t="n">
+        <v>12.30309986789457</v>
+      </c>
+      <c r="O49" t="n">
+        <v>3.715380872192938</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.690705991928307</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="inlineStr">
+        <is>
+          <t>RUG516</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>14.31091100324242</v>
+      </c>
+      <c r="C50" t="n">
+        <v>8.227320030797843</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4.752291171380461</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2.703972388684661</v>
+      </c>
+      <c r="F50" t="n">
+        <v>13.30740088837466</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.3094367584641095</v>
+      </c>
+      <c r="H50" t="n">
+        <v>11.29576454219992</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5.753527571893318</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.697211782804197</v>
+      </c>
+      <c r="K50" t="n">
+        <v>10.28122185814535</v>
+      </c>
+      <c r="L50" t="n">
+        <v>7.00341298485026</v>
+      </c>
+      <c r="M50" t="n">
+        <v>9.266758871823058</v>
+      </c>
+      <c r="N50" t="n">
+        <v>12.30327183118342</v>
+      </c>
+      <c r="O50" t="n">
+        <v>3.715319490800134</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.6907161260892118</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>RUG426</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>14.31085802521374</v>
+      </c>
+      <c r="C51" t="n">
+        <v>8.21957427462581</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4.75260663497206</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.703795349337199</v>
+      </c>
+      <c r="F51" t="n">
+        <v>13.30751869175888</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.3094583122352324</v>
+      </c>
+      <c r="H51" t="n">
+        <v>11.29537715491525</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5.75345388687909</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.697161201279641</v>
+      </c>
+      <c r="K51" t="n">
+        <v>10.28568687392312</v>
+      </c>
+      <c r="L51" t="n">
+        <v>6.972760791072451</v>
+      </c>
+      <c r="M51" t="n">
+        <v>9.266239224844256</v>
+      </c>
+      <c r="N51" t="n">
+        <v>12.30296892470167</v>
+      </c>
+      <c r="O51" t="n">
+        <v>3.714722407880852</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.6908517427609726</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>RUG270</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>14.31089211274893</v>
+      </c>
+      <c r="C52" t="n">
+        <v>8.221762315907423</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4.753171035986613</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.703712618025335</v>
+      </c>
+      <c r="F52" t="n">
+        <v>13.30757688997885</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.3094444467209898</v>
+      </c>
+      <c r="H52" t="n">
+        <v>11.2955690765774</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5.7531354040367</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.697139231204547</v>
+      </c>
+      <c r="K52" t="n">
+        <v>10.28421343053261</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.98185826720911</v>
+      </c>
+      <c r="M52" t="n">
+        <v>9.267010532808563</v>
+      </c>
+      <c r="N52" t="n">
+        <v>12.30289642320717</v>
+      </c>
+      <c r="O52" t="n">
+        <v>3.714758361631546</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.6908455640961544</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="inlineStr">
+        <is>
+          <t>RUG834</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>14.31092805504268</v>
+      </c>
+      <c r="C53" t="n">
+        <v>8.225797636390817</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4.753370674786371</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.703944029564908</v>
+      </c>
+      <c r="F53" t="n">
+        <v>13.30752940305101</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-0.3095064068793745</v>
+      </c>
+      <c r="H53" t="n">
+        <v>11.29582454139879</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5.753651491055489</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.697170258705551</v>
+      </c>
+      <c r="K53" t="n">
+        <v>10.2826431600249</v>
+      </c>
+      <c r="L53" t="n">
+        <v>7.003805472961066</v>
+      </c>
+      <c r="M53" t="n">
+        <v>9.265715096483579</v>
+      </c>
+      <c r="N53" t="n">
+        <v>12.30309105967418</v>
+      </c>
+      <c r="O53" t="n">
+        <v>3.714572707275793</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.6907740336103049</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>RUG370</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>14.31095966451396</v>
+      </c>
+      <c r="C54" t="n">
+        <v>8.227289519011734</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4.753485290535728</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2.703962550840135</v>
+      </c>
+      <c r="F54" t="n">
+        <v>13.30726099894101</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.309417593075459</v>
+      </c>
+      <c r="H54" t="n">
+        <v>11.29576720980508</v>
+      </c>
+      <c r="I54" t="n">
+        <v>5.752934896911087</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.697223937094193</v>
+      </c>
+      <c r="K54" t="n">
+        <v>10.28177029395148</v>
+      </c>
+      <c r="L54" t="n">
+        <v>6.994077324066953</v>
+      </c>
+      <c r="M54" t="n">
+        <v>9.267052967356305</v>
+      </c>
+      <c r="N54" t="n">
+        <v>12.30302152871775</v>
+      </c>
+      <c r="O54" t="n">
+        <v>3.715297587006091</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.6907672447319069</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>RUG522</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>14.31093270548693</v>
+      </c>
+      <c r="C55" t="n">
+        <v>8.226769702436673</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4.754183236119349</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.704148610754357</v>
+      </c>
+      <c r="F55" t="n">
+        <v>13.30739287956011</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.3094262576304484</v>
+      </c>
+      <c r="H55" t="n">
+        <v>11.29581533451676</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5.752481344439142</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.697371017133669</v>
+      </c>
+      <c r="K55" t="n">
+        <v>10.28069563452634</v>
+      </c>
+      <c r="L55" t="n">
+        <v>6.992148872520683</v>
+      </c>
+      <c r="M55" t="n">
+        <v>9.266889881975995</v>
+      </c>
+      <c r="N55" t="n">
+        <v>12.30308199548</v>
+      </c>
+      <c r="O55" t="n">
+        <v>3.715347283740619</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.6907263606974321</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>RUG135</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>14.3108499767564</v>
+      </c>
+      <c r="C56" t="n">
+        <v>8.227314341120859</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4.752099342718878</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2.703877803109367</v>
+      </c>
+      <c r="F56" t="n">
+        <v>13.30718491677074</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.3093582725844204</v>
+      </c>
+      <c r="H56" t="n">
+        <v>11.29561932215146</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5.751578123518526</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.697235926980661</v>
+      </c>
+      <c r="K56" t="n">
+        <v>10.28210482354938</v>
+      </c>
+      <c r="L56" t="n">
+        <v>7.001413715377173</v>
+      </c>
+      <c r="M56" t="n">
+        <v>9.268120516032118</v>
+      </c>
+      <c r="N56" t="n">
+        <v>12.30322398267378</v>
+      </c>
+      <c r="O56" t="n">
+        <v>3.715814904013238</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.6906918195329415</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>RUG509</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>14.31089620753366</v>
+      </c>
+      <c r="C57" t="n">
+        <v>8.223124659369509</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4.753423854813779</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.703857088910706</v>
+      </c>
+      <c r="F57" t="n">
+        <v>13.30745815515655</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.3094550502199233</v>
+      </c>
+      <c r="H57" t="n">
+        <v>11.29557028573034</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5.752422321533512</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.697182962126535</v>
+      </c>
+      <c r="K57" t="n">
+        <v>10.28420406025337</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6.985385671885199</v>
+      </c>
+      <c r="M57" t="n">
+        <v>9.26658790046136</v>
+      </c>
+      <c r="N57" t="n">
+        <v>12.30297680917064</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3.714697268660299</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.690840451678485</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="inlineStr">
+        <is>
+          <t>RUG385</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>14.31081976237021</v>
+      </c>
+      <c r="C58" t="n">
+        <v>8.216568982019361</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4.753396981091584</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.703618104464227</v>
+      </c>
+      <c r="F58" t="n">
+        <v>13.30748830071921</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-0.309417966086509</v>
+      </c>
+      <c r="H58" t="n">
+        <v>11.29523034472646</v>
+      </c>
+      <c r="I58" t="n">
+        <v>5.753207937607341</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.697025659918669</v>
+      </c>
+      <c r="K58" t="n">
+        <v>10.28730817469308</v>
+      </c>
+      <c r="L58" t="n">
+        <v>6.957780139702594</v>
+      </c>
+      <c r="M58" t="n">
+        <v>9.266346413591069</v>
+      </c>
+      <c r="N58" t="n">
+        <v>12.3027825565649</v>
+      </c>
+      <c r="O58" t="n">
+        <v>3.715011913097391</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.6908879511865507</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>RUG394</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>14.31093768009299</v>
+      </c>
+      <c r="C59" t="n">
+        <v>8.230370476800337</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5.75521649711709</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2.704292316795551</v>
+      </c>
+      <c r="F59" t="n">
+        <v>13.30719380613282</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.3093556030986681</v>
+      </c>
+      <c r="H59" t="n">
+        <v>11.29580511292216</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4.750003884038581</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.697478293576961</v>
+      </c>
+      <c r="K59" t="n">
+        <v>10.27868322344498</v>
+      </c>
+      <c r="L59" t="n">
+        <v>7.006259864953423</v>
+      </c>
+      <c r="M59" t="n">
+        <v>9.268846280092063</v>
+      </c>
+      <c r="N59" t="n">
+        <v>12.30292797395304</v>
+      </c>
+      <c r="O59" t="n">
+        <v>3.715749692804771</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.6906971766159442</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>f__Dysgonomonadaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>f__Marinilabiliaceae</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>f__PUMT01</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>f__Prolixibacteraceae</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+      <c r="L1" s="6" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+      <c r="M1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA7960</t>
+        </is>
+      </c>
+      <c r="N1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="O1" s="6" t="inlineStr">
+        <is>
+          <t>f__VadinHA17</t>
+        </is>
+      </c>
+      <c r="P1" s="6" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+      <c r="Q1" s="6" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>RUG464</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.07904191336925176</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.02094957004376651</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04916144450941702</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.02432208308629203</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1665362809191309</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.01429069760186354</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.05912762649716762</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.07574724318975155</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0238413625835012</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.2526290626812892</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.03560664309960684</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.02063254758534878</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.08524966495005526</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.02185898687446272</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.07100487300909521</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>RUG682</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.07775755805152403</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.02098388637398341</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04793121708244352</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.02254787833885099</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1609396660356239</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.01933122560984099</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.05858772984826346</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0539521247835943</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.02075693023895945</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2544145975906383</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.03487220903963729</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.02444305103903778</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.1016334378356774</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.02726130480666158</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.07458718332526411</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>RUG299</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.05182588630440089</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02337689833019627</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0528690702127011</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.02225898298951115</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1481800358194327</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01795938720450426</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.06100221675990528</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.03962666610023836</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.02593736183879305</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2906300976989384</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.04178995881636691</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.02628909358181752</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.08374672994625733</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.02022470866469164</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.09428290573224535</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>RUG846</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.05837691185045544</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.02345958894546278</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05131863704416482</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.02316756840248855</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1223017042004921</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.01674879968903377</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.08075017252071555</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0733508561281061</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0237621477050657</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2075311145702034</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.09419528240437937</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.02445580869861714</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1048470621161163</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.02712068415798937</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.06861366156670942</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>RUG271</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.04124173283717568</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.01763397540305354</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02915847006986215</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.01553496629845687</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1418648523079245</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.02389249318579436</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.04442808140904684</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.03967388195141865</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.01778854350456798</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2740613281368346</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.02350986712261514</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.03299316720795997</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1043952583538345</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.02398663609001781</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.169836746121438</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>RUG196</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2885352205236251</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.02336473971810069</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03837153593345258</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01792029132596503</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1755385778025164</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01374706371180705</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1690987412124237</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.02087268028041435</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.02350027085708643</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.03295388509200427</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.03643956607236264</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.01335113668470131</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.09372942075965043</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.02768335638601023</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.02489351363987966</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>RUG138</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.06241454721549902</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01840154001478312</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.05180793135977472</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.02050023944297736</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1285819860937955</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02763206618132277</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0465855447668925</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.04802532846211682</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.02169930351042941</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2703984971484001</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.02663330307523293</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.02621151708986765</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.07397465457846492</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.03557097226502882</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.1415625687954142</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>RUG366</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1286988168446374</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0259989763718916</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.133819979229045</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.02948762337594901</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1347864170280208</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01672790616420917</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1772197826480867</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.02337513885352266</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.03512368399018702</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.07085475756712777</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.03559017672062289</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.01578536195551095</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.06944183720998452</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.0273928414112584</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.075696700629946</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>RUG008</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.02931075231337129</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02176979420636677</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2325952803706191</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.06536283771555644</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01333234544650048</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.08706037746094074</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.04678130291549886</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.02834461778527732</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1090023323897641</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.03083476267679001</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.03439370055059637</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0506827348933872</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.02378452520823069</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.1265010463928436</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.1002435896742569</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>RUG543</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.05889066427097201</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01780631302529517</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.03373236622858072</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.01469956185349565</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.149943999679396</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.02082913980377777</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.05397779720786449</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.03399969485440855</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.02050175534479522</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2433752047485671</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.03364059028249758</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.02736692056154391</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0764936625373458</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.01955214907681582</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.1951901805246445</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>RUG566</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.07361664697748968</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0201180359205997</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.04541138136201519</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0210316008470738</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.194954710795036</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.01866339831633642</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.07692716016515296</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.08496373957189843</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.02704863504455972</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.188706966987603</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.03886370548600842</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.01887613163457564</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.1114426789833969</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.02847986892163927</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.0508953389866145</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>RUG090</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0914740285710056</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02475378110210007</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.03815678932091643</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.02169610829154002</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.08395279693829819</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02102901807665737</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1380305063087554</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.07004739716703361</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.02494919439255405</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1560627451053681</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.08422005905881852</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.02875564041360629</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.119456271422981</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.03685685237100095</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0605588114593647</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>RUG665</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0457616484371394</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01742310283481357</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.03322816669816168</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.01670785254781331</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1278506991465414</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02340008526778719</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.04245454339000661</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.03430454574284099</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01880671216847348</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2736205379848068</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.02301817512183046</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0310772484711402</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0715631282882694</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.02079264606394707</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.2199909078364282</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>RUG189</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1153352189123869</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.02288900787224418</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.06655531669105028</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0284772416118436</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.08804930663384254</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.02048915478327808</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1680528152574056</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.06536809212794652</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.02484972886242241</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.08375766095103293</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.08105836610003958</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.01750845747748063</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1308319866374609</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.03235031929942023</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.05442732678214538</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>RUG081</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.2643768289002968</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0184621851858402</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.03997431467489995</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.01801512283424305</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1757682214330382</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01452964346224713</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.178596642128637</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.01442530175714962</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01912639650988051</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.04781524485507349</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.03451234531368326</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.01740803930242678</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.1021800500117157</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.01996170896091932</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.03484795466994942</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>RUG845</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.04894295134399312</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.02021575812233191</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.04962142303638001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0192746761433919</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1466380770201687</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.01932663304392854</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.06978824389330202</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.05527496024734128</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.03437838315423632</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.2521299993913583</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.05413378200528037</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.02653959396371891</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.1092175360085562</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0258974592807401</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.06862052334527272</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>RUG341</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.05104897251232948</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01815945784989065</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.03594680684551919</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.01915592790404734</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1305434295539305</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01991697191787565</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.04077992554253464</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.03419114415975407</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.02253734846868329</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.2678345575987778</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.02363237911718071</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.03113502286653665</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.07395840526766721</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.0195924295706638</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.2115672208246093</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>RUG365</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.05601071176033252</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.02170599281232636</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.03336290095119704</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.01959647233371578</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1491001809594379</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01884199393487461</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.05133940803477967</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.03878744740310765</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.02299822385270436</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.2769920992942294</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.0321552880233469</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.02507634400568663</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.09910926819481654</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.01891657302123417</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.1360070954182105</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>RUG605</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.07331226155588717</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01823348439109224</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.06730175810375311</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.02212381700664569</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.07562084620431432</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0242801486801572</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.05777345827240894</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.05416684321950497</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.02192576857936077</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2510134885958849</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.0244617616697596</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.02404812551492423</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.07710489992671291</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.03077488551887513</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.177858452760719</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>RUG794</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.07036714803183881</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.02078889673599597</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.04852622281199875</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.02791566150112227</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1836675435379961</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01594184206552847</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1004185538530545</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.04925329540227377</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.02849520721164973</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1917460224831788</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.03474928435211837</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.01815728439326456</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.1244035918854269</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.02759778498159304</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.0579716607529597</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>RUG230</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1396909224550689</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.01662289251217959</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.05634218928910366</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.01913249748950291</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.09235545195300146</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.02492020660391952</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.03985073089786283</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.04621155241446739</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.02070431222090093</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.2286029322832369</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.02127896238881198</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.03035851947519793</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.05349255474653843</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.02433092572002652</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.1861053495501805</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>RUG041</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1239710276643551</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.02219762952675296</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.04500327873232616</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.01909772242289818</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1018353437436174</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01747435868826352</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1792630896798284</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0407697316497633</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.01971775887312354</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.1050808481279476</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.07454703266623207</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.01810802608909303</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.1441921844816438</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.02966919336959609</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.05907277428455892</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>RUG272</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1208168642946069</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.02058308600537419</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.06745793335263341</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.04390660053211835</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1333090089344381</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01838208143645964</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1410191794850116</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1195797961044242</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.03009864539619448</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.06089670235616685</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.04144136552209123</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.01813367554150476</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.1087645132364643</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.02696022140390952</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.04865032639860307</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>RUG026</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5059817406631942</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0167578418118324</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1270039666059801</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.04550941100659219</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.006234826415100032</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01346918516940522</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.02418291980814145</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.02274518506295897</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.01679314402969303</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.03366656129272483</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.02394566644659244</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.01506598225496622</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.009737831338612737</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.0944888711022662</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.04441686699193963</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>RUG333</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.07596270890807975</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.01594330563280782</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.05502659203888023</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.01983579614066803</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.2740265210816247</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01486475038993647</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.07139960792874665</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.03360742966722475</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.02088464807671956</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.09897307292331092</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.02559800241578918</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.01565637082228478</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.1905263707167317</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.02276673974773003</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.06492808350946574</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>RUG641</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.05724025750032249</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0194457053614998</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.05399609077857982</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.01973195252094129</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1036168344543027</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02808045304448698</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.08108500356539386</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.05606290136460283</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.02339777869652884</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.2115746558465272</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.05564960949648601</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.03930238661687448</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.118586047346163</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.043043137137678</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.08918718626961269</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>RUG449</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.08682825379462591</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01940532226968684</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.03963078475433771</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.01895728555164801</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1493625053671322</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01945457977756158</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.06894608452952153</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.07399506355339849</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.01946465901466328</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.218097379618846</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.03426534016171293</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.02069269748941424</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.0819148710074747</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.02267370195150417</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.1263114711584724</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>RUG637</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.05905327358970906</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0183710220057879</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.04662285800530667</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0175458803466168</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1059760264845577</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02399030207146036</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.04161484004660183</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0427674555011863</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.02127958636849891</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.2796313634089664</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.02611290877931019</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.03244050434362315</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.07360876820561828</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.0273330657615452</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.183652145081211</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>RUG217</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.07280943628967981</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.02105557596782179</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.04602547230799604</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.01720219233321263</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.1401645968167635</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01610117044303689</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.08514767751756561</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.04884526276044417</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.02433900956807408</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.2332758582539838</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.05512319667301051</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.02109447197690521</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.05499197115799402</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.01713227121435843</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.1466918367191535</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>RUG290</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.06280715311125734</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.02020278380859302</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.07398042593861415</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.02293365824555341</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.08425719735141432</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03121863627146135</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.06498123812599062</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.04801671059624325</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.03276632361539728</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.2255686387363919</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.0249654939406536</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.02596315151699143</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.09553525857060664</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.05220127974211988</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.1346020504287111</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>RUG368</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0707320904468931</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01668110709975925</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.09143871235179088</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.02635165283368369</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.1668929065659353</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0178697685090801</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.08108328348793975</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.07953247261011077</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0438043082635923</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1457429565448599</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.04012644814239825</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.02352117004159083</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.1146929248823734</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.02501021038133132</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.05651998783866133</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>RUG835</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.04822562980669501</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01948126071999393</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.03230501997674502</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.01600815285927661</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1447925510921649</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0212117384731845</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.048201116302669</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0437505962983761</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.02017340210656927</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.2457595169875918</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.04635074539661634</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0244519689259643</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.07815906486597222</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.01762048548362597</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.1935087507045551</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>RUG202</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.07379582723023906</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.02006763099926583</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.03801805088656041</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.02158573776352017</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.1937694623607363</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0165007831618444</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.05388354668000808</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.06061873832159531</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.02000688057477832</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.2428059657548482</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.03249835476066897</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.02004797163328207</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.1179431015201453</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.02236827419139409</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.06608967416111378</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>RUG074</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.218511506941235</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.02311474742036205</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.08522221777119973</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.03735336390929345</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.06164119098506222</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03120990265882173</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.1975973585491559</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.02963631789757895</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.04562370053051507</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.02494835293616346</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.03718837521805704</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.02640131303323164</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.08178275660876266</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.05537507059430985</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.04439382494625031</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>RUG105</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.05585459349044691</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0150671719394152</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.03636379217877531</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.01545324055162419</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.2640457775503498</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0129408517238862</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0862780346189676</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.02962836833902453</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.02123242457348805</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1320165133345141</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.02692473286807298</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0138675092604234</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.09428561204514498</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.01414874170249412</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.1818926358233729</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>RUG726</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1864002404002898</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.01939350399643962</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0750891028641734</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0179910704801496</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1056402631145169</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.01326674595054962</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.2259703956467483</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.02381366831332558</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.02922272034835185</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0464404372466028</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.04106660993753292</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.01237400698854119</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.08243730341366946</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.01766163541111903</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.1032322958879896</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>RUG110</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.05560748035097179</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.01923890217326586</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.05837730153966985</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.01977510503946226</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.2117336609478874</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.01852331233746159</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0869345254331496</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.05105618857977041</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.02660535579751746</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.1987490329036353</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.03725228960125767</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.01738385886272989</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.1217443494002308</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.02719930118805059</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.04981933584493919</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>RUG468</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.04881593667117894</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.01738392103277725</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.03968030094850024</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.01560585505764226</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1512147262752236</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02164443270578347</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0488541882737492</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.03365938574814116</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.02043444099568107</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.2394830871600549</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.02919637282571051</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.03193545352244871</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.06045770705139876</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.01949367983999369</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.2221405118917167</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>RUG203</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.06559799730464232</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.01749495043074318</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.05937029887395329</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.02098642028435696</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.1773684764014042</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.01728878036594005</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.07664872167987295</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.06056202952466858</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.02415774505408216</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.2091755364255199</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.02836501628675182</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.01935450045916082</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.1357162573103853</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.02531565058290094</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.06259761901561731</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>RUG581</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.07302969573769653</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01611331185733318</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.05538383348595893</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.02095298148205992</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1284361131797289</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.02164789349779392</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.03599990073144205</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.06266478608016543</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.01992988151063142</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.1923709628090335</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.02312053814227146</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.02286978053225401</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.1277824315891373</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.03150551289966316</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.1681923764648299</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>RUG651</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.07685075412723499</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.01841713300807635</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.05185898558771253</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.02378944279268244</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.1943404420093259</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.01689916566871304</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.06002623940484193</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.07742034647858535</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.02543606308958008</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.205023576440574</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.03400039058978859</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.01848229114182004</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.1214452308423497</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.02501436396010803</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.05099557485860742</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>RUG527</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.06759124604349206</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.01589478104640972</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.1091949387028148</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.02558921858845644</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.2454274282644533</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01516367979598286</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.1165482152558773</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.03306696529841824</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.03322518432004707</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.07136385761396698</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.02276595034115841</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0134032480908549</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.1348301205814723</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.02362657826425589</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.07230858779233938</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>RUG277</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.05613255429987467</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.01894055860908488</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.03843586585813327</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0204236413344716</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.157202155124329</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.01928465714485571</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.05383855265440144</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.0587965462915622</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.02228595293655193</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.2562063636396772</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.03141733543478113</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.02645426259839703</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.0924389927714315</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.02117981857527594</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.1269627427271727</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>RUG447</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.1061781558824959</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01420999548111567</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.05334139163778575</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.02517349904625753</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.3100784386771261</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.01555002664199922</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.1348003410758632</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.02098020134197763</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.02848548991623252</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.06833116417456399</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.0289011822750947</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.01373787851590773</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.1135569789497766</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.02078361500946028</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.04589164137434354</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>RUG109</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.1340314740644751</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.04843892360091405</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.1442974283205552</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.03199619149359771</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.01635763604705246</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.02710043310991993</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.143336176502658</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.02147072991513542</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.05923555859350254</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.02534095980843749</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.07712962502102295</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.03919471505673645</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.04705736563055556</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.03973484050378587</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.1452779423316515</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>RUG155</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.04801504197766392</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.01943251174855306</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.03214651839891011</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.01729850139805247</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.1502848261510169</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.01972709747731943</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.05026400929332973</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.03990150132814586</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.02002387216134002</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2569792471628746</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.02886398487966206</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.02424322778391308</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.1006271257586089</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.01968494601207213</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.172507588468538</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>RUG218</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.05838677950700779</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01938402955933824</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.04078791467022042</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.01854529517820509</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.1471180884797017</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02114921429104687</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.04422321875779468</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.03915356023376222</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.02367715973217539</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.261978920655092</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.03042942639787636</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.02628031615024194</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.06302165671636245</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.01798318676506777</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.1878812329061075</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>RUG718</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1150325075351948</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.02529050388852094</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.04073503795496058</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.01621728124969193</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.2065951908977334</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.01342539716063784</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.1536977295967462</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0408869731443627</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.01825851029513108</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.1077812286571229</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.03659767703951315</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.01372238382400311</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.1291045665800078</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.02414324510927259</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.05851176706710126</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="inlineStr">
+        <is>
+          <t>RUG516</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.04853501171672688</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.01285039179965365</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.02637750963589426</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.01386514095763913</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.2811680417646077</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.01047796427488824</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.06337689932013053</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.05146985519864914</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.01451977892318986</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.1324561010043558</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.02420927580661677</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.01269818377269068</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.2426257610730381</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.01918936076167023</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.04618072399024895</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>RUG426</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.05845119767461916</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.01894430543973772</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.03383548859549773</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.02023554834858276</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.1439880318372284</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.02187596135050051</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.04490194279727813</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.04859462505117173</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.02319109679724963</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.2832347832315942</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.02715407201879081</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.02877096656637295</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.08221057063951052</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.02111670090410305</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.1434947087477624</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>RUG270</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.06330703574646554</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01932951072597633</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.03939488680593684</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.01712003425713858</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.1637075372271902</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.02311897703448816</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.04807061285246898</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.04577796004461392</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.02165062393886329</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.2493160122334751</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.03261930545515213</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.03193307218130548</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.06861665824657612</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.02107113015608341</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.1549666430942656</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="inlineStr">
+        <is>
+          <t>RUG834</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.07085906157387303</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.02070469904061611</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.04484499594805034</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.01929578464207045</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.184095279597349</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0133747699380272</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.06784254906468802</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.05368276142900174</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.01970359018267636</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2247766400422489</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.03951430651840607</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.01926452846276292</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.1106788038855623</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.01744018431659993</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.09392204535806777</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>RUG370</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.1197473306836622</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.01937511443356083</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.06121269716260355</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.01951206476956245</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.09034674060361375</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.02093102603418961</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.08708323076387836</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.05690000076368854</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.02230532959349451</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.1602205321928671</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.02980772443331094</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.02028950426718311</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.07852838464561215</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.02546314845062294</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.1882771712021499</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>RUG522</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.07130302166467051</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.01397262954167579</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.1018058528733311</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.02779941676201721</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.2240592147459357</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.01609829554258154</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.09825550492716809</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.04129408676606323</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.03415647953312809</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.09745035502677744</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.02322768327142213</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.01583508425269479</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.1416914604329478</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.02681121494050583</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.06623969971908078</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>RUG135</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.04342633282905162</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.02243384440295868</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.04348691380316864</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.01791506990826037</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.09779580854560076</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.02778024574401358</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.1132201332248922</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.03940468662907636</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.02608543353505353</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2043302643027958</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.04511798157616528</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.04357199445205639</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.1657595815721948</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.04886828456642598</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.0608034249082855</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>RUG509</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.05641538746676732</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.01720924405838279</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.03701811402964458</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.01688848263217711</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.1213716867704684</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02148946916231774</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.04437699244887442</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.03292518533059796</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0197857549392849</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2409037072227991</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.02777092295774204</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.02265103010100008</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.06233366939465994</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.01663263191455477</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.2622277215707288</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="inlineStr">
+        <is>
+          <t>RUG385</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.05785379775158946</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.01925251295900365</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.04345141649686342</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.01768389705372151</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.1254678496294125</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02762317552438432</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.04386790278727763</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.04822716018318639</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.02007497579189154</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.2965265586614498</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.02612601532119391</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.0401540135982756</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.05855999776168595</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.0299713656196982</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.1451593608603658</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>RUG394</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.08343677991825685</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.02764752005753618</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.2097255597134852</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.04677338456266172</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.06369441350056793</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03162857088567205</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.1309026537744409</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.02506342403278475</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.06160515834193935</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.04445024380734881</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.03635054555721377</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.04918169713797416</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.05217657534698991</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.04083754299601926</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.09652593036710827</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/outputs/fft-o__Bacteroidales.xlsx
+++ b/outputs/fft-o__Bacteroidales.xlsx
@@ -20,6 +20,7 @@
     <sheet name="g__C941-RSVM-cl" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="g__Ruminococcus_E-RSVM" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="g__Ruminococcus_E-RSVM-cl" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="g__Ruminococcus_E-RF-cl" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -15717,6 +15718,3413 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>f__Dysgonomonadaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>f__Marinilabiliaceae</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>f__PUMT01</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>f__Prolixibacteraceae</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+      <c r="L1" s="6" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+      <c r="M1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA7960</t>
+        </is>
+      </c>
+      <c r="N1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="O1" s="6" t="inlineStr">
+        <is>
+          <t>f__VadinHA17</t>
+        </is>
+      </c>
+      <c r="P1" s="6" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+      <c r="Q1" s="6" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>RUG464</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>RUG682</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>RUG299</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>RUG846</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>RUG271</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>RUG196</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>RUG138</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>RUG366</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>RUG008</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>RUG543</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>RUG566</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>RUG090</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>RUG665</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>RUG189</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>RUG081</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>RUG845</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>RUG341</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>RUG365</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>RUG605</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>RUG794</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>RUG230</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>RUG041</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>RUG272</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>RUG026</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>RUG333</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>RUG641</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>RUG449</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>RUG637</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>RUG217</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>RUG290</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>RUG368</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>RUG835</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>RUG202</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>RUG074</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>RUG105</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>RUG726</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>RUG110</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>RUG468</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>RUG203</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>RUG581</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>RUG651</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>RUG527</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>RUG277</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>RUG447</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>RUG109</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>RUG155</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>RUG218</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>RUG718</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="inlineStr">
+        <is>
+          <t>RUG516</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>RUG426</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>RUG270</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="inlineStr">
+        <is>
+          <t>RUG834</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>RUG370</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>RUG522</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>RUG135</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>RUG509</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="inlineStr">
+        <is>
+          <t>RUG385</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>RUG394</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/outputs/fft-o__Bacteroidales.xlsx
+++ b/outputs/fft-o__Bacteroidales.xlsx
@@ -21,6 +21,7 @@
     <sheet name="g__Ruminococcus_E-RSVM" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="g__Ruminococcus_E-RSVM-cl" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="g__Ruminococcus_E-RF-cl" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="g__C941-RF-cl" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -19125,6 +19126,2102 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>f__Dysgonomonadaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>f__Marinilabiliaceae</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>f__PUMT01</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>f__Prolixibacteraceae</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+      <c r="L1" s="6" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+      <c r="M1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA7960</t>
+        </is>
+      </c>
+      <c r="N1" s="6" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="O1" s="6" t="inlineStr">
+        <is>
+          <t>f__VadinHA17</t>
+        </is>
+      </c>
+      <c r="P1" s="6" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+      <c r="Q1" s="6" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/outputs/fft-o__Bacteroidales.xlsx
+++ b/outputs/fft-o__Bacteroidales.xlsx
@@ -20,6 +20,7 @@
     <sheet name="g__Ruminococcus_E-RSVM-l" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="g__Ruminococcus_E-RF-l" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="g__Ruminococcus_E-LSVM-l" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="g__Ruminococcus_E-LSVM-l1" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -19891,6 +19892,3592 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>f__Dysgonomonadaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>f__Marinilabiliaceae</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>f__PUMT01</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+      <c r="I1" s="7" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
+      <c r="J1" s="7" t="inlineStr">
+        <is>
+          <t>f__Prolixibacteraceae</t>
+        </is>
+      </c>
+      <c r="K1" s="7" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+      <c r="L1" s="7" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+      <c r="M1" s="7" t="inlineStr">
+        <is>
+          <t>f__UBA7960</t>
+        </is>
+      </c>
+      <c r="N1" s="7" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="O1" s="7" t="inlineStr">
+        <is>
+          <t>f__VadinHA17</t>
+        </is>
+      </c>
+      <c r="P1" s="7" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+      <c r="Q1" s="7" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="R1" s="7" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>RUG464</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5915316948874112</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.333062826159315e-13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.3777160735223e-10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.185222867889754e-05</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.799025846583197e-07</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0231231670099477</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0213003337351074</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.05898692645154397</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.962305213673846e-06</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.259500355033878</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.06740028174421e-13</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.01987312757490045</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7.437060882122906e-11</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0153615083662867</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.01025479209076543</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.5915316948874112</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>RUG682</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6713415693978123</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.633054733028434e-13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.650649172024813e-11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0002656950502067073</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.917779261465754e-07</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.01973348678993179</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.01249449343986187</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.03790937484821988</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.25199907564318e-06</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1671788001902315</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.47338751152921e-11</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.03717099758097643</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.15447702545533e-08</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.04965740002588258</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.004246397263001542</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.6713415693978123</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>RUG299</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2802695031320757</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.184970509330346e-13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.599630104358899e-07</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.120120221955723e-05</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.566183768030236e-05</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02758137125022514</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.06228041561815724</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01140011666263347</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.701832293888564e-06</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5104059193094014</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.12884522814526e-10</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.08992226535504128</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.917560361841049e-07</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.004922771710914886</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.01315422025680755</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.5104059193094014</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>RUG846</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1777988745031174</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.088588455558235e-09</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.393835489546076e-08</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0001664883218104488</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.467759075472134e-06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.01157288658850178</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.01415884054380155</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.01936827743210282</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.644642537535822e-06</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7355960758884001</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6.92441595235845e-06</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.01447334738455065</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.921038654605397e-09</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.01895213391881663</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.007893999653351219</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.7355960758884001</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>RUG271</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5721846941105762</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.532560419255473e-14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.897357593736776e-13</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.413290318581287e-05</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.166326020651247e-07</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03681707806499832</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0134432757802175</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.08730367091858045</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.279954332235627e-07</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1458248928253923</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.023224352487186e-12</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.02053461421405849</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.493867842731806e-06</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.06404127621013621</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.05983462647474849</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5721846941105762</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>RUG196</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5577679777324641</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.31925055988857e-08</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.586354361348354e-10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.008667975738043955</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.007207306176667833</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0668372462586323</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1891918389206305</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.02489602330326028</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0007544002875284212</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.05819143316995126</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.498225794957855e-10</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.02067268491586419</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.023045611314442e-06</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.06289429224956877</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.002917754500813312</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.5577679777324641</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>RUG138</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4992590368952077</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.75652720313196e-13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.331283123725942e-11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.595448751765259e-05</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.397714632721112e-08</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.04714670347072038</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.005873643331167662</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0422563998434988</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8.12220713700463e-08</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.3325925442163062</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.028066908207082e-11</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.002308468834510986</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.11633801956804e-13</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.03492767715676217</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.03561946649081012</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.4992590368952077</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>RUG366</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5686153035944164</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.659665291873585e-07</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.933167502127833e-08</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0009298231938789562</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01231475070393513</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1003709933118019</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2321915672409921</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.00602063976979879</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.13300807397009e-05</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.01713133269673567</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.523643422795056e-12</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.02272422600242947</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.82605195439582e-09</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.03435836806316717</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.005321428214324885</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.5686153035944164</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>RUG008</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1926339677134277</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.68690722221165e-09</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.485985331802259e-09</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0004199520492148175</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0009571970054800337</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.110091570361187</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1960929072035475</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.005811250645469916</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.072356076778284e-05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.003912269840565325</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.180424499734871e-08</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.01100472784373823</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.354369571633937e-05</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.4534299507997405</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.02561184830400732</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4534299507997405</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>f__VadinHA17</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>RUG543</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7389259271476309</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.914987009964456e-12</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.8331292523931e-09</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.114275298017111e-06</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.340243167782511e-07</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.02219906037102837</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.04459709834526945</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.05372759039955501</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.243073243115532e-07</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.03477258222786885</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8.224315338088674e-07</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.01540939162865695</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6.738617276237067e-08</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.02603367663298376</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.064323707984317</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.7389259271476309</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>RUG566</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.2471024739991219</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8.071291592780502e-10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6.343018278833305e-12</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9.63852075798125e-05</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0003701619802431978</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.02801323323498974</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1033569913441171</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1268118158551747</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.027287416585522e-05</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.4028272960440448</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.969650515417584e-13</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.01742028625382738</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.539286754003377e-07</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.06842037166577004</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.005570556798220866</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.4028272960440448</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>RUG090</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1824122489834908</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.038448937834023e-08</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.598967650124318e-10</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.000151844768396653</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.019947665433756e-09</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.01094285962000004</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.04464022149201715</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.02452027256890167</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6.17609277952967e-05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.6729468916007978</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.475274750392212e-05</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.02347281049981469</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6.77604915881011e-09</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.03756091837900315</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.003265388071895856</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.6729468916007978</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>RUG665</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7709734959892716</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.099051552316761e-12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6.184274060605671e-12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.801691697142417e-05</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6.641171183139226e-08</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04399969345289292</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.01664285462846683</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.02682110894457253</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.267930776368684e-07</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.05739706468026103</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.523211064013594e-10</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.01562190708361999</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7.254975243664539e-09</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.01298381489023086</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.05550174279334407</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.7709734959892716</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>RUG189</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2925917283711105</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.958569478496278e-09</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.924619112882234e-09</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0009723148218749713</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7.850459914014203e-07</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.07168188861354004</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1188962344266473</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.08624126882988283</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5.504676545066852e-05</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.2184937306579391</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.919622969677643e-07</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.07534333019014966</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.89186658912651e-05</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.1065753063568169</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.02911894740921985</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.2925917283711105</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>RUG081</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6682562847525639</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.736337855422079e-08</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7.906130864276275e-09</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.005415552921722654</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0001458299373607959</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.058003695383707</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.1006426972272292</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.005628658513303542</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.120274652058846e-06</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.04507639584914011</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6.47668083084664e-11</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.09466907756137698</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.304282502103052e-08</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.01944020993976672</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.002719429262075797</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.6682562847525639</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>RUG845</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.3653096751294344</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.667495342127635e-10</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.488302608248529e-08</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9.941931875198587e-05</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.205461408545409e-05</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04267155019666066</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.03931829706313812</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.05658105872274047</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.768923806730082e-05</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4236991142499161</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.904609568312689e-09</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.007755794775558346</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.277986990667924e-11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.06117880879454762</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.003336518889934172</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.4236991142499161</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>RUG341</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6748975422434229</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.348843444919225e-11</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.544023209951577e-10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6.172781975152923e-05</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.53024999439976e-06</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01664525514929989</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.01303007879268592</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.02960134813387532</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.4528546568214e-05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1226423245255111</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.959700303694151e-11</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.03637099950140164</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.654900713546755e-10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.04513242348507232</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.06160124117943907</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.6748975422434229</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>RUG365</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5651691139425437</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9.747087962246953e-12</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7.563629087546204e-09</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7.344036859229989e-05</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.002599575122014719</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.05576232061285872</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.03649425629818848</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.06602867771702098</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.217338983536177e-05</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1967755284165303</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.076074054492067e-08</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.01617118674317647</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.995071672960801e-08</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.009681521019560999</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.05123211808484449</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.5651691139425437</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>RUG605</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4210623407132899</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.537091525986229e-13</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.17718750755697e-11</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0001326893743403756</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8.363847513034231e-12</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02983956771867794</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.01820838885662057</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.03378265393672337</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.467774229475086e-07</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4400968327832464</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8.730803272694322e-12</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.00237669848608888</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.254444078633669e-08</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.03950033135513856</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.01500032740458999</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.4400968327832464</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>RUG794</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4444984161668546</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.685430108648654e-10</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.378218174998189e-12</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0009898835932526731</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.281442993582266e-05</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0648429363624565</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1208094330805515</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.05024428375257898</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0001377123312806584</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.164290889569192</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.881291884478764e-13</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.04794267488572439</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8.10450156064037e-06</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.09969588933910714</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.006506961514195487</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.4444984161668546</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>RUG230</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8834273054369194</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.165862568026049e-14</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7.437924492814548e-12</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.068551850776672e-06</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4.285034505994832e-12</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.009952827872530236</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.002862075149565279</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.02476177330691918</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.778612278771097e-07</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.05889271786494406</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.249786145394222e-13</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.008053553258946484</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8.461057908761718e-13</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.004829578604611718</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.007218622079769622</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.8834273054369194</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>RUG041</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4214803594484209</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.175562863390546e-07</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7.289339845969283e-08</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.000188531549979796</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.011553482729281e-08</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04955449596461134</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.05529184194671434</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.03542485661294788</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.0003258145999219703</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.3232156079339489</v>
+      </c>
+      <c r="L23" t="n">
+        <v>9.182787410971433e-05</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.01424533982095453</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.983024849921645e-06</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.075871764424963</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.02430725623335819</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.4214803594484209</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>RUG272</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4007656787661902</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.634564156286766e-11</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.968258098224992e-11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.001287660789062501</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4.737178778494924e-05</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.05757061714536359</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1832795635557808</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1850116279751428</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.092379043411114e-07</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.03206400949804059</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.639523657072753e-11</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.1206519238750069</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7.758787744561492e-05</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.01367775807136308</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.005565691338491201</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.4007656787661902</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>RUG026</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9214016040427462</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.603227143232718e-08</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.350870779008475e-05</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.682690283842678e-05</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.472732033750733e-17</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0001181026268454423</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.003398359164171781</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0002507814204614611</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5.326917224399472e-08</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.001138157801870933</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.613212757694532e-13</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0007493003751188075</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.078916162636827e-12</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.07165058714095568</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.001252682509317431</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.9214016040427462</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>RUG333</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5309867750374817</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.780617660905102e-09</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.546408204894511e-10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0006332142872250681</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7.316207036073283e-05</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.04624904342266814</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.06771278332033301</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.02490449651521565</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.228135466416778e-05</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.09805651260913963</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5.196778130689251e-12</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1430949796554749</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0001393804874012697</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.06510414203042032</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.02302322716916009</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.5309867750374817</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>RUG641</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.4932660995542802</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.3738468550731e-09</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7.313596506446367e-10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0001848295565045272</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.919224701950638e-08</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.05468458968219582</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.03328778194959918</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.06517196786665971</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.528662813558067e-06</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.2508989800493453</v>
+      </c>
+      <c r="L27" t="n">
+        <v>9.827699764674907e-07</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.01661914439058035</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.09963619329284e-10</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.07098678444342515</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.01489527766720277</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.4932660995542802</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>RUG449</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6428376809773275</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.100519459105018e-12</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.286368352098504e-10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.74222799287584e-05</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.9051890032686e-07</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.02940784075890112</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.03221781639576077</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.04595691851477468</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.600099851279141e-07</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.2204889660853384</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.643670415085495e-11</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.001879260742423879</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6.080811113332305e-09</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.01326522407633521</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.01392851338233896</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.6428376809773275</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>RUG637</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.6535608350749279</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.041745975149619e-12</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6.849263268364266e-10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7.858357437948422e-06</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.306979067759872e-08</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0252415982559374</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.006284262481537178</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.02475279992457734</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.235393466066281e-07</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.2115018606458527</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4.906548962902445e-10</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.004398737854804206</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4.003507858686931e-09</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.06319735976444786</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.01105432585120901</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.6535608350749279</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>RUG217</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.6858363804825229</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.419405906534711e-11</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.771455875299615e-08</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.433028925588277e-06</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.031711191933663e-07</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02720848471260806</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.09878561565998886</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.02818330769103492</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.502350603365954e-05</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.09650590933051097</v>
+      </c>
+      <c r="L30" t="n">
+        <v>7.957862381791301e-07</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.01657496347777812</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.15431368384468e-09</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.007140222694096473</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.03972472056607623</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.6858363804825229</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>RUG290</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1339720623929495</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.043538334603174e-09</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.375661518758954e-10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7.312307661571818e-06</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.333384573850876e-07</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04041498952361106</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.02920469397547677</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.02003452667239244</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.006372944750355e-05</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.7068846137298505</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.058432022042996e-13</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.001787540337703548</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4.279068934345787e-10</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.06183186280433142</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.00585209847890117</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.7068846137298505</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>RUG368</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.3811807285704273</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.842412125450539e-11</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3.380893325938415e-09</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0004183042120005428</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.000434038929911575</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.06216667977926146</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.1965485780921034</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.1307523877970131</v>
+      </c>
+      <c r="J32" t="n">
+        <v>8.653570017768628e-05</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.06573489996123873</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.774843256428992e-08</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.1074155642582598</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.412518041609872e-05</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.04931081767110935</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.005917318700331392</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.3811807285704273</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>RUG835</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.4848581112904785</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6.092859425369984e-11</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.77322648374818e-08</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.973188857049654e-05</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3.815848227221727e-05</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.08814069680499048</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.04246579818626116</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.1057878823685492</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.960245237996192e-06</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1727399310776599</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.385395852132703e-06</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.02042949597350428</v>
+      </c>
+      <c r="N33" t="n">
+        <v>9.716191415391619e-06</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.01051404727362979</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.07496206702838513</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.4848581112904785</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>RUG202</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5502252412882787</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.832312680171946e-11</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.188016484847791e-12</v>
+      </c>
+      <c r="E34" t="n">
+        <v>7.089719369101429e-05</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.757843457082634e-06</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.03035368305862268</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.03253747675988002</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.06504557718876294</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5.218463328577612e-06</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.2354630678438604</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6.598560419975942e-12</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0370506199600997</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.121786736385715e-07</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.03321204506332542</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.01603330312991033</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.5502252412882787</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>RUG074</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.4219291303702926</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.877535377280631e-09</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.509040607046228e-08</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0006132815862447231</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.006224797351663608</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.1210961509792622</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.2432092478717713</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.01899015863448679</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.028920605414574e-05</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0104034540027902</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.320038549262373e-10</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.05180525363283534</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4.143729030894452e-07</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.1185786936954231</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.007139111196327401</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.4219291303702926</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>RUG105</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.2133490287581521</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6.790328655586368e-09</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.305851949726742e-08</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.000150094075388705</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.001486630280185074</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02952677088927911</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.4079688168260775</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.007836354911178197</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.709418644193164e-05</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.2497431436310737</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4.32270749793191e-12</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.003025003983334409</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4.852628554320062e-07</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.02497756245579671</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.06191898488706608</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.4079688168260775</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="inlineStr">
+        <is>
+          <t>RUG726</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.2761849984424891</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.114005533595573e-07</v>
+      </c>
+      <c r="D37" t="n">
+        <v>7.632024022164253e-07</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.001085268366684016</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6.893756182461035e-06</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0621154211458359</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.2018645991945434</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.01319966990722171</v>
+      </c>
+      <c r="J37" t="n">
+        <v>9.628809403575714e-05</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.3396847692815238</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.211379270450388e-06</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.03601567337643169</v>
+      </c>
+      <c r="N37" t="n">
+        <v>7.727713828234863e-07</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.03669126023874863</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.03304999944269445</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.3396847692815238</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="inlineStr">
+        <is>
+          <t>RUG110</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.2472464947286181</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.684898571464066e-10</v>
+      </c>
+      <c r="D38" t="n">
+        <v>6.71021196061434e-13</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0001671915740055127</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.002713185140930108</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.06492165272615269</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.4203650910458807</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.06214795085419798</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.483033335437153e-06</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.07437819181055931</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.368161927990415e-12</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.007075475309866646</v>
+      </c>
+      <c r="N38" t="n">
+        <v>4.122988213592854e-08</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.1189555195828906</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.002025722793151557</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.4203650910458807</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="inlineStr">
+        <is>
+          <t>RUG468</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.6079120824403444</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.153855259074335e-10</v>
+      </c>
+      <c r="D39" t="n">
+        <v>6.620962411423066e-08</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.87197626692006e-05</v>
+      </c>
+      <c r="F39" t="n">
+        <v>7.502179918946616e-05</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02829053012302715</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.05519133684523869</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.03158678526262117</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.121004956244776e-06</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.06711985839139784</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2.414554834157478e-07</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.02432937808702591</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.409757794126211e-11</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.04758184485438253</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.1378720136245568</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.6079120824403444</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="inlineStr">
+        <is>
+          <t>RUG203</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.1755270218743538</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.318437996139344e-11</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.685445238846524e-11</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0002874337437640497</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.760466193433892e-05</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.03866366699394729</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.08242292784386801</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.1573462078504476</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.0001029973615002776</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.388608162151081</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3.46942016563776e-13</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0262585276479452</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.0002024545310655148</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.1214118457872022</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.009151149492504734</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.388608162151081</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="inlineStr">
+        <is>
+          <t>RUG581</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4081725166641738</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2.226591111472478e-11</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5.20343541258458e-09</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4.046474168346083e-06</v>
+      </c>
+      <c r="F41" t="n">
+        <v>9.125602916388883e-07</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.01668920080101066</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.00337044731563714</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.04870223501267758</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2.673182315479078e-05</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.3863263508051863</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.719353278724276e-10</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.04767838704242149</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.299531313124793e-08</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.03801552031485565</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.05101362279347264</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.4081725166641738</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="inlineStr">
+        <is>
+          <t>RUG651</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.4160169998520432</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.117247126008099e-09</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.510774103597564e-11</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0001943834242678015</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3.83858505160702e-06</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.06064103555631056</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.09439089450487778</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.09741122978045064</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.475115511672035e-05</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2371270857566772</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.054021979249295e-11</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.05559335282272525</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.42128318276973e-08</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.03204299196978714</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.006563411236965352</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.4160169998520432</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="inlineStr">
+        <is>
+          <t>RUG527</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.2721526848142345</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.334309110134817e-08</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5.917114190210686e-09</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0007702381247185236</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.005763798224816966</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.09697498165954904</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.3569344410457871</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.08835602598092684</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5.501564554021726e-05</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.03721146871975031</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.498317006550886e-11</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.02594795786544024</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.47912937400262e-05</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.1040107446656261</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.01180783268468149</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.3569344410457871</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="inlineStr">
+        <is>
+          <t>RUG277</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5503850707059049</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6.027002348174104e-13</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.8957789517154e-10</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.444383917512528e-05</v>
+      </c>
+      <c r="F44" t="n">
+        <v>6.930786280673252e-05</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.04040192978654363</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.06378633558278335</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.1898023494471534</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.220873842392412e-06</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.0710293667031254</v>
+      </c>
+      <c r="L44" t="n">
+        <v>9.430130422915263e-09</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.02267925589625732</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.32361703768692e-07</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.02912487020789016</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.03269470711250266</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.5503850707059049</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="inlineStr">
+        <is>
+          <t>RUG447</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.456875898611355</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.269537163471032e-08</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7.482151634600106e-10</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.005949212001713497</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0001154249002730314</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.08965699688363671</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.2997785772565439</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.009465588582252838</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.856099723151095e-05</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.05611724401458543</v>
+      </c>
+      <c r="L45" t="n">
+        <v>8.405146339950104e-12</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.03688317835191803</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.51615302788508e-07</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.03981442814031333</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.00529452519288207</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.456875898611355</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="inlineStr">
+        <is>
+          <t>RUG109</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.3795611840557483</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.969761649208005e-07</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9.251523481487786e-07</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.001782834582347788</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8.515966258205904e-07</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05890707645037171</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.2716187691039471</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.01601715599949809</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.0008615183164294207</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.005816079620698437</v>
+      </c>
+      <c r="L46" t="n">
+        <v>4.545350726721043e-07</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.1747797490101208</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.479387867896063e-05</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.04803697740955832</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.04260143331238937</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.3795611840557483</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="inlineStr">
+        <is>
+          <t>RUG155</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.4122780582181081</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2.689672202573268e-10</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.273495984902782e-09</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.643105268345601e-05</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3.308221648689413e-05</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03988407860221681</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.07180053285706615</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.07554247838243383</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.84233011513262e-05</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2499522181255471</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.324572968098332e-08</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.05637959202998371</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3.690806860625181e-07</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.03053500899289964</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.06355971235254387</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.4122780582181081</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="inlineStr">
+        <is>
+          <t>RUG218</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.7362094333859222</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.128787355679305e-13</v>
+      </c>
+      <c r="D48" t="n">
+        <v>9.329348341825618e-06</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.013424108652023e-07</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2.337484879630726e-05</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02993273890735294</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.02357856203804685</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.02319526245952879</v>
+      </c>
+      <c r="J48" t="n">
+        <v>9.166197707553466e-06</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0975441843432923</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2.920943838636878e-10</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0129642602116231</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3.878127369872475e-12</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.003682126628581254</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.07285125999221088</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.7362094333859222</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="inlineStr">
+        <is>
+          <t>RUG718</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.259286120100817</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.051165362086942e-06</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.785441541277602e-10</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2.391431050286713e-05</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.86096506809583e-05</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.02484322530379743</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.1616943779407545</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.02423325757928863</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.88644803462943e-05</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3670916910437954</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.363309286295506e-11</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.02901886055970733</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3.069027143892845e-06</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.1274163056773983</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.006340652868227968</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.3670916910437954</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="inlineStr">
+        <is>
+          <t>RUG516</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.3520469580758755</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.52019475925543e-08</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.859581094625552e-11</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.631094587415727e-05</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2.787981644242634e-05</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03829149024726172</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.06842897787982956</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.1149775641885796</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.0001863278347867395</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.05823781668600236</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2.177626277745677e-08</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.037150377817223</v>
+      </c>
+      <c r="N50" t="n">
+        <v>6.514288174861221e-07</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.3046742911972657</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.02596131688523568</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.3520469580758755</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="inlineStr">
+        <is>
+          <t>RUG426</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.7580061316811284</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.411710488116089e-14</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.709901206532322e-12</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.336761669197501e-05</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4.050980123323337e-07</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0320322404527549</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.006718977335447792</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.05575080134084456</v>
+      </c>
+      <c r="J51" t="n">
+        <v>5.542795226384666e-07</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1008541348235791</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.268181200566935e-08</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.01296180189453232</v>
+      </c>
+      <c r="N51" t="n">
+        <v>4.402941000239388e-10</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.01085735234844411</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.02279422000421151</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.7580061316811284</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="inlineStr">
+        <is>
+          <t>RUG270</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.7841098632815164</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2.297823549931405e-12</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.438383277441993e-07</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.46312414123235e-06</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.055778577429442e-05</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.02986579619184011</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.03039867194465525</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.03067506752256506</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.988912566692995e-06</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.02651454992715548</v>
+      </c>
+      <c r="L52" t="n">
+        <v>4.053333279852478e-10</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.04881975084016137</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.257112584398402e-11</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.00864165619995263</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.04096048995114146</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.7841098632815164</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="inlineStr">
+        <is>
+          <t>RUG834</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.3076719997109915</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.065188944681867e-11</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3.586995431081637e-10</v>
+      </c>
+      <c r="E53" t="n">
+        <v>7.963448523872826e-05</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0005159122257566451</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02808787273852978</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.05349291731233253</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.05482291409690561</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.002742603829033e-05</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.4618225633443528</v>
+      </c>
+      <c r="L53" t="n">
+        <v>5.245539940011697e-10</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.02882910443005109</v>
+      </c>
+      <c r="N53" t="n">
+        <v>5.521671176659765e-08</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.02115447485898642</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.04351252326019943</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.4618225633443528</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="inlineStr">
+        <is>
+          <t>RUG370</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.3463697792200512</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.73216544003457e-09</v>
+      </c>
+      <c r="D54" t="n">
+        <v>7.328535716745197e-09</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0001335013791631022</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.564740071180476e-09</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.02825596754649301</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.08509015694252813</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.04267688328189112</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.091859007747238e-05</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.4306789992574308</v>
+      </c>
+      <c r="L54" t="n">
+        <v>4.32970305570059e-09</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.005556117165891081</v>
+      </c>
+      <c r="N54" t="n">
+        <v>6.91410607753578e-10</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.04292533494951409</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.01830232502040505</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.4306789992574308</v>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="inlineStr">
+        <is>
+          <t>RUG522</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.6190886818718847</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.180497722583651e-11</v>
+      </c>
+      <c r="D55" t="n">
+        <v>8.709075461743549e-10</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.000345669157239744</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.00110001201066016</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.08083118293872059</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.1626993273957762</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.03059783694536879</v>
+      </c>
+      <c r="J55" t="n">
+        <v>7.259740294678752e-06</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.009506261916926655</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.091537921608144e-12</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.02294605432693523</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1.226872092838414e-05</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.06577132385502188</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.007094120226438727</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.6190886818718847</v>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="inlineStr">
+        <is>
+          <t>RUG135</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.2601434655195184</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.389471614037764e-08</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4.781210550309599e-11</v>
+      </c>
+      <c r="E56" t="n">
+        <v>8.326459346073256e-05</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3.00405055548441e-05</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05136723688017119</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.2126755564105113</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.05220188793904117</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.874061207734776e-05</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2482701757907109</v>
+      </c>
+      <c r="L56" t="n">
+        <v>5.701371557839211e-09</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.04772631583005028</v>
+      </c>
+      <c r="N56" t="n">
+        <v>3.295584862822038e-06</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.1194030770277719</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.008066923662369182</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.2601434655195184</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="inlineStr">
+        <is>
+          <t>RUG509</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.6566712835136022</v>
+      </c>
+      <c r="C57" t="n">
+        <v>6.744020988171499e-12</v>
+      </c>
+      <c r="D57" t="n">
+        <v>9.341352917552939e-09</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.155821472201038e-05</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3.146730842662593e-08</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.03507115583230292</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.02175976175879807</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.02022205356942803</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.321166868691778e-05</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.1745781573854593</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5.499602683000178e-10</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.01957312639227119</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.313291455577089e-10</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.005784000662073844</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.06630564950596103</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.6566712835136022</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="inlineStr">
+        <is>
+          <t>RUG385</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.7561427688044269</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.877932201460528e-15</v>
+      </c>
+      <c r="D58" t="n">
+        <v>6.188864584137986e-11</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.524553195937581e-06</v>
+      </c>
+      <c r="F58" t="n">
+        <v>6.486626334776256e-11</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02224362377281779</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.002043569145058155</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.0199232029684029</v>
+      </c>
+      <c r="J58" t="n">
+        <v>5.643986333507464e-09</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.1651516093973507</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.005360781351289e-11</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.001656534553729217</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.230389380359569e-13</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.02694478630664578</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.005891374717452062</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.7561427688044269</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="inlineStr">
+        <is>
+          <t>RUG394</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.4050461474789618</v>
+      </c>
+      <c r="C59" t="n">
+        <v>8.290469754169018e-10</v>
+      </c>
+      <c r="D59" t="n">
+        <v>7.127185681184924e-07</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.004552934562685159</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.006780964813162574</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.1441829763934795</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.2138629151593447</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.01646623964438719</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.051709171376319e-05</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.004646947252798027</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.061940263653148e-12</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.1365045211974189</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.656548561395638e-05</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.05034753198771323</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.01758102538404408</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.4050461474789618</v>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/outputs/fft-o__Bacteroidales.xlsx
+++ b/outputs/fft-o__Bacteroidales.xlsx
@@ -21,6 +21,7 @@
     <sheet name="g__Ruminococcus_E-RF-l" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="g__Ruminococcus_E-LSVM-l" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="g__Ruminococcus_E-LSVM-l1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="g__C941-LSVM-l1" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -23478,6 +23479,2212 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>f__Dysgonomonadaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>f__F082</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>f__Marinilabiliaceae</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>f__PUMT01</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>f__Paludibacteraceae</t>
+        </is>
+      </c>
+      <c r="I1" s="7" t="inlineStr">
+        <is>
+          <t>f__Porphyromonadaceae</t>
+        </is>
+      </c>
+      <c r="J1" s="7" t="inlineStr">
+        <is>
+          <t>f__Prolixibacteraceae</t>
+        </is>
+      </c>
+      <c r="K1" s="7" t="inlineStr">
+        <is>
+          <t>f__Rikenellaceae</t>
+        </is>
+      </c>
+      <c r="L1" s="7" t="inlineStr">
+        <is>
+          <t>f__Tannerellaceae</t>
+        </is>
+      </c>
+      <c r="M1" s="7" t="inlineStr">
+        <is>
+          <t>f__UBA7960</t>
+        </is>
+      </c>
+      <c r="N1" s="7" t="inlineStr">
+        <is>
+          <t>f__UBA932</t>
+        </is>
+      </c>
+      <c r="O1" s="7" t="inlineStr">
+        <is>
+          <t>f__VadinHA17</t>
+        </is>
+      </c>
+      <c r="P1" s="7" t="inlineStr">
+        <is>
+          <t>f__WCHB1-69</t>
+        </is>
+      </c>
+      <c r="Q1" s="7" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="R1" s="7" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.329197517087466e-05</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.660980841097895e-18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.785474539894842e-11</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.316704238357487e-11</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.999942848989964</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.424481826561382e-06</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.470342887283625e-06</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.573848736026746e-06</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.939165491437178e-09</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.505326320123e-08</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.356246784597069e-19</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.454661755803324e-07</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.89737277627973e-11</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.350563026373195e-07</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5.090756513383973e-06</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.999942848989964</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7285145398558854</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.22455956231378e-11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.718772716595841e-06</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.479373166937935e-07</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1537477924994606</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.01701931754359899</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.03321546782172932</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.02652778238011596</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0001185014947185975</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0003429326668958089</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.837278756493021e-14</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0276133180192826</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.638603241476044e-08</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.001195331631409295</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.01170303292855371</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.7285145398558854</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.055145736862697</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.634754783438938e-18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.444329525609078e-12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.353101037053222e-08</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.935760799458918</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0006353656456076896</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.00130350698120364</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.001833833974104293</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.225833669954982e-06</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6.388928906923041e-06</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.644065443052702e-17</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.7656825580262e-05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.266472896218443e-11</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0001063141085065862</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.005148137825685946</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.935760799458918</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2866514826638601</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.001125091651275e-09</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.029535909653699e-05</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.333612652148702e-07</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6972837837975069</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.002587348872333729</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.003783255103375844</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.00214146516007658</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.18607594707166e-05</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.00014782771815928</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.072797886854397e-12</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.000330212060449096</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.712738467500928e-11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.001137996593796395</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.005804334501284256</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.6972837837975069</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.005223128931456485</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.181520475265057e-10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0001860414241056342</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.573970937794142e-09</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9913156947345684</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0003751037780810131</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0006707708927954563</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.000758450437787142</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.274272581738119e-07</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.486100120215678e-05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.077362920559326e-14</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.202801242141845e-06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.409252573575576e-07</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0009243941298968979</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.0004785786242053858</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.9913156947345684</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.000349812082610084</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.357510771664317e-17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.438048709947525e-13</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.768193445580818e-11</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9995591529808222</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.52896413357793e-05</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.214957286274795e-05</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.342753838712734e-05</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.403983921966192e-09</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.235943784676545e-07</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.906588689258204e-21</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.21534491886005e-06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.569792904776649e-13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8.030732972717683e-07</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.802273922096275e-05</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.9995591529808222</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0008100113744517553</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.182661509528452e-16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.681416517628275e-11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.797366763230502e-09</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9990012457547287</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.615414933403991e-05</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.202944791127336e-05</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.807783160799547e-05</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.597432448286956e-08</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.872214708637976e-07</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.304986218400028e-20</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.277602987940777e-06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.525006168713879e-12</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.68740219794463e-07</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.000120180066257117</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.9990012457547287</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7009172785251881</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.321680827416702e-07</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.002065213929546648</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.711121010782357e-05</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01908452123559849</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.04630466684606357</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1201458180457718</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.03975912076700751</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0009205407077258497</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.02680883815337607</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.858583889465243e-13</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.002544086040521023</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.462687163720676e-05</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.03758164285236718</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.003766202646819829</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.7009172785251881</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2652051783833126</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.15582773652171e-12</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.634973948071932e-11</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.017092797181816e-08</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7027616364636274</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.01340960654436348</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.00250943956962735</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.01181536101756209</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.367643646291677e-05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0001950818341917564</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.305954042108984e-18</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4.774190134709097e-05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.044458304155421e-06</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.001178465499352879</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.002862737683414871</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.7027616364636274</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0003718595457711688</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.088258090796855e-15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.530272876512565e-08</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.702389733779137e-10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9994282657947505</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.336040898006509e-05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.692427250735665e-05</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.664824921194746e-05</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.373370033428755e-07</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.393975227249395e-07</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.170605007438401e-17</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5.803894968373255e-06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.968627132360039e-09</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4.378413037961442e-06</v>
+      </c>
+      <c r="P11" t="n">
+        <v>8.21244446497721e-05</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.9994282657947505</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.436793599839513e-05</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.825121965893824e-15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.974449368874592e-12</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8.140328549763873e-10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9999661985052518</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.233745315510184e-06</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.075165052284483e-06</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.392647345303874e-06</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.930629596434521e-08</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.514368015713958e-08</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.870457541563611e-16</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.784878905933767e-07</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8.753661607038376e-11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.312880872516933e-07</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5.286869537177415e-06</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.9999661985052518</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0008775313953878025</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.558713660899864e-17</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4.999311475948625e-15</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.655746975984899e-08</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9987793248810264</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.147538925070596e-05</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.852765022009029e-05</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0001857708583861867</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.008201330107534e-09</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.207673355839231e-06</v>
+      </c>
+      <c r="L13" t="n">
+        <v>9.396747441733084e-19</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.992037664408122e-06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.627058684657544e-11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.123204156977552e-05</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5.291848119229867e-05</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.9987793248810264</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3.259911179057685e-06</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.981678473775714e-28</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.521743894847579e-29</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.535074756668217e-13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9999962122023359</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.536494794273206e-07</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.223408334634898e-07</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.311735978377982e-08</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.653056863221606e-11</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.684395460337947e-12</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.289806345747341e-27</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.229015408500648e-08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9.082820748011763e-21</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.74406826468913e-10</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.619558338277876e-08</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.9999962122023359</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.001900691734322841</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.269038385600858e-16</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.145699506608816e-12</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.122810221685204e-09</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9977847416908648</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7.726965400120371e-05</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.089411731924237e-05</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8.246479636760553e-05</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.156296639577475e-07</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.652983956899752e-07</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.900527719443967e-18</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5.896442782113326e-06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.71550996431392e-07</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.993124330009367e-06</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.0001352908339996977</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.9977847416908648</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0009475640601588576</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.10063288421584e-11</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.885510385076999e-08</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.102890716479874e-08</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9982573105327603</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6.006827355420501e-05</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.000200551739067555</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.000174837047946914</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.999268934011623e-07</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6.109234375495647e-06</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.560684143472733e-12</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5.101233398500635e-06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.845014873175639e-11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.815138930665704e-05</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.000330026587509992</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.9982573105327603</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.002476744932289995</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.374205248540012e-15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.652353004542328e-12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.899761688563376e-11</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9971650388482033</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0002195814353830531</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.689706187945026e-05</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.642059802709111e-05</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9.273183476881951e-08</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.811991336679533e-07</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.541164339081795e-27</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5.23219531270662e-05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.566095710203465e-11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>7.671281414961493e-07</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.954015666702528e-06</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.9971650388482033</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.000129562488506085</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.260035932829707e-19</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.585520250608338e-14</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.232193870267368e-09</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9998457325381216</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.239435644361571e-06</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.564302287111296e-06</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7.648269002560013e-06</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5.470810160281336e-08</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.799226286671041e-08</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6.260841607523859e-19</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4.61055561608129e-07</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.235982319293884e-07</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.504595533671121e-07</v>
+      </c>
+      <c r="P18" t="n">
+        <v>8.013920506959818e-06</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.9998457325381216</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0007723577163653998</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.061402412167e-14</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.32443444753707e-09</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.260869410227191e-11</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9990803658361546</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.126630461338547e-05</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9.118440929949822e-06</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7.556148242668922e-05</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.259793107119122e-07</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.501840614200601e-07</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6.331011414038658e-20</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3.101204677671698e-07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.797757152429468e-11</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.477794737746535e-05</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.596461326102572e-05</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.9990803658361546</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3.39821187899603e-07</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.104578605040637e-15</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5.178574491080933e-14</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.213898530697296e-12</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9999994485220249</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.617500807477315e-08</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.082168764967308e-08</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.408815309398557e-08</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.015578460888696e-09</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.902649093351786e-10</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8.205381205849549e-18</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3.973618683837932e-10</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8.280604739476438e-15</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3.003040935956666e-09</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.156644164118323e-07</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.9999994485220249</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.3024248062202414</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7.54219530234644e-10</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5.75451237752935e-07</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.606429226471218e-06</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.6503822710049229</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01401709961481169</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.01110087007150226</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.007015655978615558</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0001224637971998309</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0003079951755058405</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5.854081117930668e-10</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0005123816370791019</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.659843431124156e-05</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.002170455139783834</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.01192621970593467</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.6503822710049229</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0001820250448183424</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.414873828698156e-17</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.40055525008519e-14</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.519849602831083e-09</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9997156382264263</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.058588743099395e-05</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.145127456790379e-06</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.872430734617791e-05</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.576534730856774e-08</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.499478119232299e-07</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.062265728771292e-19</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.241666156520494e-07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.309297105611497e-11</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2.482326776570806e-06</v>
+      </c>
+      <c r="P22" t="n">
+        <v>6.909664698386982e-05</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.9997156382264263</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.004941083777226572</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.021551121152184e-14</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.927637170436208e-12</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6.065415129829383e-09</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9924022588213526</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.000575928762598688</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0003164520285892434</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.001216515872944333</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.177029218755478e-06</v>
+      </c>
+      <c r="K23" t="n">
+        <v>9.808948384603489e-06</v>
+      </c>
+      <c r="L23" t="n">
+        <v>9.723671747892099e-15</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4.246780543239919e-05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.090903736153225e-08</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2.428416931347452e-05</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.000470005808538959</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.9924022588213526</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0002266309097792403</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.323840476392248e-14</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6.048850914864843e-11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.094005238543825e-11</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9997371843821341</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7.157766649461731e-06</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8.491376510382e-06</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.387700073945961e-05</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.202716817766402e-09</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.72896215769962e-07</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.594170007260419e-20</v>
+      </c>
+      <c r="M24" t="n">
+        <v>9.892781739238647e-08</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8.742953716064739e-16</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.806678291388004e-06</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4.577747702960652e-06</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.9997371843821341</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01642819778215805</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.98624778122604e-11</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.952891329556522e-08</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.907647196960443e-07</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9777307810894422</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.00169045794948871</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0006625027547893004</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0009332656931770862</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.387573021712965e-06</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.440098178154878e-05</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.534272665976576e-12</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2.624917613465627e-05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.907913237154991e-09</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.0001181518002242805</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.002392271936839622</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.9777307810894422</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8040577488829329</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7.234508413331688e-12</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.176495508375763e-10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.686819332457802e-08</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.04035706787704351</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03623818322564203</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.05293932279294986</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.05950335731684987</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.000128164268172751</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0002566622214780365</v>
+      </c>
+      <c r="L26" t="n">
+        <v>8.607273659947074e-18</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.004687827399692386</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6.328676697620855e-11</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.0005489285410897838</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.001282710417784633</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.8040577488829329</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>f__Bacteroidaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.06859289266244165</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.396554805786109e-10</v>
+      </c>
+      <c r="D27" t="n">
+        <v>8.723464141721876e-05</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.033067305821771e-06</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9091608758016283</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.002515793625571557</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.004625249640103708</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.00603566621997469</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5.826748641143273e-05</v>
+      </c>
+      <c r="K27" t="n">
+        <v>8.243580816627393e-05</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.091957640396558e-10</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0004220235201305989</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.162340898877016e-09</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.00137356472955981</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.007044959286096706</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.9091608758016283</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.00012444688579133</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7.441250237895032e-13</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7.337402846871953e-10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5.797134622478018e-10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9998331290094222</v>
+      </c>
+      <c r="G28" t="n">
+        <v>8.292302950534973e-06</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.278988850082147e-05</v>
+      </c>
+      <c r="I28" t="n">
+        <v>9.68478654591408e-06</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.726067476728694e-07</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.413680642812997e-07</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.133252191921897e-14</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4.336841450948746e-07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>7.064136871175285e-13</v>
+      </c>
+      <c r="O28" t="n">
+        <v>9.238215651406626e-07</v>
+      </c>
+      <c r="P28" t="n">
+        <v>9.984331321549656e-06</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.9998331290094222</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.292584680341649e-05</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.991905961038276e-15</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9.321047560999189e-15</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.555164322716089e-10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9999793009082337</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.574300673959295e-06</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.451396576938528e-06</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.053723327326867e-06</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.187666966821639e-08</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.763733069522324e-08</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.718357167929858e-17</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3.120448313931131e-08</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.646439246713386e-10</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.314244223031673e-07</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.491061305285128e-06</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.9999793009082337</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.197871564426272e-07</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6.012829107806008e-19</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6.334124595542833e-19</v>
+      </c>
+      <c r="E30" t="n">
+        <v>9.845216708411466e-13</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9999998636535516</v>
+      </c>
+      <c r="G30" t="n">
+        <v>7.172180646140508e-09</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9.98264662286209e-10</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6.185812108465089e-09</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.179913617021747e-11</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.110595661053541e-11</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.015239645246175e-28</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.647564100780881e-09</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4.268297272948747e-14</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2.004988525541624e-10</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.010385464491382e-10</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.9999998636535516</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.000340843891603057</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.314936298051549e-13</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.798427808972196e-10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7.067128970309601e-09</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9995025240872328</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.571033255280334e-05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.563935428136804e-05</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6.069450991195628e-05</v>
+      </c>
+      <c r="J31" t="n">
+        <v>6.046286846266658e-07</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.137409323262457e-06</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.584225723479181e-15</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5.492282589589697e-06</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.235679943441782e-10</v>
+      </c>
+      <c r="O31" t="n">
+        <v>6.420494564547948e-06</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.092523828157103e-05</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.9995025240872328</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.3366853442210921</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.038979796692609e-12</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.269980349833426e-10</v>
+      </c>
+      <c r="E32" t="n">
+        <v>9.482945732536661e-07</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.451985470231121</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.01474319449576261</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.01962319170929626</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.09379598869518442</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.001699040587573757</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0003042220561830611</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.452080551405431e-11</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.00871927644185198</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.04264718150485e-05</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.001920647487969903</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.07050224905401893</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.451985470231121</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.06959857147005422</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.069148919187515e-13</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6.175779159801354e-08</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.323441699117512e-08</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9053390819788266</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.002945276426596014</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.002468559957267057</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.004312154264757821</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0002365671546589667</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.213892028473435e-05</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.043374577012483e-17</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0009517956157468122</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.789078489829784e-07</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.0003521701228670214</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.01375343018847591</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.9053390819788266</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>4.15975387312101e-05</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.67224165297291e-16</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4.648114252008363e-14</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.095689795105238e-10</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9999484642373664</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.850368798018221e-06</v>
+      </c>
+      <c r="H34" t="n">
+        <v>8.121642631730811e-07</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.723316079254148e-06</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5.616393831856172e-10</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4.265860861647865e-09</v>
+      </c>
+      <c r="L34" t="n">
+        <v>9.025454396027389e-27</v>
+      </c>
+      <c r="M34" t="n">
+        <v>7.434877130512095e-07</v>
+      </c>
+      <c r="N34" t="n">
+        <v>8.456554401791938e-16</v>
+      </c>
+      <c r="O34" t="n">
+        <v>9.499030961916457e-10</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.803000029500273e-06</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.9999484642373664</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.007101772201327476</v>
+      </c>
+      <c r="C35" t="n">
+        <v>9.519817923122936e-11</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.62519151612962e-08</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.381766275442246e-08</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9917942828632027</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0002526596148309185</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0003366606927908043</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.0001992157866530102</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.169993279035176e-07</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.381591928106335e-05</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.594031196246103e-17</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2.019472180968021e-05</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.442539475103648e-12</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.0002486054114952692</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.243562106290616e-05</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.9917942828632027</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.008403259454441148</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.07939714224549e-13</v>
+      </c>
+      <c r="D36" t="n">
+        <v>7.875454354444938e-11</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.091163313795066e-09</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9911136144289971</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0002185919866422407</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0001579615041557301</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6.989468234566012e-05</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.434299420819236e-07</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.16176243501906e-06</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.996415224214465e-19</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3.329126003201573e-06</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.864606738183068e-12</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.363994157439007e-05</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.810250957328408e-05</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.9911136144289971</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>f__Muribaculaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/outputs/fft-o__Bacteroidales.xlsx
+++ b/outputs/fft-o__Bacteroidales.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED6EDAA-0AAA-5D40-9983-56E65BFED95B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97D6C00-B70B-CF44-B28E-44BDF7A8EC14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="g__C941-LSVM" sheetId="1" r:id="rId1"/>
-    <sheet name="g__C941-LSVM-l" sheetId="16" r:id="rId2"/>
-    <sheet name="g__C941-LSVM-c" sheetId="2" r:id="rId3"/>
-    <sheet name="g__C941-LDA-p" sheetId="3" r:id="rId4"/>
+    <sheet name="g__C941-LSVM-l" sheetId="2" r:id="rId2"/>
+    <sheet name="g__C941-LSVM-c" sheetId="3" r:id="rId3"/>
+    <sheet name="g__C941-LDA-p" sheetId="4" r:id="rId4"/>
     <sheet name="g__C941-RSVM" sheetId="5" r:id="rId5"/>
     <sheet name="g__C941-RSVM-l" sheetId="6" r:id="rId6"/>
     <sheet name="g__C941-RF-l" sheetId="7" r:id="rId7"/>
     <sheet name="g__Ruminococcus_E-LSVM" sheetId="8" r:id="rId8"/>
-    <sheet name="g__Ruminococcus_E-LSVM-l" sheetId="15" r:id="rId9"/>
+    <sheet name="g__Ruminococcus_E-LSVM-l" sheetId="14" r:id="rId9"/>
     <sheet name="g__Ruminococcus_E-LSVM-c" sheetId="9" r:id="rId10"/>
     <sheet name="g__Ruminococcus_E-LDA-p" sheetId="10" r:id="rId11"/>
     <sheet name="g__Ruminococcus_E-RSVM" sheetId="11" r:id="rId12"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="115">
   <si>
     <t>f__Bacteroidaceae</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>RUG496</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
   <si>
     <t>info: d = 0.05</t>
@@ -376,21 +379,24 @@
   <si>
     <t>RUG394</t>
   </si>
-  <si>
-    <t>max</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -425,7 +431,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -502,11 +508,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -524,6 +545,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2806,12 +2830,12 @@
         <v>15</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2862,12 +2886,12 @@
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2918,12 +2942,12 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2974,12 +2998,12 @@
         <v>9</v>
       </c>
       <c r="S4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3030,12 +3054,12 @@
         <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3086,12 +3110,12 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3142,12 +3166,12 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3198,12 +3222,12 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3254,12 +3278,12 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3310,12 +3334,12 @@
         <v>13</v>
       </c>
       <c r="S10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3366,12 +3390,12 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3422,12 +3446,12 @@
         <v>9</v>
       </c>
       <c r="S12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3478,12 +3502,12 @@
         <v>9</v>
       </c>
       <c r="S13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3534,12 +3558,12 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3590,12 +3614,12 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16">
         <v>0.11939812791337551</v>
@@ -3646,12 +3670,12 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3702,12 +3726,12 @@
         <v>9</v>
       </c>
       <c r="S17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3758,12 +3782,12 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3814,12 +3838,12 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3870,12 +3894,12 @@
         <v>9</v>
       </c>
       <c r="S20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3926,12 +3950,12 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22">
         <v>0.13697477204506739</v>
@@ -3982,12 +4006,12 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4038,12 +4062,12 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4094,12 +4118,12 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4150,12 +4174,12 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4206,12 +4230,12 @@
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4262,12 +4286,12 @@
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4318,12 +4342,12 @@
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4374,12 +4398,12 @@
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4430,12 +4454,12 @@
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4486,12 +4510,12 @@
         <v>9</v>
       </c>
       <c r="S31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4542,12 +4566,12 @@
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4598,12 +4622,12 @@
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4654,12 +4678,12 @@
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4710,12 +4734,12 @@
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4766,12 +4790,12 @@
         <v>6</v>
       </c>
       <c r="S36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4822,12 +4846,12 @@
         <v>9</v>
       </c>
       <c r="S37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4878,12 +4902,12 @@
         <v>6</v>
       </c>
       <c r="S38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4934,12 +4958,12 @@
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4990,12 +5014,12 @@
         <v>9</v>
       </c>
       <c r="S40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5046,12 +5070,12 @@
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5102,12 +5126,12 @@
         <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5158,12 +5182,12 @@
         <v>6</v>
       </c>
       <c r="S43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5214,12 +5238,12 @@
         <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5270,12 +5294,12 @@
         <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5326,12 +5350,12 @@
         <v>0</v>
       </c>
       <c r="S46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5382,12 +5406,12 @@
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5438,12 +5462,12 @@
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5494,12 +5518,12 @@
         <v>9</v>
       </c>
       <c r="S49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -5550,12 +5574,12 @@
         <v>0</v>
       </c>
       <c r="S50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -5606,12 +5630,12 @@
         <v>0</v>
       </c>
       <c r="S51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -5662,12 +5686,12 @@
         <v>0</v>
       </c>
       <c r="S52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -5718,12 +5742,12 @@
         <v>9</v>
       </c>
       <c r="S53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -5774,12 +5798,12 @@
         <v>9</v>
       </c>
       <c r="S54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -5830,12 +5854,12 @@
         <v>0</v>
       </c>
       <c r="S55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -5886,12 +5910,12 @@
         <v>0</v>
       </c>
       <c r="S56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -5942,12 +5966,12 @@
         <v>0</v>
       </c>
       <c r="S57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -5998,12 +6022,12 @@
         <v>0</v>
       </c>
       <c r="S58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -6054,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -6074,7 +6098,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -6127,12 +6151,12 @@
         <v>15</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>0.30606510702058493</v>
@@ -6183,12 +6207,12 @@
         <v>4</v>
       </c>
       <c r="S3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>0.48849146369842678</v>
@@ -6239,12 +6263,12 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>3.0515556871860388E-4</v>
@@ -6297,7 +6321,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>0.32749502880726289</v>
@@ -6348,12 +6372,12 @@
         <v>10</v>
       </c>
       <c r="S6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>3.030993631843136E-4</v>
@@ -6406,7 +6430,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>0.98084118686064647</v>
@@ -6459,7 +6483,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9">
         <v>0.80609243561287791</v>
@@ -6510,12 +6534,12 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10">
         <v>0.28258922242645401</v>
@@ -6566,12 +6590,12 @@
         <v>4</v>
       </c>
       <c r="S10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>0.19581458015229211</v>
@@ -6622,12 +6646,12 @@
         <v>12</v>
       </c>
       <c r="S11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12">
         <v>0.20128586684507371</v>
@@ -6678,12 +6702,12 @@
         <v>12</v>
       </c>
       <c r="S12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13">
         <v>0.1102849425302819</v>
@@ -6734,12 +6758,12 @@
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14">
         <v>7.5289618958578983E-2</v>
@@ -6790,12 +6814,12 @@
         <v>10</v>
       </c>
       <c r="S14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15">
         <v>3.324999487772639E-2</v>
@@ -6846,12 +6870,12 @@
         <v>12</v>
       </c>
       <c r="S15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16">
         <v>0.1003933858484633</v>
@@ -6902,12 +6926,12 @@
         <v>12</v>
       </c>
       <c r="S16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B17">
         <v>0.98701117062963328</v>
@@ -6960,7 +6984,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18">
         <v>8.4186272297016376E-2</v>
@@ -7011,12 +7035,12 @@
         <v>12</v>
       </c>
       <c r="S18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19">
         <v>9.2591003379385878E-3</v>
@@ -7069,7 +7093,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B20">
         <v>2.0162978893473451E-4</v>
@@ -7122,7 +7146,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B21">
         <v>5.4736963063770202E-3</v>
@@ -7175,7 +7199,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B22">
         <v>4.7921287963408589E-2</v>
@@ -7226,12 +7250,12 @@
         <v>12</v>
       </c>
       <c r="S22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23">
         <v>0.99756757769072801</v>
@@ -7284,7 +7308,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B24">
         <v>0.57407038399725707</v>
@@ -7335,12 +7359,12 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25">
         <v>0.11131905077268089</v>
@@ -7391,12 +7415,12 @@
         <v>12</v>
       </c>
       <c r="S25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B26">
         <v>0.99998345790249665</v>
@@ -7449,7 +7473,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B27">
         <v>1.134177927928273E-2</v>
@@ -7502,7 +7526,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B28">
         <v>0.63247608126680632</v>
@@ -7553,12 +7577,12 @@
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29">
         <v>0.69841563562931852</v>
@@ -7609,12 +7633,12 @@
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30">
         <v>0.31217538567787823</v>
@@ -7665,12 +7689,12 @@
         <v>9</v>
       </c>
       <c r="S30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B31">
         <v>0.1354633910629143</v>
@@ -7721,12 +7745,12 @@
         <v>6</v>
       </c>
       <c r="S31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B32">
         <v>5.8638039125324747E-2</v>
@@ -7777,12 +7801,12 @@
         <v>12</v>
       </c>
       <c r="S32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B33">
         <v>5.4109511389044311E-3</v>
@@ -7835,7 +7859,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B34">
         <v>1.6058834257227969E-2</v>
@@ -7886,12 +7910,12 @@
         <v>12</v>
       </c>
       <c r="S34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B35">
         <v>1.894630282016585E-2</v>
@@ -7942,12 +7966,12 @@
         <v>12</v>
       </c>
       <c r="S35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B36">
         <v>0.71568472379058246</v>
@@ -7998,12 +8022,12 @@
         <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B37">
         <v>1.014960474128853E-3</v>
@@ -8056,7 +8080,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B38">
         <v>0.60791483434729254</v>
@@ -8107,12 +8131,12 @@
         <v>0</v>
       </c>
       <c r="S38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B39">
         <v>2.7457196803848138E-3</v>
@@ -8163,12 +8187,12 @@
         <v>12</v>
       </c>
       <c r="S39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B40">
         <v>3.1214167847111441E-2</v>
@@ -8219,12 +8243,12 @@
         <v>6</v>
       </c>
       <c r="S40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B41">
         <v>1.1109376744767091E-3</v>
@@ -8277,7 +8301,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B42">
         <v>4.8916267891989489E-3</v>
@@ -8330,7 +8354,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B43">
         <v>4.682359553351307E-2</v>
@@ -8381,12 +8405,12 @@
         <v>12</v>
       </c>
       <c r="S43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B44">
         <v>1.814498001233817E-3</v>
@@ -8437,12 +8461,12 @@
         <v>4</v>
       </c>
       <c r="S44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B45">
         <v>1.877356715015897E-2</v>
@@ -8493,12 +8517,12 @@
         <v>4</v>
       </c>
       <c r="S45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B46">
         <v>0.3786485249733455</v>
@@ -8549,12 +8573,12 @@
         <v>4</v>
       </c>
       <c r="S46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B47">
         <v>0.46444293972139072</v>
@@ -8605,12 +8629,12 @@
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B48">
         <v>4.702006021131285E-3</v>
@@ -8661,12 +8685,12 @@
         <v>12</v>
       </c>
       <c r="S48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B49">
         <v>4.7965472343810961E-3</v>
@@ -8719,7 +8743,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B50">
         <v>0.4335641712614216</v>
@@ -8770,12 +8794,12 @@
         <v>12</v>
       </c>
       <c r="S50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B51">
         <v>1.655258693055487E-2</v>
@@ -8828,7 +8852,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B52">
         <v>4.7688865959398412E-2</v>
@@ -8879,12 +8903,12 @@
         <v>4</v>
       </c>
       <c r="S52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B53">
         <v>1.853299308810151E-2</v>
@@ -8937,7 +8961,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B54">
         <v>4.1128579335380734E-3</v>
@@ -8988,12 +9012,12 @@
         <v>12</v>
       </c>
       <c r="S54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B55">
         <v>0.76416554430893224</v>
@@ -9044,12 +9068,12 @@
         <v>0</v>
       </c>
       <c r="S55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B56">
         <v>8.2659338291744336E-3</v>
@@ -9100,12 +9124,12 @@
         <v>12</v>
       </c>
       <c r="S56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B57">
         <v>1.255731665093867E-2</v>
@@ -9156,12 +9180,12 @@
         <v>12</v>
       </c>
       <c r="S57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B58">
         <v>0.30852357426828819</v>
@@ -9212,12 +9236,12 @@
         <v>0</v>
       </c>
       <c r="S58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B59">
         <v>0.14981214758434491</v>
@@ -9268,12 +9292,12 @@
         <v>9</v>
       </c>
       <c r="S59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B60">
         <v>0.56679645610686413</v>
@@ -9324,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="S60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -9392,7 +9416,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>14.31094263505735</v>
@@ -9445,7 +9469,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>14.31093500575739</v>
@@ -9498,7 +9522,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>14.310847833865679</v>
@@ -9551,7 +9575,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>14.31090101646042</v>
@@ -9604,7 +9628,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>14.310804757293941</v>
@@ -9657,7 +9681,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>14.31101956730398</v>
@@ -9710,7 +9734,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>14.310899336192829</v>
@@ -9763,7 +9787,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>14.31098763435878</v>
@@ -9816,7 +9840,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>14.310856221128301</v>
@@ -9869,7 +9893,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>14.310890719984391</v>
@@ -9922,7 +9946,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12">
         <v>14.31091792855236</v>
@@ -9975,7 +9999,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B13">
         <v>14.310944193515491</v>
@@ -10028,7 +10052,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14">
         <v>14.31082312226477</v>
@@ -10081,7 +10105,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15">
         <v>14.310953060270499</v>
@@ -10134,7 +10158,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16">
         <v>14.31101520037747</v>
@@ -10187,7 +10211,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17">
         <v>14.310843614012679</v>
@@ -10240,7 +10264,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18">
         <v>14.310840923136119</v>
@@ -10293,7 +10317,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19">
         <v>14.310861071718231</v>
@@ -10346,7 +10370,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20">
         <v>14.31091020648037</v>
@@ -10399,7 +10423,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B21">
         <v>14.310928177129581</v>
@@ -10452,7 +10476,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22">
         <v>14.310969819791509</v>
@@ -10505,7 +10529,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23">
         <v>14.31097079959048</v>
@@ -10558,7 +10582,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24">
         <v>14.310987864221181</v>
@@ -10611,7 +10635,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B25">
         <v>14.31110471742087</v>
@@ -10664,7 +10688,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B26">
         <v>14.31096083464351</v>
@@ -10717,7 +10741,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B27">
         <v>14.310886222706859</v>
@@ -10770,7 +10794,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B28">
         <v>14.310977468241431</v>
@@ -10823,7 +10847,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29">
         <v>14.310841441965691</v>
@@ -10876,7 +10900,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B30">
         <v>14.310953437358711</v>
@@ -10929,7 +10953,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31">
         <v>14.3108723140748</v>
@@ -10982,7 +11006,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B32">
         <v>14.31088039588524</v>
@@ -11035,7 +11059,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B33">
         <v>14.31086685683375</v>
@@ -11088,7 +11112,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34">
         <v>14.31091726834269</v>
@@ -11141,7 +11165,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B35">
         <v>14.310982979244431</v>
@@ -11194,7 +11218,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B36">
         <v>14.310933768137829</v>
@@ -11247,7 +11271,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B37">
         <v>14.31098762168631</v>
@@ -11300,7 +11324,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B38">
         <v>14.31089256458027</v>
@@ -11353,7 +11377,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B39">
         <v>14.310865671348109</v>
@@ -11406,7 +11430,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B40">
         <v>14.310899769040599</v>
@@ -11459,7 +11483,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B41">
         <v>14.310896799957259</v>
@@ -11512,7 +11536,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B42">
         <v>14.31091351058129</v>
@@ -11565,7 +11589,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B43">
         <v>14.31092175793561</v>
@@ -11618,7 +11642,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B44">
         <v>14.310889488393141</v>
@@ -11671,7 +11695,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B45">
         <v>14.31097374536423</v>
@@ -11724,7 +11748,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B46">
         <v>14.310989991250681</v>
@@ -11777,7 +11801,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B47">
         <v>14.310865508838191</v>
@@ -11830,7 +11854,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B48">
         <v>14.3108799355459</v>
@@ -11883,7 +11907,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B49">
         <v>14.310985489910699</v>
@@ -11936,7 +11960,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B50">
         <v>14.31091100324242</v>
@@ -11989,7 +12013,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B51">
         <v>14.31085802521374</v>
@@ -12042,7 +12066,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B52">
         <v>14.310892112748929</v>
@@ -12095,7 +12119,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B53">
         <v>14.31092805504268</v>
@@ -12148,7 +12172,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B54">
         <v>14.310959664513961</v>
@@ -12201,7 +12225,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B55">
         <v>14.31093270548693</v>
@@ -12254,7 +12278,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B56">
         <v>14.310849976756399</v>
@@ -12307,7 +12331,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B57">
         <v>14.310896207533659</v>
@@ -12360,7 +12384,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B58">
         <v>14.31081976237021</v>
@@ -12413,7 +12437,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B59">
         <v>14.310937680092991</v>
@@ -12529,7 +12553,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>7.9041913369251759E-2</v>
@@ -12582,7 +12606,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>7.7757558051524026E-2</v>
@@ -12635,7 +12659,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>5.1825886304400888E-2</v>
@@ -12688,7 +12712,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>5.8376911850455439E-2</v>
@@ -12741,7 +12765,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>4.1241732837175679E-2</v>
@@ -12794,7 +12818,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>0.28853522052362512</v>
@@ -12847,7 +12871,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>6.2414547215499022E-2</v>
@@ -12900,7 +12924,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0.12869881684463741</v>
@@ -12953,7 +12977,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>2.931075231337129E-2</v>
@@ -13006,7 +13030,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>5.8890664270972011E-2</v>
@@ -13059,7 +13083,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12">
         <v>7.361664697748968E-2</v>
@@ -13112,7 +13136,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B13">
         <v>9.1474028571005603E-2</v>
@@ -13165,7 +13189,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14">
         <v>4.5761648437139403E-2</v>
@@ -13218,7 +13242,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15">
         <v>0.11533521891238691</v>
@@ -13271,7 +13295,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16">
         <v>0.26437682890029679</v>
@@ -13324,7 +13348,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17">
         <v>4.8942951343993117E-2</v>
@@ -13377,7 +13401,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18">
         <v>5.1048972512329482E-2</v>
@@ -13430,7 +13454,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19">
         <v>5.6010711760332517E-2</v>
@@ -13483,7 +13507,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20">
         <v>7.3312261555887173E-2</v>
@@ -13536,7 +13560,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B21">
         <v>7.0367148031838814E-2</v>
@@ -13589,7 +13613,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22">
         <v>0.13969092245506889</v>
@@ -13642,7 +13666,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23">
         <v>0.1239710276643551</v>
@@ -13695,7 +13719,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24">
         <v>0.1208168642946069</v>
@@ -13748,7 +13772,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B25">
         <v>0.50598174066319423</v>
@@ -13801,7 +13825,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B26">
         <v>7.5962708908079754E-2</v>
@@ -13854,7 +13878,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B27">
         <v>5.7240257500322488E-2</v>
@@ -13907,7 +13931,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B28">
         <v>8.6828253794625915E-2</v>
@@ -13960,7 +13984,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29">
         <v>5.9053273589709063E-2</v>
@@ -14013,7 +14037,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B30">
         <v>7.2809436289679813E-2</v>
@@ -14066,7 +14090,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31">
         <v>6.2807153111257341E-2</v>
@@ -14119,7 +14143,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B32">
         <v>7.0732090446893103E-2</v>
@@ -14172,7 +14196,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B33">
         <v>4.8225629806695008E-2</v>
@@ -14225,7 +14249,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34">
         <v>7.3795827230239058E-2</v>
@@ -14278,7 +14302,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B35">
         <v>0.218511506941235</v>
@@ -14331,7 +14355,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B36">
         <v>5.5854593490446913E-2</v>
@@ -14384,7 +14408,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B37">
         <v>0.1864002404002898</v>
@@ -14437,7 +14461,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B38">
         <v>5.5607480350971787E-2</v>
@@ -14490,7 +14514,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B39">
         <v>4.8815936671178943E-2</v>
@@ -14543,7 +14567,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B40">
         <v>6.5597997304642316E-2</v>
@@ -14596,7 +14620,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B41">
         <v>7.3029695737696534E-2</v>
@@ -14649,7 +14673,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B42">
         <v>7.6850754127234994E-2</v>
@@ -14702,7 +14726,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B43">
         <v>6.7591246043492065E-2</v>
@@ -14755,7 +14779,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B44">
         <v>5.6132554299874668E-2</v>
@@ -14808,7 +14832,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B45">
         <v>0.10617815588249591</v>
@@ -14861,7 +14885,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B46">
         <v>0.1340314740644751</v>
@@ -14914,7 +14938,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B47">
         <v>4.8015041977663923E-2</v>
@@ -14967,7 +14991,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B48">
         <v>5.838677950700779E-2</v>
@@ -15020,7 +15044,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B49">
         <v>0.1150325075351948</v>
@@ -15073,7 +15097,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B50">
         <v>4.8535011716726882E-2</v>
@@ -15126,7 +15150,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B51">
         <v>5.8451197674619162E-2</v>
@@ -15179,7 +15203,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B52">
         <v>6.330703574646554E-2</v>
@@ -15232,7 +15256,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B53">
         <v>7.0859061573873033E-2</v>
@@ -15285,7 +15309,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B54">
         <v>0.1197473306836622</v>
@@ -15338,7 +15362,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B55">
         <v>7.1303021664670507E-2</v>
@@ -15391,7 +15415,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B56">
         <v>4.3426332829051617E-2</v>
@@ -15444,7 +15468,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B57">
         <v>5.6415387466767317E-2</v>
@@ -15497,7 +15521,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B58">
         <v>5.7853797751589463E-2</v>
@@ -15550,7 +15574,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B59">
         <v>8.3436779918256848E-2</v>
@@ -15668,7 +15692,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>0.38</v>
@@ -15721,7 +15745,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>0.41</v>
@@ -15774,7 +15798,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>0.3</v>
@@ -15827,7 +15851,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>0.19</v>
@@ -15880,7 +15904,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>0.33</v>
@@ -15933,7 +15957,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>0.44</v>
@@ -15986,7 +16010,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>0.33</v>
@@ -16039,7 +16063,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0.38</v>
@@ -16092,7 +16116,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0.34</v>
@@ -16145,7 +16169,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0.33</v>
@@ -16198,7 +16222,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12">
         <v>0.3</v>
@@ -16251,7 +16275,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B13">
         <v>0.16</v>
@@ -16304,7 +16328,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14">
         <v>0.32</v>
@@ -16357,7 +16381,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15">
         <v>0.47</v>
@@ -16410,7 +16434,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16">
         <v>0.44</v>
@@ -16463,7 +16487,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17">
         <v>0.36</v>
@@ -16516,7 +16540,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18">
         <v>0.28999999999999998</v>
@@ -16569,7 +16593,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19">
         <v>0.35</v>
@@ -16622,7 +16646,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20">
         <v>0.3</v>
@@ -16675,7 +16699,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B21">
         <v>0.43</v>
@@ -16728,7 +16752,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22">
         <v>0.47</v>
@@ -16781,7 +16805,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23">
         <v>0.26</v>
@@ -16834,7 +16858,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24">
         <v>0.38</v>
@@ -16887,7 +16911,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B25">
         <v>0.46</v>
@@ -16940,7 +16964,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B26">
         <v>0.44</v>
@@ -16993,7 +17017,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B27">
         <v>0.43</v>
@@ -17046,7 +17070,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B28">
         <v>0.46</v>
@@ -17099,7 +17123,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29">
         <v>0.33</v>
@@ -17152,7 +17176,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B30">
         <v>0.37</v>
@@ -17205,7 +17229,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31">
         <v>0.3</v>
@@ -17258,7 +17282,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B32">
         <v>0.35</v>
@@ -17311,7 +17335,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B33">
         <v>0.26</v>
@@ -17364,7 +17388,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34">
         <v>0.41</v>
@@ -17417,7 +17441,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B35">
         <v>0.41</v>
@@ -17470,7 +17494,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B36">
         <v>0.35</v>
@@ -17523,7 +17547,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B37">
         <v>0.44</v>
@@ -17576,7 +17600,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B38">
         <v>0.24</v>
@@ -17629,7 +17653,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B39">
         <v>0.28999999999999998</v>
@@ -17682,7 +17706,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B40">
         <v>0.31</v>
@@ -17735,7 +17759,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B41">
         <v>0.4</v>
@@ -17788,7 +17812,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B42">
         <v>0.4</v>
@@ -17841,7 +17865,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B43">
         <v>0.34</v>
@@ -17894,7 +17918,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B44">
         <v>0.34</v>
@@ -17947,7 +17971,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B45">
         <v>0.43</v>
@@ -18000,7 +18024,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B46">
         <v>0.54</v>
@@ -18053,7 +18077,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B47">
         <v>0.28000000000000003</v>
@@ -18106,7 +18130,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B48">
         <v>0.28999999999999998</v>
@@ -18159,7 +18183,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B49">
         <v>0.5</v>
@@ -18212,7 +18236,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B50">
         <v>0.32</v>
@@ -18265,7 +18289,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B51">
         <v>0.34</v>
@@ -18318,7 +18342,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B52">
         <v>0.3</v>
@@ -18371,7 +18395,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B53">
         <v>0.42</v>
@@ -18424,7 +18448,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B54">
         <v>0.39</v>
@@ -18477,7 +18501,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B55">
         <v>0.44</v>
@@ -18530,7 +18554,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B56">
         <v>0.27</v>
@@ -18583,7 +18607,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B57">
         <v>0.39</v>
@@ -18636,7 +18660,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B58">
         <v>0.33</v>
@@ -18689,7 +18713,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B59">
         <v>0.41</v>
@@ -18746,10 +18770,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
@@ -18802,7 +18826,7 @@
         <v>14</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>15</v>
@@ -20774,7 +20798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -20783,7 +20807,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -20836,7 +20860,7 @@
         <v>15</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -20945,7 +20969,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -21266,7 +21290,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -22170,7 +22194,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
@@ -22491,7 +22515,7 @@
         <v>4</v>
       </c>
       <c r="S33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -22712,7 +22736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22723,7 +22747,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -22776,7 +22800,7 @@
         <v>15</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -22991,7 +23015,7 @@
         <v>4</v>
       </c>
       <c r="S6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -24639,7 +24663,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -30461,7 +30485,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>-1.855617042849188</v>
@@ -30514,7 +30538,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>-1.7209746638623791</v>
@@ -30567,7 +30591,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>-3.637348660074621</v>
@@ -30620,7 +30644,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>-2.641484840502804</v>
@@ -30673,7 +30697,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>-3.7964424092879092</v>
@@ -30726,7 +30750,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>-1.279459778506274</v>
@@ -30779,7 +30803,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>-2.2546040353830961</v>
@@ -30832,7 +30856,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>-1.747163721836765</v>
@@ -30885,7 +30909,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>-3.068255509246113</v>
@@ -30938,7 +30962,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>-2.8038559310342128</v>
@@ -30991,7 +31015,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12">
         <v>-2.748757315337961</v>
@@ -31044,7 +31068,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B13">
         <v>-2.2223962194895939</v>
@@ -31097,7 +31121,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14">
         <v>-3.3011061887755169</v>
@@ -31150,7 +31174,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15">
         <v>-2.540712739547716</v>
@@ -31203,7 +31227,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16">
         <v>-0.7612037441732491</v>
@@ -31256,7 +31280,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17">
         <v>-3.2130780845668299</v>
@@ -31309,7 +31333,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18">
         <v>-2.81280711529066</v>
@@ -31362,7 +31386,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19">
         <v>-3.5058236699832031</v>
@@ -31415,7 +31439,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20">
         <v>-2.3459623755550161</v>
@@ -31468,7 +31492,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B21">
         <v>-2.297407621387999</v>
@@ -31521,7 +31545,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22">
         <v>-0.72605045590986517</v>
@@ -31574,7 +31598,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23">
         <v>-1.9754035930834719</v>
@@ -31627,7 +31651,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24">
         <v>-1.884205168203879</v>
@@ -31680,7 +31704,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B25">
         <v>1.0604761276292629</v>
@@ -31733,7 +31757,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B26">
         <v>-2.0644819771320488</v>
@@ -31786,7 +31810,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B27">
         <v>-2.5869297390309329</v>
@@ -31839,7 +31863,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B28">
         <v>-1.5926188115902029</v>
@@ -31892,7 +31916,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29">
         <v>-2.8254161314154391</v>
@@ -31945,7 +31969,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B30">
         <v>-2.1403020936959418</v>
@@ -31998,7 +32022,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31">
         <v>-2.8132734416365879</v>
@@ -32051,7 +32075,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B32">
         <v>-3.141767443998738</v>
@@ -32104,7 +32128,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B33">
         <v>-3.5069342495057811</v>
@@ -32157,7 +32181,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34">
         <v>-2.3028622621595618</v>
@@ -32210,7 +32234,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B35">
         <v>-1.544476370164698</v>
@@ -32263,7 +32287,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B36">
         <v>-2.7822180677328938</v>
@@ -32316,7 +32340,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B37">
         <v>-1.985350598953167</v>
@@ -32369,7 +32393,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B38">
         <v>-3.139107859485144</v>
@@ -32422,7 +32446,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B39">
         <v>-3.341460314207831</v>
@@ -32475,7 +32499,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B40">
         <v>-3.15190233271493</v>
@@ -32528,7 +32552,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B41">
         <v>-2.4043522881474981</v>
@@ -32581,7 +32605,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B42">
         <v>-2.5094090810156899</v>
@@ -32634,7 +32658,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B43">
         <v>-3.1012797103633112</v>
@@ -32687,7 +32711,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B44">
         <v>-3.2724008989332578</v>
@@ -32740,7 +32764,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B45">
         <v>-1.8698925933966981</v>
@@ -32793,7 +32817,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B46">
         <v>-1.8418860505403141</v>
@@ -32846,7 +32870,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B47">
         <v>-3.4609005240950301</v>
@@ -32899,7 +32923,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B48">
         <v>-2.5932811375736868</v>
@@ -32952,7 +32976,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B49">
         <v>-2.0841353960312698</v>
@@ -33005,7 +33029,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B50">
         <v>-2.7526497319361489</v>
@@ -33058,7 +33082,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B51">
         <v>-2.673832211201308</v>
@@ -33111,7 +33135,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B52">
         <v>-2.737222660827296</v>
@@ -33164,7 +33188,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B53">
         <v>-2.7424956181291709</v>
@@ -33217,7 +33241,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B54">
         <v>-2.0270675681173951</v>
@@ -33270,7 +33294,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B55">
         <v>-2.240025813808058</v>
@@ -33323,7 +33347,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B56">
         <v>-3.3651310487405</v>
@@ -33376,7 +33400,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B57">
         <v>-2.4609838823848671</v>
@@ -33429,7 +33453,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B58">
         <v>-2.6120129501179541</v>
@@ -33482,7 +33506,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B59">
         <v>-2.3838726698689601</v>
@@ -33539,71 +33563,72 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:R59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="R1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>56</v>
+      <c r="S1" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="B2">
         <v>0.5915316948874112</v>
@@ -33656,10 +33681,13 @@
       <c r="R2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>57</v>
+      <c r="S2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="B3">
         <v>0.67134156939781231</v>
@@ -33712,10 +33740,13 @@
       <c r="R3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>58</v>
+      <c r="S3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="B4">
         <v>0.28026950313207571</v>
@@ -33768,10 +33799,13 @@
       <c r="R4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>59</v>
+      <c r="S4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="B5">
         <v>0.1777988745031174</v>
@@ -33824,10 +33858,13 @@
       <c r="R5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>60</v>
+      <c r="S5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="B6">
         <v>0.57218469411057615</v>
@@ -33880,10 +33917,13 @@
       <c r="R6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>61</v>
+      <c r="S6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B7">
         <v>0.55776797773246412</v>
@@ -33936,10 +33976,13 @@
       <c r="R7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>62</v>
+      <c r="S7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="B8">
         <v>0.49925903689520768</v>
@@ -33992,10 +34035,13 @@
       <c r="R8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>63</v>
+      <c r="S8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0.56861530359441637</v>
@@ -34048,10 +34094,13 @@
       <c r="R9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>64</v>
+      <c r="S9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0.1926339677134277</v>
@@ -34104,10 +34153,13 @@
       <c r="R10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>65</v>
+      <c r="S10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0.73892592714763095</v>
@@ -34160,10 +34212,13 @@
       <c r="R11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>66</v>
+      <c r="S11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B12">
         <v>0.24710247399912191</v>
@@ -34216,10 +34271,13 @@
       <c r="R12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>67</v>
+      <c r="S12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B13">
         <v>0.18241224898349079</v>
@@ -34272,10 +34330,13 @@
       <c r="R13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>68</v>
+      <c r="S13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B14">
         <v>0.77097349598927156</v>
@@ -34328,10 +34389,13 @@
       <c r="R14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>69</v>
+      <c r="S14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B15">
         <v>0.29259172837111053</v>
@@ -34384,10 +34448,13 @@
       <c r="R15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>70</v>
+      <c r="S15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B16">
         <v>0.66825628475256393</v>
@@ -34440,10 +34507,13 @@
       <c r="R16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>71</v>
+      <c r="S16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="B17">
         <v>0.36530967512943441</v>
@@ -34496,10 +34566,13 @@
       <c r="R17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>72</v>
+      <c r="S17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="B18">
         <v>0.67489754224342291</v>
@@ -34552,10 +34625,13 @@
       <c r="R18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>73</v>
+      <c r="S18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B19">
         <v>0.56516911394254365</v>
@@ -34608,10 +34684,13 @@
       <c r="R19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>74</v>
+      <c r="S19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="B20">
         <v>0.42106234071328991</v>
@@ -34664,10 +34743,13 @@
       <c r="R20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>75</v>
+      <c r="S20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="B21">
         <v>0.44449841616685459</v>
@@ -34720,10 +34802,13 @@
       <c r="R21" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>76</v>
+      <c r="S21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="B22">
         <v>0.88342730543691939</v>
@@ -34776,10 +34861,13 @@
       <c r="R22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>77</v>
+      <c r="S22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="B23">
         <v>0.42148035944842088</v>
@@ -34832,10 +34920,13 @@
       <c r="R23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>78</v>
+      <c r="S23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="B24">
         <v>0.40076567876619018</v>
@@ -34888,10 +34979,13 @@
       <c r="R24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>79</v>
+      <c r="S24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B25">
         <v>0.92140160404274618</v>
@@ -34944,10 +35038,13 @@
       <c r="R25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>80</v>
+      <c r="S25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="B26">
         <v>0.53098677503748171</v>
@@ -35000,10 +35097,13 @@
       <c r="R26" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>81</v>
+      <c r="S26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="B27">
         <v>0.49326609955428019</v>
@@ -35056,10 +35156,13 @@
       <c r="R27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>82</v>
+      <c r="S27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="B28">
         <v>0.64283768097732752</v>
@@ -35112,10 +35215,13 @@
       <c r="R28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>83</v>
+      <c r="S28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="B29">
         <v>0.6535608350749279</v>
@@ -35168,10 +35274,13 @@
       <c r="R29" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>84</v>
+      <c r="S29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="B30">
         <v>0.68583638048252293</v>
@@ -35224,10 +35333,13 @@
       <c r="R30" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>85</v>
+      <c r="S30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="B31">
         <v>0.13397206239294951</v>
@@ -35280,10 +35392,13 @@
       <c r="R31" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>86</v>
+      <c r="S31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="B32">
         <v>0.38118072857042729</v>
@@ -35336,10 +35451,13 @@
       <c r="R32" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>87</v>
+      <c r="S32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="B33">
         <v>0.48485811129047851</v>
@@ -35392,10 +35510,13 @@
       <c r="R33" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>88</v>
+      <c r="S33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B34">
         <v>0.55022524128827865</v>
@@ -35448,10 +35569,13 @@
       <c r="R34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>89</v>
+      <c r="S34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="B35">
         <v>0.42192913037029262</v>
@@ -35504,10 +35628,13 @@
       <c r="R35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>90</v>
+      <c r="S35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="B36">
         <v>0.21334902875815209</v>
@@ -35560,10 +35687,13 @@
       <c r="R36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>91</v>
+      <c r="S36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="B37">
         <v>0.27618499844248912</v>
@@ -35616,10 +35746,13 @@
       <c r="R37" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>92</v>
+      <c r="S37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="B38">
         <v>0.24724649472861809</v>
@@ -35672,10 +35805,13 @@
       <c r="R38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>93</v>
+      <c r="S38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="B39">
         <v>0.60791208244034445</v>
@@ -35728,10 +35864,13 @@
       <c r="R39" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>94</v>
+      <c r="S39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="B40">
         <v>0.17552702187435379</v>
@@ -35784,10 +35923,13 @@
       <c r="R40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>95</v>
+      <c r="S40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="B41">
         <v>0.40817251666417381</v>
@@ -35840,10 +35982,13 @@
       <c r="R41" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>96</v>
+      <c r="S41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="B42">
         <v>0.41601699985204321</v>
@@ -35896,10 +36041,13 @@
       <c r="R42" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>97</v>
+      <c r="S42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="B43">
         <v>0.27215268481423449</v>
@@ -35952,10 +36100,13 @@
       <c r="R43" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>98</v>
+      <c r="S43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="B44">
         <v>0.55038507070590492</v>
@@ -36008,10 +36159,13 @@
       <c r="R44" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>99</v>
+      <c r="S44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="B45">
         <v>0.45687589861135502</v>
@@ -36064,10 +36218,13 @@
       <c r="R45" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>100</v>
+      <c r="S45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="B46">
         <v>0.37956118405574829</v>
@@ -36120,10 +36277,13 @@
       <c r="R46" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>101</v>
+      <c r="S46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="B47">
         <v>0.41227805821810809</v>
@@ -36176,10 +36336,13 @@
       <c r="R47" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>102</v>
+      <c r="S47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B48">
         <v>0.73620943338592215</v>
@@ -36232,10 +36395,13 @@
       <c r="R48" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>103</v>
+      <c r="S48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="B49">
         <v>0.25928612010081697</v>
@@ -36288,10 +36454,13 @@
       <c r="R49" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>104</v>
+      <c r="S49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="B50">
         <v>0.35204695807587549</v>
@@ -36344,10 +36513,13 @@
       <c r="R50" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
-        <v>105</v>
+      <c r="S50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="B51">
         <v>0.7580061316811284</v>
@@ -36400,10 +36572,13 @@
       <c r="R51" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>106</v>
+      <c r="S51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="B52">
         <v>0.78410986328151644</v>
@@ -36456,10 +36631,13 @@
       <c r="R52" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>107</v>
+      <c r="S52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="B53">
         <v>0.30767199971099152</v>
@@ -36512,10 +36690,13 @@
       <c r="R53" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>108</v>
+      <c r="S53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="B54">
         <v>0.34636977922005119</v>
@@ -36568,10 +36749,13 @@
       <c r="R54" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
-        <v>109</v>
+      <c r="S54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="B55">
         <v>0.61908868187188471</v>
@@ -36624,10 +36808,13 @@
       <c r="R55" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
-        <v>110</v>
+      <c r="S55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="B56">
         <v>0.26014346551951839</v>
@@ -36680,10 +36867,13 @@
       <c r="R56" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
-        <v>111</v>
+      <c r="S56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="B57">
         <v>0.65667128351360216</v>
@@ -36736,10 +36926,13 @@
       <c r="R57" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
-        <v>112</v>
+      <c r="S57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="B58">
         <v>0.75614276880442688</v>
@@ -36792,10 +36985,13 @@
       <c r="R58" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>113</v>
+      <c r="S58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="B59">
         <v>0.40504614747896178</v>
@@ -36847,6 +37043,9 @@
       </c>
       <c r="R59" t="s">
         <v>0</v>
+      </c>
+      <c r="S59" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/fft-o__Bacteroidales.xlsx
+++ b/outputs/fft-o__Bacteroidales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A647036-AFCD-D34A-BBC3-C9E73847D3D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CB0081-4ED4-6743-B147-93B43AAF6C26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <sheet name="g__Prevotella-LSVM-1" sheetId="10" r:id="rId10"/>
     <sheet name="g__C941-LSVM-1" sheetId="11" r:id="rId11"/>
     <sheet name="g__RC9-LSVM-1" sheetId="12" r:id="rId12"/>
-    <sheet name="statistics" sheetId="13" r:id="rId13"/>
+    <sheet name="statistics-1" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
